--- a/BCRPP_QC_R_Excel_Program/Core QC Rules/BCRPP Warning Rules.xlsx
+++ b/BCRPP_QC_R_Excel_Program/Core QC Rules/BCRPP Warning Rules.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{652C01EF-B74C-F947-BE3C-9E284DC064E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10F77BD9-7C18-433B-B1BF-693017332715}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D778C6-814F-8C45-911D-E1BCCDA260FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="229">
   <si>
     <t>Variable</t>
   </si>
@@ -600,13 +600,130 @@
   </si>
   <si>
     <t>pa_pct is not within range 0-100 %</t>
+  </si>
+  <si>
+    <t>age_preg2</t>
+  </si>
+  <si>
+    <t>age_preg3</t>
+  </si>
+  <si>
+    <t>age_preg4</t>
+  </si>
+  <si>
+    <t>age_preg5</t>
+  </si>
+  <si>
+    <t>age_preg6</t>
+  </si>
+  <si>
+    <t>age_preg7</t>
+  </si>
+  <si>
+    <t>age_preg8</t>
+  </si>
+  <si>
+    <t>age_preg9</t>
+  </si>
+  <si>
+    <t>age_preg10</t>
+  </si>
+  <si>
+    <t>Verify: age_preg1 is not within range 12-58 years</t>
+  </si>
+  <si>
+    <t>Verify: age_preg2 is not within range 12-58 years</t>
+  </si>
+  <si>
+    <t>Verify: age_preg3 is not within range 12-58 years</t>
+  </si>
+  <si>
+    <t>Verify: age_preg4 is not within range 12-58 years</t>
+  </si>
+  <si>
+    <t>Verify: age_preg5 is not within range 12-58 years</t>
+  </si>
+  <si>
+    <t>Verify: age_preg6 is not within range 12-58 years</t>
+  </si>
+  <si>
+    <t>Verify: age_preg7 is not within range 12-58 years</t>
+  </si>
+  <si>
+    <t>Verify: age_preg8 is not within range 12-58 years</t>
+  </si>
+  <si>
+    <t>Verify: age_preg9 is not within range 12-58 years</t>
+  </si>
+  <si>
+    <t>Verify: age_preg10 is not within range 12-58 years</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b1</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b2</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b3</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b4</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b5</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b6</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b7</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b8</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b9</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b10</t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b1 is not within range 0-12 months</t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b2 is not within range 0-12 months</t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b3 is not within range 0-12 months</t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b4 is not within range 0-12 months</t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b5 is not within range 0-12 months</t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b6 is not within range 0-12 months</t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b7 is not within range 0-12 months</t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b8 is not within range 0-12 months</t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b9 is not within range 0-12 months</t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b10 is not within range 0-12 months</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,6 +749,12 @@
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -966,38 +1089,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T75"/>
+  <dimension ref="A1:T95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H12" workbookViewId="0">
-      <selection activeCell="T45" sqref="T45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="97" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.85546875" style="2"/>
+    <col min="21" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1059,7 +1182,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -1085,7 +1208,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -1111,7 +1234,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
@@ -1128,7 +1251,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -1148,7 +1271,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -1171,7 +1294,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -1197,7 +1320,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
@@ -1220,7 +1343,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
@@ -1237,7 +1360,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -1257,7 +1380,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>49</v>
       </c>
@@ -1274,7 +1397,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>52</v>
       </c>
@@ -1294,7 +1417,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>54</v>
       </c>
@@ -1311,7 +1434,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>57</v>
       </c>
@@ -1328,7 +1451,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>59</v>
       </c>
@@ -1345,7 +1468,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>62</v>
       </c>
@@ -1362,7 +1485,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
@@ -1382,7 +1505,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>66</v>
       </c>
@@ -1402,7 +1525,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>68</v>
       </c>
@@ -1422,7 +1545,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>70</v>
       </c>
@@ -1442,7 +1565,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>72</v>
       </c>
@@ -1462,7 +1585,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>74</v>
       </c>
@@ -1482,7 +1605,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>76</v>
       </c>
@@ -1502,7 +1625,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>78</v>
       </c>
@@ -1522,544 +1645,484 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="2">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2">
+        <v>58</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="2">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2">
+        <v>58</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="2">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2">
+        <v>58</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="2">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2">
+        <v>58</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="2">
+        <v>12</v>
+      </c>
+      <c r="D29" s="2">
+        <v>58</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="2">
+        <v>12</v>
+      </c>
+      <c r="D30" s="2">
+        <v>58</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="2">
+        <v>12</v>
+      </c>
+      <c r="D31" s="2">
+        <v>58</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="2">
+        <v>12</v>
+      </c>
+      <c r="D32" s="2">
+        <v>58</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="2">
+        <v>12</v>
+      </c>
+      <c r="D33" s="2">
+        <v>58</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="2">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2">
+        <v>58</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <v>12</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
+        <v>12</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2">
+        <v>12</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
+        <v>12</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="T38" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2">
+        <v>12</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="T39" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2">
+        <v>12</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="T40" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2">
+        <v>12</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2">
+        <v>12</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2">
+        <v>12</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2">
+        <v>12</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="S25" s="2" t="s">
+      <c r="S45" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="T25" s="2" t="s">
+      <c r="T45" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="2" t="s">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E46" s="2">
         <v>4</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I46" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="J26" s="2">
-        <v>777</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M26" s="2">
-        <v>777</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="P26" s="2">
-        <v>777</v>
-      </c>
-      <c r="S26" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J27" s="2">
-        <v>666</v>
-      </c>
-      <c r="S27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2">
-        <v>70</v>
-      </c>
-      <c r="S28" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="2">
-        <v>777</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="S29" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2">
-        <v>25</v>
-      </c>
-      <c r="S30" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="T30" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2">
-        <v>100</v>
-      </c>
-      <c r="S31" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2">
-        <v>50</v>
-      </c>
-      <c r="S32" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="T32" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2">
-        <v>70</v>
-      </c>
-      <c r="S33" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="T33" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0</v>
-      </c>
-      <c r="D34" s="2">
-        <v>60</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="T34" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0</v>
-      </c>
-      <c r="D35" s="2">
-        <v>100</v>
-      </c>
-      <c r="S35" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="T35" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0</v>
-      </c>
-      <c r="D36" s="2">
-        <v>50</v>
-      </c>
-      <c r="S36" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="T36" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E37" s="2">
-        <v>4</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J37" s="2">
-        <v>777</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M37" s="2">
-        <v>777</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="P37" s="2">
-        <v>777</v>
-      </c>
-      <c r="S37" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="T37" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
-      <c r="A38" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" s="2">
-        <v>1</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J38" s="2">
-        <v>666</v>
-      </c>
-      <c r="S38" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="T38" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
-      <c r="A39" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J39" s="2">
-        <v>1</v>
-      </c>
-      <c r="S39" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
-      <c r="A40" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J40" s="2">
-        <v>0</v>
-      </c>
-      <c r="S40" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="T40" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="A41" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J41" s="2">
-        <v>888</v>
-      </c>
-      <c r="S41" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="T41" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20">
-      <c r="A42" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="J42" s="2">
-        <v>1</v>
-      </c>
-      <c r="S42" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="T42" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20">
-      <c r="A43" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" s="2">
-        <v>0</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J43" s="2">
-        <v>0</v>
-      </c>
-      <c r="S43" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="T43" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20">
-      <c r="A44" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E44" s="2">
-        <v>888</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J44" s="2">
-        <v>888</v>
-      </c>
-      <c r="S44" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="T44" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20">
-      <c r="A45" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E45" s="2">
-        <v>0</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J45" s="2">
-        <v>777</v>
-      </c>
-      <c r="S45" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="T45" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
-      <c r="A46" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E46" s="2">
-        <v>0</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="J46" s="2">
         <v>777</v>
       </c>
+      <c r="L46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M46" s="2">
+        <v>777</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="P46" s="2">
+        <v>777</v>
+      </c>
       <c r="S46" s="2" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="E47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="J47" s="2">
         <v>666</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>34</v>
@@ -2068,436 +2131,412 @@
         <v>0</v>
       </c>
       <c r="D48" s="2">
+        <v>70</v>
+      </c>
+      <c r="S48" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="S48" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="T48" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E49" s="2">
+        <v>777</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2">
+        <v>25</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0</v>
+      </c>
+      <c r="D51" s="2">
+        <v>100</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0</v>
+      </c>
+      <c r="D52" s="2">
+        <v>50</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0</v>
+      </c>
+      <c r="D53" s="2">
+        <v>70</v>
+      </c>
+      <c r="S53" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0</v>
+      </c>
+      <c r="D54" s="2">
+        <v>60</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0</v>
+      </c>
+      <c r="D55" s="2">
+        <v>100</v>
+      </c>
+      <c r="S55" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2">
+        <v>50</v>
+      </c>
+      <c r="S56" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57" s="2">
+        <v>4</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J57" s="2">
+        <v>777</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M57" s="2">
+        <v>777</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P57" s="2">
+        <v>777</v>
+      </c>
+      <c r="S57" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J58" s="2">
         <v>666</v>
       </c>
-      <c r="I49" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="J49" s="2">
-        <v>0</v>
-      </c>
-      <c r="S49" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="T49" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20">
-      <c r="A50" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="2">
-        <v>0</v>
-      </c>
-      <c r="D50" s="2">
-        <v>84</v>
-      </c>
-      <c r="S50" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="T50" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20">
-      <c r="A51" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" s="2">
-        <v>16</v>
-      </c>
-      <c r="D51" s="2">
-        <v>58</v>
-      </c>
-      <c r="S51" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="T51" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20">
-      <c r="A52" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" s="2">
-        <v>0</v>
-      </c>
-      <c r="D52" s="2">
-        <v>58</v>
-      </c>
-      <c r="S52" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="T52" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20">
-      <c r="A53" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E53" s="2">
-        <v>0</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J53" s="2">
-        <v>777</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="M53" s="2">
-        <v>777</v>
-      </c>
-      <c r="O53" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P53" s="2">
-        <v>777</v>
-      </c>
-      <c r="S53" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="T53" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20">
-      <c r="A54" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B54" s="2" t="s">
+      <c r="S58" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J59" s="2">
+        <v>1</v>
+      </c>
+      <c r="S59" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0</v>
+      </c>
+      <c r="S60" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J61" s="2">
+        <v>888</v>
+      </c>
+      <c r="S61" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J62" s="2">
+        <v>1</v>
+      </c>
+      <c r="S62" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="T62" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E54" s="2">
-        <v>1</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J54" s="2">
-        <v>666</v>
-      </c>
-      <c r="S54" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="T54" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20">
-      <c r="A55" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E55" s="2">
-        <v>666</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="J55" s="2">
-        <v>1</v>
-      </c>
-      <c r="S55" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="T55" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20">
-      <c r="A56" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E56" s="2">
-        <v>1</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J56" s="2">
-        <v>1</v>
-      </c>
-      <c r="S56" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="T56" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20">
-      <c r="A57" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J57" s="2">
-        <v>888</v>
-      </c>
-      <c r="S57" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="T57" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20">
-      <c r="A58" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E58" s="2">
-        <v>2</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="J58" s="2">
-        <v>777</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="M58" s="2">
-        <v>777</v>
-      </c>
-      <c r="S58" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="T58" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20">
-      <c r="A59" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E59" s="2">
-        <v>2</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="J59" s="2">
-        <v>666</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="M59" s="2">
-        <v>666</v>
-      </c>
-      <c r="O59" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="P59" s="2">
-        <v>666</v>
-      </c>
-      <c r="S59" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="T59" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20">
-      <c r="A60" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C60" s="2">
-        <v>0</v>
-      </c>
-      <c r="D60" s="2">
-        <v>24</v>
-      </c>
-      <c r="S60" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="T60" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20">
-      <c r="A61" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C61" s="2">
-        <v>0</v>
-      </c>
-      <c r="D61" s="2">
-        <v>24</v>
-      </c>
-      <c r="S61" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="T61" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20">
-      <c r="A62" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C62" s="2">
-        <v>0</v>
-      </c>
-      <c r="D62" s="2">
-        <v>24</v>
-      </c>
-      <c r="S62" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="T62" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20">
-      <c r="A63" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="E63" s="2">
         <v>0</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="J63" s="2">
-        <v>777</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="M63" s="2">
-        <v>777</v>
-      </c>
-      <c r="O63" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="P63" s="2">
-        <v>777</v>
+        <v>0</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E64" s="2">
-        <v>0</v>
+        <v>888</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="J64" s="2">
-        <v>777</v>
+        <v>888</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E65" s="2">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J65" s="2">
         <v>777</v>
       </c>
-      <c r="I65" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J65" s="2">
-        <v>0</v>
-      </c>
       <c r="S65" s="2" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>37</v>
@@ -2506,154 +2545,127 @@
         <v>0</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="J66" s="2">
         <v>777</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E67" s="2">
-        <v>777</v>
+        <v>0</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="J67" s="2">
-        <v>0</v>
+        <v>666</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>173</v>
+        <v>34</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0</v>
+      </c>
+      <c r="D68" s="2">
+        <v>84</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>175</v>
+        <v>37</v>
+      </c>
+      <c r="E69" s="2">
+        <v>666</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>177</v>
+        <v>133</v>
+      </c>
+      <c r="J69" s="2">
+        <v>0</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E70" s="2">
-        <v>0</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J70" s="2">
-        <v>3</v>
+        <v>34</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0</v>
+      </c>
+      <c r="D70" s="2">
+        <v>84</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E71" s="2">
-        <v>0</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="J71" s="2">
-        <v>3</v>
+        <v>34</v>
+      </c>
+      <c r="C71" s="2">
+        <v>16</v>
+      </c>
+      <c r="D71" s="2">
+        <v>58</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>34</v>
@@ -2662,85 +2674,597 @@
         <v>0</v>
       </c>
       <c r="D72" s="2">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E73" s="2">
         <v>0</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="J73" s="2">
         <v>777</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="M73" s="2">
         <v>777</v>
       </c>
+      <c r="O73" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P73" s="2">
+        <v>777</v>
+      </c>
       <c r="S73" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="T73" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E74" s="2">
+        <v>1</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J74" s="2">
+        <v>666</v>
+      </c>
+      <c r="S74" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="T74" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E75" s="2">
+        <v>666</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J75" s="2">
+        <v>1</v>
+      </c>
+      <c r="S75" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="T75" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E76" s="2">
+        <v>1</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J76" s="2">
+        <v>1</v>
+      </c>
+      <c r="S76" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="T76" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J77" s="2">
+        <v>888</v>
+      </c>
+      <c r="S77" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="T77" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E78" s="2">
+        <v>2</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J78" s="2">
+        <v>777</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="M78" s="2">
+        <v>777</v>
+      </c>
+      <c r="S78" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="T78" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E79" s="2">
+        <v>2</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J79" s="2">
+        <v>666</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="M79" s="2">
+        <v>666</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="P79" s="2">
+        <v>666</v>
+      </c>
+      <c r="S79" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="T79" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0</v>
+      </c>
+      <c r="D80" s="2">
+        <v>24</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0</v>
+      </c>
+      <c r="D81" s="2">
+        <v>24</v>
+      </c>
+      <c r="S81" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="T81" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0</v>
+      </c>
+      <c r="D82" s="2">
+        <v>24</v>
+      </c>
+      <c r="S82" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="T82" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E83" s="2">
+        <v>0</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J83" s="2">
+        <v>777</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="M83" s="2">
+        <v>777</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="P83" s="2">
+        <v>777</v>
+      </c>
+      <c r="S83" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="T83" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E84" s="2">
+        <v>0</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J84" s="2">
+        <v>777</v>
+      </c>
+      <c r="S84" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="T84" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E85" s="2">
+        <v>777</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J85" s="2">
+        <v>0</v>
+      </c>
+      <c r="S85" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="T85" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E86" s="2">
+        <v>0</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J86" s="2">
+        <v>777</v>
+      </c>
+      <c r="S86" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="T86" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E87" s="2">
+        <v>777</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J87" s="2">
+        <v>0</v>
+      </c>
+      <c r="S87" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="T87" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="S88" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="T88" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="S89" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="T89" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E90" s="2">
+        <v>0</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J90" s="2">
+        <v>3</v>
+      </c>
+      <c r="S90" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="T90" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E91" s="2">
+        <v>0</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J91" s="2">
+        <v>3</v>
+      </c>
+      <c r="S91" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="T91" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0</v>
+      </c>
+      <c r="D92" s="2">
+        <v>16</v>
+      </c>
+      <c r="S92" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="T92" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="T73" s="2" t="s">
+      <c r="B93" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E93" s="2">
+        <v>0</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J93" s="2">
+        <v>777</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M93" s="2">
+        <v>777</v>
+      </c>
+      <c r="S93" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="T93" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
-      <c r="A74" s="2" t="s">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C74" s="2">
-        <v>0</v>
-      </c>
-      <c r="D74" s="2">
+      <c r="B94" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C94" s="2">
+        <v>0</v>
+      </c>
+      <c r="D94" s="2">
         <v>30</v>
       </c>
-      <c r="S74" s="2" t="s">
+      <c r="S94" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="T74" s="2" t="s">
+      <c r="T94" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
-      <c r="A75" s="2" t="s">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C75" s="2">
-        <v>0</v>
-      </c>
-      <c r="D75" s="2">
+      <c r="B95" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C95" s="2">
+        <v>0</v>
+      </c>
+      <c r="D95" s="2">
         <v>100</v>
       </c>
-      <c r="S75" s="2" t="s">
+      <c r="S95" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="T75" s="2" t="s">
+      <c r="T95" s="2" t="s">
         <v>189</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2752,7 +3276,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2765,7 +3289,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/BCRPP_QC_R_Excel_Program/Core QC Rules/BCRPP Warning Rules.xlsx
+++ b/BCRPP_QC_R_Excel_Program/Core QC Rules/BCRPP Warning Rules.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D778C6-814F-8C45-911D-E1BCCDA260FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC147AC-4B5E-974E-9ECB-0A36DBC4CA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1091,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T39" sqref="T39"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1350,7 +1350,7 @@
       <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>44</v>
       </c>
       <c r="S9" s="2" t="s">

--- a/BCRPP_QC_R_Excel_Program/Core QC Rules/BCRPP Warning Rules.xlsx
+++ b/BCRPP_QC_R_Excel_Program/Core QC Rules/BCRPP Warning Rules.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC147AC-4B5E-974E-9ECB-0A36DBC4CA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA867FCA-E323-3E4E-9407-FE163FA64766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="232">
   <si>
     <t>Variable</t>
   </si>
@@ -521,27 +521,12 @@
     <t>hrtuse</t>
   </si>
   <si>
-    <t>hrtuse is 0 (never user): hrt_dur, hrtep_dur, and hrteonly_dur should be 777</t>
-  </si>
-  <si>
     <t>hrtuse_ep</t>
   </si>
   <si>
-    <t>hrtep_dur should be 777 when hrtuse_ep is 0 (never user)</t>
-  </si>
-  <si>
-    <t>hrtep_dur is 777 but hrtuse_ep is not 0</t>
-  </si>
-  <si>
     <t>hrtuse_eonly</t>
   </si>
   <si>
-    <t>hrtuse_eonly is 0 ( never user) but hrteonly_dur is not 777</t>
-  </si>
-  <si>
-    <t>hrteonly_dur is 777 but hrtuse_eonly is not 0</t>
-  </si>
-  <si>
     <t>crossrange2.warnings</t>
   </si>
   <si>
@@ -717,6 +702,30 @@
   </si>
   <si>
     <t>Verify: breastfeed_dur_b10 is not within range 0-12 months</t>
+  </si>
+  <si>
+    <t>666, 777</t>
+  </si>
+  <si>
+    <t>hrtuse is 0 (never user): hrt_dur, hrtep_dur, and hrteonly_dur should be 666 or 777</t>
+  </si>
+  <si>
+    <t>hrtep_dur should be 666 (if premenopausal) or 777 when hrtuse_ep is 0 (never user)</t>
+  </si>
+  <si>
+    <t>hrtep_dur is 666 or 777 but hrtuse_ep is not 0</t>
+  </si>
+  <si>
+    <t>hrtuse_eonly is 0 ( never user) but hrteonly_dur is not 666 or777</t>
+  </si>
+  <si>
+    <t>hrteonly_dur is 666 or 777 but hrtuse_eonly is not 0</t>
+  </si>
+  <si>
+    <t>hrtuse_ep != 3</t>
+  </si>
+  <si>
+    <t>hrtuse_eonly != 3</t>
   </si>
 </sst>
 </file>
@@ -1091,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1662,12 +1671,12 @@
         <v>126</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>34</v>
@@ -1679,15 +1688,15 @@
         <v>58</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>34</v>
@@ -1699,15 +1708,15 @@
         <v>58</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>34</v>
@@ -1719,15 +1728,15 @@
         <v>58</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>34</v>
@@ -1739,15 +1748,15 @@
         <v>58</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>34</v>
@@ -1759,15 +1768,15 @@
         <v>58</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>34</v>
@@ -1779,15 +1788,15 @@
         <v>58</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>34</v>
@@ -1799,15 +1808,15 @@
         <v>58</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>34</v>
@@ -1819,15 +1828,15 @@
         <v>58</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>34</v>
@@ -1839,15 +1848,15 @@
         <v>58</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>34</v>
@@ -1859,15 +1868,15 @@
         <v>12</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>34</v>
@@ -1879,15 +1888,15 @@
         <v>12</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>34</v>
@@ -1899,15 +1908,15 @@
         <v>12</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>34</v>
@@ -1919,15 +1928,15 @@
         <v>12</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>34</v>
@@ -1939,15 +1948,15 @@
         <v>12</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>34</v>
@@ -1959,15 +1968,15 @@
         <v>12</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>34</v>
@@ -1979,15 +1988,15 @@
         <v>12</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>34</v>
@@ -1999,15 +2008,15 @@
         <v>12</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>34</v>
@@ -2019,15 +2028,15 @@
         <v>12</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>34</v>
@@ -2039,10 +2048,10 @@
         <v>12</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="T44" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
@@ -2950,31 +2959,31 @@
       <c r="I83" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="J83" s="2">
-        <v>777</v>
+      <c r="J83" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="L83" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M83" s="2">
-        <v>777</v>
+      <c r="M83" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="O83" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P83" s="2">
-        <v>777</v>
+      <c r="P83" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="S83" s="2" t="s">
         <v>162</v>
       </c>
       <c r="T83" s="2" t="s">
-        <v>163</v>
+        <v>225</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>37</v>
@@ -2985,14 +2994,14 @@
       <c r="I84" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="J84" s="2">
-        <v>777</v>
+      <c r="J84" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="S84" s="2" t="s">
         <v>156</v>
       </c>
       <c r="T84" s="2" t="s">
-        <v>165</v>
+        <v>226</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
@@ -3002,11 +3011,11 @@
       <c r="B85" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E85" s="2">
-        <v>777</v>
+      <c r="E85" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J85" s="2">
         <v>0</v>
@@ -3015,12 +3024,12 @@
         <v>156</v>
       </c>
       <c r="T85" s="2" t="s">
-        <v>166</v>
+        <v>227</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>37</v>
@@ -3031,14 +3040,14 @@
       <c r="I86" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="J86" s="2">
-        <v>777</v>
+      <c r="J86" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="S86" s="2" t="s">
         <v>157</v>
       </c>
       <c r="T86" s="2" t="s">
-        <v>168</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
@@ -3048,11 +3057,11 @@
       <c r="B87" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E87" s="2">
-        <v>777</v>
+      <c r="E87" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J87" s="2">
         <v>0</v>
@@ -3061,7 +3070,7 @@
         <v>157</v>
       </c>
       <c r="T87" s="2" t="s">
-        <v>169</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
@@ -3069,31 +3078,31 @@
         <v>162</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>162</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I88" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="L88" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="J88" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="L88" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="M88" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="S88" s="2" t="s">
         <v>162</v>
       </c>
       <c r="T88" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
@@ -3101,31 +3110,31 @@
         <v>162</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>162</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="I89" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L89" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="L89" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="M89" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="S89" s="2" t="s">
         <v>162</v>
       </c>
       <c r="T89" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
@@ -3133,22 +3142,25 @@
         <v>162</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E90" s="2">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J90" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S90" s="2" t="s">
         <v>162</v>
       </c>
       <c r="T90" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
@@ -3156,27 +3168,30 @@
         <v>162</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E91" s="2">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="J91" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S91" s="2" t="s">
         <v>162</v>
       </c>
       <c r="T91" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>34</v>
@@ -3188,15 +3203,15 @@
         <v>16</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="T92" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>88</v>
@@ -3205,27 +3220,27 @@
         <v>0</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="J93" s="2">
         <v>777</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M93" s="2">
         <v>777</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="T93" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>34</v>
@@ -3237,15 +3252,15 @@
         <v>30</v>
       </c>
       <c r="S94" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="T94" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>34</v>
@@ -3257,10 +3272,10 @@
         <v>100</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="T95" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/BCRPP_QC_R_Excel_Program/Core QC Rules/BCRPP Warning Rules.xlsx
+++ b/BCRPP_QC_R_Excel_Program/Core QC Rules/BCRPP Warning Rules.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA867FCA-E323-3E4E-9407-FE163FA64766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF269188-8CC5-1046-8C31-DDA7B51B43A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-40960" yWindow="1300" windowWidth="40960" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="329">
   <si>
     <t>Variable</t>
   </si>
@@ -146,21 +146,12 @@
     <t>crossvalid1.warnings</t>
   </si>
   <si>
-    <t>qcycle is 0 but baseline is not 1</t>
-  </si>
-  <si>
     <t>baseline == 0</t>
   </si>
   <si>
     <t>1 &lt;= qcycle &amp; qcycle != 888</t>
   </si>
   <si>
-    <t>qcycle is greater than or equal to 1 but baseline is not 0</t>
-  </si>
-  <si>
-    <t>qcycle is 888 but baseline is not 888</t>
-  </si>
-  <si>
     <t>lastfolllowup</t>
   </si>
   <si>
@@ -176,9 +167,6 @@
     <t>birth_year</t>
   </si>
   <si>
-    <t>birth_year is not within ranges 1910-2010</t>
-  </si>
-  <si>
     <t>sex</t>
   </si>
   <si>
@@ -191,9 +179,6 @@
     <t>age</t>
   </si>
   <si>
-    <t>Verify: age is not within ranges 10-100</t>
-  </si>
-  <si>
     <t>race</t>
   </si>
   <si>
@@ -227,51 +212,27 @@
     <t>agemenarche</t>
   </si>
   <si>
-    <t>Verify: agemenarche is not within range 8-16</t>
-  </si>
-  <si>
     <t>height</t>
   </si>
   <si>
-    <t>Verify: height is not within range 100-200cm</t>
-  </si>
-  <si>
     <t>bmi</t>
   </si>
   <si>
-    <t>Verify: bmi is not within range 16-50</t>
-  </si>
-  <si>
     <t>weight</t>
   </si>
   <si>
-    <t>Verify: weight is not within range 30-150 kg</t>
-  </si>
-  <si>
     <t>bmi_earlyadult</t>
   </si>
   <si>
-    <t>Verify: bmi_earlyadult is not within range 16-50</t>
-  </si>
-  <si>
     <t>waist</t>
   </si>
   <si>
-    <t>Verify: waist is not within range 0-160 cm</t>
-  </si>
-  <si>
     <t>hip</t>
   </si>
   <si>
-    <t>Verify: hip is not within range 0-160 cm</t>
-  </si>
-  <si>
     <t>whr</t>
   </si>
   <si>
-    <t>Verify: whr is not within range 0-1.2 cm</t>
-  </si>
-  <si>
     <t>alcohol_status</t>
   </si>
   <si>
@@ -293,60 +254,30 @@
     <t>alcohol_dur</t>
   </si>
   <si>
-    <t>alcohol_status is 4; not consistent with alcohol_init, alochol_stop and alcohol_dur</t>
-  </si>
-  <si>
     <t>crossvalid2.warnings</t>
   </si>
   <si>
-    <t xml:space="preserve">alcohol_status is 1 (current drinker) but alcohol_stop is not 666 </t>
-  </si>
-  <si>
-    <t>Verify: alcohol_init is not within range 0-70 years</t>
-  </si>
-  <si>
     <t>2, 4</t>
   </si>
   <si>
-    <t>Age of intiation of regular drinker is 777 but alcohol_status is not Former or Never</t>
-  </si>
-  <si>
     <t>alcohol_amt</t>
   </si>
   <si>
-    <t>Verify: alcohol_amt is not within range 0-25 gms</t>
-  </si>
-  <si>
     <t xml:space="preserve">alcohol_stop </t>
   </si>
   <si>
-    <t>Verify: alcohol_stop is not within range 0-100 years</t>
-  </si>
-  <si>
     <t>alchol_dur</t>
   </si>
   <si>
-    <t>Verify: alcohol_dur is not within range 0-50 years</t>
-  </si>
-  <si>
     <t>smoking_init</t>
   </si>
   <si>
-    <t>Verify: smoking_init is not within range 0-70 years</t>
-  </si>
-  <si>
     <t>smoking_amt</t>
   </si>
   <si>
-    <t>Verify: smoking_amt is not within range 0-60 cigarrettes</t>
-  </si>
-  <si>
     <t>smoking_stop</t>
   </si>
   <si>
-    <t>Verify: smoking_stop is not within range 0-100 years</t>
-  </si>
-  <si>
     <t>smoking_dur</t>
   </si>
   <si>
@@ -362,9 +293,6 @@
     <t>smoking_status is 4 (never smoker) ; not consistent with smoking_init, smoking_stop or smoking_dur</t>
   </si>
   <si>
-    <t>smoking_status is 1 (current smoker) but smoking_stop is not 666</t>
-  </si>
-  <si>
     <t>Biopsies_yesno</t>
   </si>
   <si>
@@ -374,21 +302,12 @@
     <t>!Biopsies_number %in% c(0, 888)</t>
   </si>
   <si>
-    <t>Biopsies_yesno is 1, Biopsies_number should not be 0 or 888</t>
-  </si>
-  <si>
     <t>Biopsies_number == 0</t>
   </si>
   <si>
-    <t>Biopsies_yesno is 0, Biopsies_number should be 0</t>
-  </si>
-  <si>
     <t>Biopsies_number == 888</t>
   </si>
   <si>
-    <t>Biopsies_yesno is 888, Biopsies_number should be 888</t>
-  </si>
-  <si>
     <t>BBD_history</t>
   </si>
   <si>
@@ -398,57 +317,30 @@
     <t>!BBD_number %in% c(0, 888)</t>
   </si>
   <si>
-    <t>BBD_history is 1, BBD_number should not be 0 or 888</t>
-  </si>
-  <si>
-    <t>BBD_history is 0, BBD_number should be 0</t>
-  </si>
-  <si>
-    <t>BBD_history is 888, BBD_number should be 888</t>
-  </si>
-  <si>
     <t>parous</t>
   </si>
   <si>
     <t>age_preg1</t>
   </si>
   <si>
-    <t>parous is 0 but age_preg is not 777</t>
-  </si>
-  <si>
     <t>breastfeed_dur</t>
   </si>
   <si>
-    <t>parous is o but breastfeed_dur is not 777</t>
-  </si>
-  <si>
     <t>breastfeed</t>
   </si>
   <si>
     <t>breastfeed is 0 but breastfeed_dur is not 666</t>
   </si>
   <si>
-    <t>Verify:breastfeed_dur is not within range 0-84 months</t>
-  </si>
-  <si>
     <t xml:space="preserve">breastfeed </t>
   </si>
   <si>
-    <t>breastfeed_dur is 666 but breastfeed is not 0</t>
-  </si>
-  <si>
     <t>ocuse_dur</t>
   </si>
   <si>
-    <t>Verify: ocuse_dur is not within range 0-84 months</t>
-  </si>
-  <si>
     <t>ocuse_start</t>
   </si>
   <si>
-    <t>Verify: ocuse_start is not within range 16-58 years</t>
-  </si>
-  <si>
     <t>ocuse_stop</t>
   </si>
   <si>
@@ -458,33 +350,18 @@
     <t>ocuse_ever</t>
   </si>
   <si>
-    <t>ocuse_ever is 0, not consistent with ocuse_start, or ocuse_stop, or ocuse_dur</t>
-  </si>
-  <si>
     <t>ocuse_current</t>
   </si>
   <si>
-    <t>ocuse_current is 1, ocuse_stop should be 666</t>
-  </si>
-  <si>
-    <t>ocuse_stop is 666, ocuse_current should be 1</t>
-  </si>
-  <si>
     <t>othcontracep_current</t>
   </si>
   <si>
     <t>othcontracep_ever</t>
   </si>
   <si>
-    <t>othcontracep_current is 1 but othcontracep_ever is not 1</t>
-  </si>
-  <si>
     <t>othcontracep_ever != 0</t>
   </si>
   <si>
-    <t>Verify: othcontracep_ever is 0 but othcontracep_current is 888</t>
-  </si>
-  <si>
     <t>meno_status</t>
   </si>
   <si>
@@ -494,9 +371,6 @@
     <t>meno_reason</t>
   </si>
   <si>
-    <t>meno_status is 2 (pre-menopausal): meno_age and meno_reason should be 777</t>
-  </si>
-  <si>
     <t>hrt_dur</t>
   </si>
   <si>
@@ -506,18 +380,6 @@
     <t>hrteonly_dur</t>
   </si>
   <si>
-    <t>meno_status is 2 (pre-menopausal) : hrt_dur, hrtep_dur, or hrteonly_dur should all be 666</t>
-  </si>
-  <si>
-    <t>Verify: hrt_dur is not within range 0-24 months</t>
-  </si>
-  <si>
-    <t>Verify: hrtep_dur is not within range 0-24 months</t>
-  </si>
-  <si>
-    <t>Verify: hrteonly_dur is not within range 0-24 months</t>
-  </si>
-  <si>
     <t>hrtuse</t>
   </si>
   <si>
@@ -554,27 +416,15 @@
     <t>hrtuse is not 2 but hrtuse_eonly and hrtuse_ep are both 2 (former user)</t>
   </si>
   <si>
-    <t>hrtuse is 0 (never user) but hrtuse_ep is 3 (ever user; unknown current or former user)</t>
-  </si>
-  <si>
-    <t>hrtuse is 0 (never user) but hrtuse_eonly is 3 (ever user; unknown current or former user)</t>
-  </si>
-  <si>
     <t>screen_start</t>
   </si>
   <si>
-    <t>Verify: screen_start is not within range 0-16 years</t>
-  </si>
-  <si>
     <t>screen_ever</t>
   </si>
   <si>
     <t>lastscreen_year</t>
   </si>
   <si>
-    <t>screen_ever is 0, both lastscreen_year and screen_start should be 777</t>
-  </si>
-  <si>
     <t>pa_mets</t>
   </si>
   <si>
@@ -614,36 +464,6 @@
     <t>age_preg10</t>
   </si>
   <si>
-    <t>Verify: age_preg1 is not within range 12-58 years</t>
-  </si>
-  <si>
-    <t>Verify: age_preg2 is not within range 12-58 years</t>
-  </si>
-  <si>
-    <t>Verify: age_preg3 is not within range 12-58 years</t>
-  </si>
-  <si>
-    <t>Verify: age_preg4 is not within range 12-58 years</t>
-  </si>
-  <si>
-    <t>Verify: age_preg5 is not within range 12-58 years</t>
-  </si>
-  <si>
-    <t>Verify: age_preg6 is not within range 12-58 years</t>
-  </si>
-  <si>
-    <t>Verify: age_preg7 is not within range 12-58 years</t>
-  </si>
-  <si>
-    <t>Verify: age_preg8 is not within range 12-58 years</t>
-  </si>
-  <si>
-    <t>Verify: age_preg9 is not within range 12-58 years</t>
-  </si>
-  <si>
-    <t>Verify: age_preg10 is not within range 12-58 years</t>
-  </si>
-  <si>
     <t>breastfeed_dur_b1</t>
   </si>
   <si>
@@ -674,58 +494,529 @@
     <t>breastfeed_dur_b10</t>
   </si>
   <si>
-    <t>Verify: breastfeed_dur_b1 is not within range 0-12 months</t>
-  </si>
-  <si>
-    <t>Verify: breastfeed_dur_b2 is not within range 0-12 months</t>
-  </si>
-  <si>
-    <t>Verify: breastfeed_dur_b3 is not within range 0-12 months</t>
-  </si>
-  <si>
-    <t>Verify: breastfeed_dur_b4 is not within range 0-12 months</t>
-  </si>
-  <si>
-    <t>Verify: breastfeed_dur_b5 is not within range 0-12 months</t>
-  </si>
-  <si>
-    <t>Verify: breastfeed_dur_b6 is not within range 0-12 months</t>
-  </si>
-  <si>
-    <t>Verify: breastfeed_dur_b7 is not within range 0-12 months</t>
-  </si>
-  <si>
-    <t>Verify: breastfeed_dur_b8 is not within range 0-12 months</t>
-  </si>
-  <si>
-    <t>Verify: breastfeed_dur_b9 is not within range 0-12 months</t>
-  </si>
-  <si>
-    <t>Verify: breastfeed_dur_b10 is not within range 0-12 months</t>
-  </si>
-  <si>
     <t>666, 777</t>
   </si>
   <si>
-    <t>hrtuse is 0 (never user): hrt_dur, hrtep_dur, and hrteonly_dur should be 666 or 777</t>
-  </si>
-  <si>
-    <t>hrtep_dur should be 666 (if premenopausal) or 777 when hrtuse_ep is 0 (never user)</t>
-  </si>
-  <si>
-    <t>hrtep_dur is 666 or 777 but hrtuse_ep is not 0</t>
-  </si>
-  <si>
     <t>hrtuse_eonly is 0 ( never user) but hrteonly_dur is not 666 or777</t>
   </si>
   <si>
     <t>hrteonly_dur is 666 or 777 but hrtuse_eonly is not 0</t>
   </si>
   <si>
-    <t>hrtuse_ep != 3</t>
-  </si>
-  <si>
-    <t>hrtuse_eonly != 3</t>
+    <t>alcohol_init,age</t>
+  </si>
+  <si>
+    <t>alcohol_init &lt; age</t>
+  </si>
+  <si>
+    <t>!alcohol_init %in% c(777,888)</t>
+  </si>
+  <si>
+    <t>alcohol_init should be smaller than age</t>
+  </si>
+  <si>
+    <t>smoking_init,smoking_dur,smoking_stop</t>
+  </si>
+  <si>
+    <t>!smoking_init %in% c(777,888)</t>
+  </si>
+  <si>
+    <t>smoking_dur,age</t>
+  </si>
+  <si>
+    <t>smoking_dur &lt; age - 7 | smoking_dur == 888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age </t>
+  </si>
+  <si>
+    <t>!is.na(age)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smoking_dur &lt; (1 + smoking_stop - smoking_init) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !smoking_stop %in% c(666,777,888)</t>
+  </si>
+  <si>
+    <t>parity</t>
+  </si>
+  <si>
+    <t>age_preg2, age_preg1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_preg2 != 666 &amp; age_preg2 &gt; age_preg1 </t>
+  </si>
+  <si>
+    <t>age_preg3,age_preg2,age_preg1</t>
+  </si>
+  <si>
+    <t>age_preg3 != 666 &amp; age_preg2 != 666 &amp; age_preg1 != 666 &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1</t>
+  </si>
+  <si>
+    <t>age_preg4,age_preg3,age_preg2,age_preg1</t>
+  </si>
+  <si>
+    <t>age_preg4 != 666 &amp; age_preg4 &gt; age_preg3 &amp; age_preg3 != 666 &amp; age_preg2 != 666 &amp; age_preg1 != 666 &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1</t>
+  </si>
+  <si>
+    <t>age_preg5,age_preg4,age_preg3,age_preg2,age_preg1</t>
+  </si>
+  <si>
+    <t>age_preg6,age_preg5,age_preg4,age_preg3,age_preg2,age_preg1</t>
+  </si>
+  <si>
+    <t>age_preg6 !- 666 &amp; age_preg6 &gt; age_preg5 &amp; age_preg5 !-=666 &amp; age_preg5 &gt; age_preg4 &amp; age_preg4 != 666 &amp; age_preg4 &gt; age_preg3 &amp; age_preg3 != 666 &amp; age_preg2 != 666 &amp; age_preg1 != 666 &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1</t>
+  </si>
+  <si>
+    <t>age_preg5 != 666 &amp; age_preg5 &gt; age_preg4 &amp; age_preg4 != 666 &amp; age_preg4 &gt; age_preg3 &amp; age_preg3 != 666 &amp; age_preg2 != 666 &amp; age_preg1 != 666 &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1</t>
+  </si>
+  <si>
+    <t>age_preg7,age_preg6,age_preg5,age_preg4,age_preg3,age_preg2,age_preg1</t>
+  </si>
+  <si>
+    <t>age_preg7 != 666 &amp; age_preg7 &gt; age_preg6 &amp; age_preg6 !- 666 &amp; age_preg6 &gt; age_preg5 &amp; age_preg5 !-=666 &amp; age_preg5 &gt; age_preg4 &amp; age_preg4 != 666 &amp; age_preg4 &gt; age_preg3 &amp; age_preg3 != 666 &amp; age_preg2 != 666 &amp; age_preg1 != 666 &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1</t>
+  </si>
+  <si>
+    <t>age_preg8,age_preg7,age_preg6,age_preg5,age_preg4,age_preg3,age_preg2,age_preg1</t>
+  </si>
+  <si>
+    <t>age_preg8 != 666 &amp; age_preg8 &gt; age_preg7 &amp; age_preg7 != 666 &amp; age_preg7 &gt; age_preg6 &amp; age_preg6 !- 666 &amp; age_preg6 &gt; age_preg5 &amp; age_preg5 !-=666 &amp; age_preg5 &gt; age_preg4 &amp; age_preg4 != 666 &amp; age_preg4 &gt; age_preg3 &amp; age_preg3 != 666 &amp; age_preg2 != 666 &amp; age_preg1 != 666 &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1</t>
+  </si>
+  <si>
+    <t>age_preg9,age_preg8,age_preg7,age_preg6,age_preg5,age_preg4,age_preg3,age_preg2,age_preg1</t>
+  </si>
+  <si>
+    <t>age_preg9 != 666 &amp; age_preg9 &gt; age_preg8 &amp;age_preg8 != 666 &amp; age_preg8 &gt; age_preg7 &amp; age_preg7 != 666 &amp; age_preg7 &gt; age_preg6 &amp; age_preg6 !- 666 &amp; age_preg6 &gt; age_preg5 &amp; age_preg5 !-=666 &amp; age_preg5 &gt; age_preg4 &amp; age_preg4 != 666 &amp; age_preg4 &gt; age_preg3 &amp; age_preg3 != 666 &amp; age_preg2 != 666 &amp; age_preg1 != 666 &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parity </t>
+  </si>
+  <si>
+    <t>age_preg10,age_preg9,age_preg8,age_preg7,age_preg6,age_preg5,age_preg4,age_preg3,age_preg2,age_preg1</t>
+  </si>
+  <si>
+    <t>age_preg10 != 666 &amp; age_preg10 &gt; age_preg9 &amp; age_preg9 != 666 &amp; age_preg9 &gt; age_preg8 &amp;age_preg8 != 666 &amp; age_preg8 &gt; age_preg7 &amp; age_preg7 != 666 &amp; age_preg7 &gt; age_preg6 &amp; age_preg6 !- 666 &amp; age_preg6 &gt; age_preg5 &amp; age_preg5 !-=666 &amp; age_preg5 &gt; age_preg4 &amp; age_preg4 != 666 &amp; age_preg4 &gt; age_preg3 &amp; age_preg3 != 666 &amp; age_preg2 != 666 &amp; age_preg1 != 666 &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1</t>
+  </si>
+  <si>
+    <t>qcycle is 0, baseline should be 1</t>
+  </si>
+  <si>
+    <t>qcycle ≥ 1, baseline should be 0</t>
+  </si>
+  <si>
+    <t>qcycle is 888, please check value of baseline</t>
+  </si>
+  <si>
+    <t>Verify: birth year is outside of range 1910-2010</t>
+  </si>
+  <si>
+    <t>Verify: age is outside of range 10-100</t>
+  </si>
+  <si>
+    <t>Verify: agemenarche is outside of range 8-16</t>
+  </si>
+  <si>
+    <t>Verify: height is outside of range 100-200cm</t>
+  </si>
+  <si>
+    <t>Verify: bmi is outside of range 16-50</t>
+  </si>
+  <si>
+    <t>Verify: weight is outside of range 30-150 kg</t>
+  </si>
+  <si>
+    <t>Verify: bmi_earlyadult is outiside of range 16-50</t>
+  </si>
+  <si>
+    <t>Verify: waist is outside of range 0-160 cm</t>
+  </si>
+  <si>
+    <t>Verify: hip is outside of range 0-160 cm</t>
+  </si>
+  <si>
+    <t>Verify: whr is outside of range 0-1.2 cm</t>
+  </si>
+  <si>
+    <t>parity &gt;= 2</t>
+  </si>
+  <si>
+    <t>parity &gt;=3</t>
+  </si>
+  <si>
+    <t>parity &gt;=4</t>
+  </si>
+  <si>
+    <t>parity &gt;=5</t>
+  </si>
+  <si>
+    <t>parity &gt;=6</t>
+  </si>
+  <si>
+    <t>parity &gt;=7</t>
+  </si>
+  <si>
+    <t>parity &gt;=8</t>
+  </si>
+  <si>
+    <t>parity &gt;=9</t>
+  </si>
+  <si>
+    <t>parity &gt;=10</t>
+  </si>
+  <si>
+    <t>parity ≥ 3, ages of pregnancy variables not consistent</t>
+  </si>
+  <si>
+    <t>parity ≥ 4, ages of pregnancy variables not consistent</t>
+  </si>
+  <si>
+    <t>parity ≥ 5, ages of pregnancy variables not consistent</t>
+  </si>
+  <si>
+    <t>parity ≥ 6, ages of pregnancy variables not consistent</t>
+  </si>
+  <si>
+    <t>parity ≥ 7, ages of pregnancy variables not consistent</t>
+  </si>
+  <si>
+    <t>parity ≥ 8, ages of pregnancy variables not consistent</t>
+  </si>
+  <si>
+    <t>parity ≥ 9, ages of pregnancy variables not consistent</t>
+  </si>
+  <si>
+    <t>parity ≥ 10, ages of pregnancy variables not consistent</t>
+  </si>
+  <si>
+    <t>parity ≥ 2, ages of pregnancy variables not consistent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alcohol_status is 1 (current drinker), alcohol_stop should be 666 </t>
+  </si>
+  <si>
+    <t>alcohol_status is 4 (never drinker); not consistent with alcohol_init, alochol_stop or alcohol_dur</t>
+  </si>
+  <si>
+    <t>Verify: alcohol_init is not within range 10-70 years</t>
+  </si>
+  <si>
+    <t>Verify: values of alcohol_init and alcohol_status are not consistent</t>
+  </si>
+  <si>
+    <t>Verify: alcohol_amt is outside range 0-25 gms</t>
+  </si>
+  <si>
+    <t>Verify: alcohol_stop is outside range 0-100 years</t>
+  </si>
+  <si>
+    <t>Verify: alcohol_dur is outside range 0-50 years</t>
+  </si>
+  <si>
+    <t>Verify: smoking_init outside  range 0-70 years</t>
+  </si>
+  <si>
+    <t>Verify: smoking_amt is outside  range 0-60 cigarrettes</t>
+  </si>
+  <si>
+    <t>Verify: smoking_stop is outside range 0-100 years</t>
+  </si>
+  <si>
+    <t>smoking_dur is more than the difference between smoking_init and smoking_stop</t>
+  </si>
+  <si>
+    <t>Verify: values of smoking_status and smoking_stop are not consistent</t>
+  </si>
+  <si>
+    <t>Verify: value of Biopsies_yesno = 1 not consistent with Biopsies_number</t>
+  </si>
+  <si>
+    <t>Verify: values of Biopsies_yesno = 0, not consistent with Biopsies_number</t>
+  </si>
+  <si>
+    <t>Verify: values of Biopsies_yesno = 888,  not consistent with Biopsies_number</t>
+  </si>
+  <si>
+    <t>Verify: BBD_history = 1, not consistent with BBD_number</t>
+  </si>
+  <si>
+    <t>Verify: BBD_history = 0, not consistent with BBD_number</t>
+  </si>
+  <si>
+    <t>Verify: BBD_history = 888, not consistent with BBD_number</t>
+  </si>
+  <si>
+    <t>Verify: parous is 0, not consistent with breastfeed_dur</t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur is outside range 0-84 months</t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur is 666, not consistent with breastfeed</t>
+  </si>
+  <si>
+    <t>Verify: ocuse_dur is outside range 0-84 months</t>
+  </si>
+  <si>
+    <t>Verify: ocuse_start is outside range 16-58 years</t>
+  </si>
+  <si>
+    <t>ocuse_ever is 0 (never user): not consistent with ocuse_start, or ocuse_stop, or ocuse_dur</t>
+  </si>
+  <si>
+    <t>Verify: ocuse_current is 1, not consistent with ocuse_stop</t>
+  </si>
+  <si>
+    <t>Verify: ocuse_stop is 666, not consistent with ocuse_current</t>
+  </si>
+  <si>
+    <t>Verify: othcontracep_current is 1, not consistent with othcontracep_ever</t>
+  </si>
+  <si>
+    <t>Verify: othcontracep_current is 888, not consistent with othcontracep_ever</t>
+  </si>
+  <si>
+    <t>Verify: meno_status is 2 (pre-menopausal), not consistent with meno_age and meno_reason</t>
+  </si>
+  <si>
+    <t>Verify:  verify values of hrt_dur, hrtep_dur, hrteonly_dur with meno_status = 2 (pre-menopausal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hrtuse is 0 (never user):  not consistent with hrt_dur, hrtep_dur, or hrteonly_dur </t>
+  </si>
+  <si>
+    <t>Verify:  hrtuse_ep is 0 (never user), not consistent with hrtep_dur</t>
+  </si>
+  <si>
+    <t>Verify: hrtep_dur = (666,777), not consistent with hrtuse_ep</t>
+  </si>
+  <si>
+    <t>hrtuse_eonly == 0</t>
+  </si>
+  <si>
+    <t>hrtuse_ep == 0</t>
+  </si>
+  <si>
+    <t>hrtuse is 0 (never user), not consistent with hrtuse_eponly</t>
+  </si>
+  <si>
+    <t>hrtuse is 0 (never user), not consistent with hrtuse_eonly</t>
+  </si>
+  <si>
+    <t>Verify: screen_start is outside range 16-90 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">screen_ever is 0, not consistent with lastscreen_year or screen_start </t>
+  </si>
+  <si>
+    <t>Verify: age_preg1 is outside range 12-58 years</t>
+  </si>
+  <si>
+    <t>Verify: age_preg2 is outside range 12-58 years</t>
+  </si>
+  <si>
+    <t>Verify: age_preg3 is outside range 12-58 years</t>
+  </si>
+  <si>
+    <t>Verify: age_preg4 is outside range 12-58 years</t>
+  </si>
+  <si>
+    <t>Verify: age_preg5 is outside range 12-58 years</t>
+  </si>
+  <si>
+    <t>Verify: age_preg6 is outside range 12-58 years</t>
+  </si>
+  <si>
+    <t>Verify: age_preg7 is otuside range 12-58 years</t>
+  </si>
+  <si>
+    <t>Verify: age_preg8 is outside range 12-58 years</t>
+  </si>
+  <si>
+    <t>Verify: age_preg9 is outside range 12-58 years</t>
+  </si>
+  <si>
+    <t>Verify: age_preg10 is outside range 12-58 years</t>
+  </si>
+  <si>
+    <t>parous == 1</t>
+  </si>
+  <si>
+    <t>parity &gt;= 1</t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b1 is outside range 0-24 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parity &gt;= 2 </t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b2 is outside range 0-24 months</t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b3 is outside range 0-24 months</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b2 &gt;= 0 &amp; breastfeed_dur_b2 &lt;= 24</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b3 &gt;=0 &amp; breastfeed_dur_b3 &lt;= 24</t>
+  </si>
+  <si>
+    <t>parity &gt;= 3</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b4 &gt;= 0 &amp; breastfeed_dur_b4 &lt;= 24</t>
+  </si>
+  <si>
+    <t>parity &gt;= 4</t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b4 is outside range 0-24 months</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b5 &gt;= 0 &amp; breastfeed_dur_b5 &lt;= 24</t>
+  </si>
+  <si>
+    <t>parity &gt;= 5</t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b5 is outside range 0-24 months</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b6 &gt;= 0 &amp; breastfeed_dur_b6 &lt;= 24</t>
+  </si>
+  <si>
+    <t>parity &gt;= 6</t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b6 is outside range 0-12 months</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b7 &gt;= 0 &amp; breastfeed_dur_b7 &lt;= 24</t>
+  </si>
+  <si>
+    <t>parity &gt;= 7</t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b7 is outside range 0-12 months</t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b8 is outside range 0-12 months</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b8 &gt;= 0 &amp; breastfeed_dur_b8 &lt;= 24</t>
+  </si>
+  <si>
+    <t>parity &gt;= 8</t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b9 is outside range 0-12 months</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b9 &gt;= 0 &amp; breastfeed_dur_b9 &lt;= 24</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b10 &gt;= 0 &amp; breastfeed_dur_b10 &lt;= 24</t>
+  </si>
+  <si>
+    <t>parity &gt;= 10</t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b10 is outside range 0-12 months</t>
+  </si>
+  <si>
+    <t>Verify: parous is 0, not consistent with age_preg1, parity, or breastfeed</t>
+  </si>
+  <si>
+    <t>Verify: parous is 888, not consistent with age_preg1, parity, or breastfeed</t>
+  </si>
+  <si>
+    <t>Verify: parous is not consistent with age_preg1, parity, or breastfeed</t>
+  </si>
+  <si>
+    <t>!parity %in% c(0,777, 888)</t>
+  </si>
+  <si>
+    <t>!breastfeed %in% c(777,888) &amp; !age_preg1 %in% c(777,888)</t>
+  </si>
+  <si>
+    <t>!alcohol_status %in% c(4, 777,888)</t>
+  </si>
+  <si>
+    <t>!smoking_status %in% c(4,777,888)</t>
+  </si>
+  <si>
+    <t>Verify: smoking_dur ≥ age - 7 years</t>
+  </si>
+  <si>
+    <t>!ocuse_ever %in% c(0,777,888)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">breastfeed_dur_b1 &gt;= 0 &amp; breastfeed_dur_b1 &lt;= 24 </t>
+  </si>
+  <si>
+    <t>alcohol_init &gt; 10 &amp; alcohol_init &lt;= 70 | alcohol_init ==888</t>
+  </si>
+  <si>
+    <t>alcohol_amt &gt; 0 &amp; alcohol_amt &lt;= 25 | alcohol_amt == 888</t>
+  </si>
+  <si>
+    <t>alcohol_stop &gt; 0 &amp; alcohol_stop &lt;= 100 | alcohol_stop ==888</t>
+  </si>
+  <si>
+    <t>alchol_dur &gt; 0 &amp; alchol_dur &lt;= 50 | alchol_dur == 888</t>
+  </si>
+  <si>
+    <t>smoking_init &gt; 0 &amp; smoking_init &lt;= 70 | smoking_init == 888</t>
+  </si>
+  <si>
+    <t>smoking_amt &gt; 0 &amp; smoking_amt &lt;= 60 | smoking_amt == 888</t>
+  </si>
+  <si>
+    <t>smoking_stop &gt; 0 &amp; smoking_stop &lt;= 100 | smoking_stop == 888</t>
+  </si>
+  <si>
+    <t>smoking_dur &gt;0 &amp; smoking_dur &lt;= 50 | smoking_dur ==888</t>
+  </si>
+  <si>
+    <t>ocuse_dur &gt; 0 &amp; ocuse_dur &lt;= 84 | ocuse_dur == 888</t>
+  </si>
+  <si>
+    <t>ocuse_start &gt;= 16 &amp; ocuse_start &lt;= 58 | ocuse_start == 888</t>
+  </si>
+  <si>
+    <t>ocuse_stop &gt; 0 &amp; ocuse_stop &lt;= 58 | ocuse_stop == 888</t>
+  </si>
+  <si>
+    <t>hrt_use</t>
+  </si>
+  <si>
+    <t>!hrt_use %in% c(0,888)</t>
+  </si>
+  <si>
+    <t>hrt_dur &gt; 0 &amp; hrt_dur &lt;= 24 | hrt_dur == 888</t>
+  </si>
+  <si>
+    <t>Verify: hrt_dur is outside range 0-24 months</t>
+  </si>
+  <si>
+    <t>Verify: hrtep_dur is outside range 0-24 months</t>
+  </si>
+  <si>
+    <t>Verify: hrteonly_dur is outside range 0-24 months</t>
+  </si>
+  <si>
+    <t>hrteonly_dur &gt; 0 &amp; hrteonly_dur &lt;= 24 | hrteonly_dur == 888</t>
+  </si>
+  <si>
+    <t>hrtep_dur &gt; 0 &amp; hrtep_dur &lt;= 24 | hrtep_dur == 888</t>
+  </si>
+  <si>
+    <t>screen_start &gt;= 16 &amp; screen_start &lt;= 90 | screen_start == 888</t>
+  </si>
+  <si>
+    <t>!screen_ever %in% c(0,888)</t>
   </si>
 </sst>
 </file>
@@ -1098,10 +1389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T95"/>
+  <dimension ref="A1:T109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1294,13 +1585,13 @@
         <v>29</v>
       </c>
       <c r="J6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>38</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -1314,19 +1605,19 @@
         <v>29</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>41</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -1349,29 +1640,29 @@
         <v>29</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>42</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>34</v>
@@ -1383,32 +1674,32 @@
         <v>2010</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>48</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>34</v>
@@ -1420,32 +1711,32 @@
         <v>100</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>53</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>30</v>
@@ -1454,32 +1745,32 @@
         <v>31</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
@@ -1488,15 +1779,15 @@
         <v>31</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>34</v>
@@ -1508,15 +1799,15 @@
         <v>16</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>65</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>34</v>
@@ -1528,15 +1819,15 @@
         <v>200</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>67</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>34</v>
@@ -1548,15 +1839,15 @@
         <v>50</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>69</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>34</v>
@@ -1568,15 +1859,15 @@
         <v>150</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>71</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>34</v>
@@ -1588,15 +1879,15 @@
         <v>50</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>73</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>34</v>
@@ -1608,15 +1899,15 @@
         <v>160</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>75</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>34</v>
@@ -1628,15 +1919,15 @@
         <v>160</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>77</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>34</v>
@@ -1648,15 +1939,15 @@
         <v>1.2</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>79</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>34</v>
@@ -1668,15 +1959,15 @@
         <v>58</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>194</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>34</v>
@@ -1688,15 +1979,15 @@
         <v>58</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>195</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>34</v>
@@ -1708,15 +1999,15 @@
         <v>58</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>196</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>34</v>
@@ -1728,15 +2019,15 @@
         <v>58</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>197</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>34</v>
@@ -1748,15 +2039,15 @@
         <v>58</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>34</v>
@@ -1768,15 +2059,15 @@
         <v>58</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>199</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>34</v>
@@ -1788,15 +2079,15 @@
         <v>58</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>200</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>34</v>
@@ -1808,15 +2099,15 @@
         <v>58</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>201</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>192</v>
+        <v>142</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>34</v>
@@ -1828,15 +2119,15 @@
         <v>58</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>192</v>
+        <v>142</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>202</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>34</v>
@@ -1848,1087 +2139,1375 @@
         <v>58</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>203</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0</v>
-      </c>
-      <c r="D35" s="2">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>204</v>
+        <v>135</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0</v>
-      </c>
-      <c r="D36" s="2">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>205</v>
+        <v>136</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0</v>
-      </c>
-      <c r="D37" s="2">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="T37" s="3" t="s">
-        <v>216</v>
+        <v>137</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0</v>
-      </c>
-      <c r="D38" s="2">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>207</v>
+        <v>138</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0</v>
-      </c>
-      <c r="D39" s="2">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>208</v>
+        <v>139</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0</v>
-      </c>
-      <c r="D40" s="2">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="2">
-        <v>0</v>
-      </c>
-      <c r="D41" s="2">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>210</v>
+        <v>141</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="2">
-        <v>0</v>
-      </c>
-      <c r="D42" s="2">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="T42" s="2" t="s">
-        <v>221</v>
+        <v>142</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="2">
-        <v>0</v>
-      </c>
-      <c r="D43" s="2">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>212</v>
+        <v>143</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>213</v>
+        <v>144</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="C44" s="2">
         <v>0</v>
       </c>
       <c r="D44" s="2">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>223</v>
+        <v>144</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>81</v>
+        <v>119</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2">
+        <v>24</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>82</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E46" s="2">
-        <v>4</v>
+        <v>119</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2">
+        <v>24</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J46" s="2">
-        <v>777</v>
+        <v>95</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M46" s="2">
-        <v>777</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="P46" s="2">
-        <v>777</v>
+        <v>169</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="T46" s="2" t="s">
-        <v>87</v>
+        <v>146</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E47" s="2">
-        <v>1</v>
+        <v>119</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
+        <v>24</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J47" s="2">
-        <v>666</v>
-      </c>
-      <c r="S47" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>89</v>
+        <v>280</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
       </c>
       <c r="D48" s="2">
-        <v>70</v>
-      </c>
-      <c r="S48" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="T48" s="2" t="s">
-        <v>90</v>
+        <v>24</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E49" s="2">
-        <v>777</v>
+        <v>119</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0</v>
+      </c>
+      <c r="D49" s="2">
+        <v>24</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="S49" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="T49" s="2" t="s">
-        <v>92</v>
+        <v>269</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
       </c>
       <c r="D50" s="2">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="T50" s="2" t="s">
-        <v>94</v>
+        <v>150</v>
+      </c>
+      <c r="T50" s="3" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
       </c>
       <c r="D51" s="2">
-        <v>100</v>
-      </c>
-      <c r="S51" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I51" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="J51" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="S51" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="T51" s="2" t="s">
-        <v>96</v>
+        <v>290</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
       </c>
       <c r="D52" s="2">
-        <v>50</v>
-      </c>
-      <c r="S52" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="T52" s="2" t="s">
-        <v>98</v>
+        <v>24</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
       </c>
       <c r="D53" s="2">
-        <v>70</v>
+        <v>24</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="T53" s="2" t="s">
-        <v>100</v>
+        <v>153</v>
+      </c>
+      <c r="T53" s="3" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C54" s="2">
-        <v>0</v>
-      </c>
-      <c r="D54" s="2">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C55" s="2">
-        <v>0</v>
-      </c>
-      <c r="D55" s="2">
-        <v>100</v>
+        <v>70</v>
+      </c>
+      <c r="E55" s="2">
+        <v>4</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J55" s="2">
+        <v>777</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M55" s="2">
+        <v>777</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P55" s="2">
+        <v>777</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>104</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C56" s="2">
-        <v>0</v>
-      </c>
-      <c r="D56" s="2">
-        <v>50</v>
+        <v>74</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J56" s="2">
+        <v>666</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>106</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E57" s="2">
-        <v>4</v>
+        <v>21</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J57" s="2">
-        <v>777</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M57" s="2">
-        <v>777</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="P57" s="2">
-        <v>777</v>
+        <v>67</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>109</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E58" s="2">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J58" s="2">
-        <v>666</v>
+        <v>71</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>113</v>
+        <v>37</v>
+      </c>
+      <c r="E59" s="2">
+        <v>777</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J59" s="2">
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>115</v>
+        <v>309</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J60" s="2">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>116</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>117</v>
+        <v>310</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J61" s="2">
-        <v>888</v>
+        <v>67</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>118</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>121</v>
+        <v>311</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="J62" s="2">
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>122</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E63" s="2">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J63" s="2">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>123</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E64" s="2">
-        <v>888</v>
+        <v>21</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J64" s="2">
-        <v>888</v>
+        <v>84</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>124</v>
+        <v>228</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E65" s="2">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J65" s="2">
-        <v>777</v>
+        <v>84</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>127</v>
+        <v>229</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E66" s="2">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="J66" s="2">
-        <v>777</v>
+        <v>84</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E67" s="2">
-        <v>0</v>
+        <v>119</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="J67" s="2">
-        <v>666</v>
+        <v>79</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>131</v>
+        <v>230</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C68" s="2">
-        <v>0</v>
-      </c>
-      <c r="D68" s="2">
+        <v>70</v>
+      </c>
+      <c r="E68" s="2">
+        <v>4</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J68" s="2">
+        <v>777</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M68" s="2">
+        <v>777</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P68" s="2">
+        <v>777</v>
+      </c>
+      <c r="S68" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="S68" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="T68" s="2" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E69" s="2">
+        <v>1</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J69" s="2">
         <v>666</v>
       </c>
-      <c r="I69" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="J69" s="2">
-        <v>0</v>
-      </c>
       <c r="S69" s="2" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>134</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C70" s="2">
-        <v>0</v>
-      </c>
-      <c r="D70" s="2">
-        <v>84</v>
+        <v>21</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>136</v>
+        <v>305</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C71" s="2">
-        <v>16</v>
-      </c>
-      <c r="D71" s="2">
-        <v>58</v>
+        <v>21</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J71" s="2">
+        <v>1</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>138</v>
+        <v>232</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C72" s="2">
+        <v>21</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J72" s="2">
         <v>0</v>
       </c>
-      <c r="D72" s="2">
-        <v>58</v>
-      </c>
       <c r="S72" s="2" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>140</v>
+        <v>233</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E73" s="2">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="J73" s="2">
-        <v>777</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="M73" s="2">
-        <v>777</v>
-      </c>
-      <c r="O73" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P73" s="2">
-        <v>777</v>
+        <v>888</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>142</v>
+        <v>234</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E74" s="2">
+        <v>21</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J74" s="2">
         <v>1</v>
       </c>
-      <c r="I74" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J74" s="2">
-        <v>666</v>
-      </c>
       <c r="S74" s="2" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>144</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E75" s="2">
-        <v>666</v>
+        <v>0</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="J75" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="T75" s="2" t="s">
-        <v>145</v>
+        <v>236</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E76" s="2">
-        <v>1</v>
+        <v>888</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="J76" s="2">
-        <v>1</v>
+        <v>888</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>148</v>
+        <v>237</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>149</v>
+        <v>70</v>
+      </c>
+      <c r="E77" s="2">
+        <v>0</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="J77" s="2">
-        <v>888</v>
+        <v>777</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M77" s="2">
+        <v>777</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P77" s="2">
+        <v>777</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="T77" s="2" t="s">
-        <v>150</v>
+        <v>298</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E78" s="2">
-        <v>2</v>
+        <v>888</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="J78" s="2">
-        <v>777</v>
+        <v>888</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="M78" s="2">
-        <v>777</v>
+        <v>888</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P78" s="2">
+        <v>888</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="T78" s="2" t="s">
-        <v>154</v>
+        <v>299</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E79" s="2">
-        <v>2</v>
+        <v>119</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="J79" s="2">
-        <v>666</v>
+        <v>169</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="M79" s="2">
-        <v>666</v>
-      </c>
-      <c r="O79" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="P79" s="2">
-        <v>666</v>
+        <v>98</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>158</v>
+        <v>300</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C80" s="2">
+        <v>37</v>
+      </c>
+      <c r="E80" s="2">
         <v>0</v>
       </c>
-      <c r="D80" s="2">
-        <v>24</v>
+      <c r="I80" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J80" s="2">
+        <v>777</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="T80" s="2" t="s">
-        <v>159</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C81" s="2">
+        <v>37</v>
+      </c>
+      <c r="E81" s="2">
         <v>0</v>
       </c>
-      <c r="D81" s="2">
-        <v>24</v>
+      <c r="I81" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J81" s="2">
+        <v>666</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="T81" s="2" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>34</v>
@@ -2937,345 +3516,724 @@
         <v>0</v>
       </c>
       <c r="D82" s="2">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>161</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>162</v>
+        <v>97</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="E83" s="2">
+        <v>666</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J83" s="2">
         <v>0</v>
       </c>
-      <c r="I83" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="L83" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="M83" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="O83" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="P83" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="S83" s="2" t="s">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="T83" s="2" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E84" s="2">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>224</v>
+        <v>306</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="T84" s="2" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>224</v>
+        <v>21</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="J85" s="2">
-        <v>0</v>
+        <v>105</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="S85" s="2" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="T85" s="2" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E86" s="2">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>224</v>
+        <v>306</v>
       </c>
       <c r="S86" s="2" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="T86" s="2" t="s">
-        <v>228</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>224</v>
+        <v>70</v>
+      </c>
+      <c r="E87" s="2">
+        <v>0</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>164</v>
+        <v>101</v>
       </c>
       <c r="J87" s="2">
-        <v>0</v>
+        <v>777</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M87" s="2">
+        <v>777</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P87" s="2">
+        <v>777</v>
       </c>
       <c r="S87" s="2" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="T87" s="2" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>166</v>
+        <v>37</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="J88" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="L88" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="M88" s="2" t="s">
-        <v>168</v>
+        <v>103</v>
+      </c>
+      <c r="J88" s="2">
+        <v>666</v>
       </c>
       <c r="S88" s="2" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="T88" s="2" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>162</v>
+        <v>103</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>170</v>
+        <v>37</v>
+      </c>
+      <c r="E89" s="2">
+        <v>666</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="L89" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="M89" s="2" t="s">
-        <v>172</v>
+        <v>106</v>
+      </c>
+      <c r="J89" s="2">
+        <v>1</v>
       </c>
       <c r="S89" s="2" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="T89" s="2" t="s">
-        <v>173</v>
+        <v>245</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>230</v>
+        <v>37</v>
+      </c>
+      <c r="E90" s="2">
+        <v>1</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="J90" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S90" s="2" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="T90" s="2" t="s">
-        <v>174</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>231</v>
+        <v>109</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="J91" s="2">
-        <v>0</v>
+        <v>888</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="T91" s="2" t="s">
-        <v>175</v>
+        <v>247</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C92" s="2">
-        <v>0</v>
-      </c>
-      <c r="D92" s="2">
-        <v>16</v>
+        <v>74</v>
+      </c>
+      <c r="E92" s="2">
+        <v>2</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J92" s="2">
+        <v>777</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M92" s="2">
+        <v>777</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="T92" s="2" t="s">
-        <v>177</v>
+        <v>248</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E93" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>176</v>
+        <v>113</v>
       </c>
       <c r="J93" s="2">
-        <v>777</v>
+        <v>666</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>179</v>
+        <v>114</v>
       </c>
       <c r="M93" s="2">
-        <v>777</v>
+        <v>666</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="P93" s="2">
+        <v>666</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="T93" s="2" t="s">
-        <v>180</v>
+        <v>249</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>181</v>
+        <v>113</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C94" s="2">
-        <v>0</v>
-      </c>
-      <c r="D94" s="2">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="S94" s="2" t="s">
-        <v>181</v>
+        <v>113</v>
       </c>
       <c r="T94" s="2" t="s">
-        <v>182</v>
+        <v>322</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>183</v>
+        <v>114</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="S95" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="T95" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="S96" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T96" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E97" s="2">
+        <v>0</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="P97" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="S97" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="T97" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E98" s="2">
+        <v>0</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="S98" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="T98" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J99" s="2">
+        <v>0</v>
+      </c>
+      <c r="S99" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="T99" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E100" s="2">
+        <v>0</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="S100" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T100" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J101" s="2">
+        <v>0</v>
+      </c>
+      <c r="S101" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T101" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="S102" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="T102" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S103" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="T103" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J104" s="2">
+        <v>0</v>
+      </c>
+      <c r="S104" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="T104" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J105" s="2">
+        <v>0</v>
+      </c>
+      <c r="S105" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="T105" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="S106" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="T106" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E107" s="2">
+        <v>0</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J107" s="2">
+        <v>777</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M107" s="2">
+        <v>777</v>
+      </c>
+      <c r="S107" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="T107" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C108" s="2">
         <v>0</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D108" s="2">
+        <v>30</v>
+      </c>
+      <c r="S108" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="T108" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C109" s="2">
+        <v>0</v>
+      </c>
+      <c r="D109" s="2">
         <v>100</v>
       </c>
-      <c r="S95" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="T95" s="2" t="s">
-        <v>184</v>
+      <c r="S109" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="T109" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/BCRPP_QC_R_Excel_Program/Core QC Rules/BCRPP Warning Rules.xlsx
+++ b/BCRPP_QC_R_Excel_Program/Core QC Rules/BCRPP Warning Rules.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF269188-8CC5-1046-8C31-DDA7B51B43A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1404E96-5659-4449-AF6D-E3E520BF3EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40960" yWindow="1300" windowWidth="40960" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="328">
   <si>
     <t>Variable</t>
   </si>
@@ -152,9 +152,6 @@
     <t>1 &lt;= qcycle &amp; qcycle != 888</t>
   </si>
   <si>
-    <t>lastfolllowup</t>
-  </si>
-  <si>
     <t>0, 1</t>
   </si>
   <si>
@@ -566,39 +563,24 @@
     <t>age_preg6,age_preg5,age_preg4,age_preg3,age_preg2,age_preg1</t>
   </si>
   <si>
-    <t>age_preg6 !- 666 &amp; age_preg6 &gt; age_preg5 &amp; age_preg5 !-=666 &amp; age_preg5 &gt; age_preg4 &amp; age_preg4 != 666 &amp; age_preg4 &gt; age_preg3 &amp; age_preg3 != 666 &amp; age_preg2 != 666 &amp; age_preg1 != 666 &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1</t>
-  </si>
-  <si>
     <t>age_preg5 != 666 &amp; age_preg5 &gt; age_preg4 &amp; age_preg4 != 666 &amp; age_preg4 &gt; age_preg3 &amp; age_preg3 != 666 &amp; age_preg2 != 666 &amp; age_preg1 != 666 &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1</t>
   </si>
   <si>
     <t>age_preg7,age_preg6,age_preg5,age_preg4,age_preg3,age_preg2,age_preg1</t>
   </si>
   <si>
-    <t>age_preg7 != 666 &amp; age_preg7 &gt; age_preg6 &amp; age_preg6 !- 666 &amp; age_preg6 &gt; age_preg5 &amp; age_preg5 !-=666 &amp; age_preg5 &gt; age_preg4 &amp; age_preg4 != 666 &amp; age_preg4 &gt; age_preg3 &amp; age_preg3 != 666 &amp; age_preg2 != 666 &amp; age_preg1 != 666 &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1</t>
-  </si>
-  <si>
     <t>age_preg8,age_preg7,age_preg6,age_preg5,age_preg4,age_preg3,age_preg2,age_preg1</t>
   </si>
   <si>
-    <t>age_preg8 != 666 &amp; age_preg8 &gt; age_preg7 &amp; age_preg7 != 666 &amp; age_preg7 &gt; age_preg6 &amp; age_preg6 !- 666 &amp; age_preg6 &gt; age_preg5 &amp; age_preg5 !-=666 &amp; age_preg5 &gt; age_preg4 &amp; age_preg4 != 666 &amp; age_preg4 &gt; age_preg3 &amp; age_preg3 != 666 &amp; age_preg2 != 666 &amp; age_preg1 != 666 &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1</t>
-  </si>
-  <si>
     <t>age_preg9,age_preg8,age_preg7,age_preg6,age_preg5,age_preg4,age_preg3,age_preg2,age_preg1</t>
   </si>
   <si>
-    <t>age_preg9 != 666 &amp; age_preg9 &gt; age_preg8 &amp;age_preg8 != 666 &amp; age_preg8 &gt; age_preg7 &amp; age_preg7 != 666 &amp; age_preg7 &gt; age_preg6 &amp; age_preg6 !- 666 &amp; age_preg6 &gt; age_preg5 &amp; age_preg5 !-=666 &amp; age_preg5 &gt; age_preg4 &amp; age_preg4 != 666 &amp; age_preg4 &gt; age_preg3 &amp; age_preg3 != 666 &amp; age_preg2 != 666 &amp; age_preg1 != 666 &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1</t>
-  </si>
-  <si>
     <t xml:space="preserve">parity </t>
   </si>
   <si>
     <t>age_preg10,age_preg9,age_preg8,age_preg7,age_preg6,age_preg5,age_preg4,age_preg3,age_preg2,age_preg1</t>
   </si>
   <si>
-    <t>age_preg10 != 666 &amp; age_preg10 &gt; age_preg9 &amp; age_preg9 != 666 &amp; age_preg9 &gt; age_preg8 &amp;age_preg8 != 666 &amp; age_preg8 &gt; age_preg7 &amp; age_preg7 != 666 &amp; age_preg7 &gt; age_preg6 &amp; age_preg6 !- 666 &amp; age_preg6 &gt; age_preg5 &amp; age_preg5 !-=666 &amp; age_preg5 &gt; age_preg4 &amp; age_preg4 != 666 &amp; age_preg4 &gt; age_preg3 &amp; age_preg3 != 666 &amp; age_preg2 != 666 &amp; age_preg1 != 666 &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1</t>
-  </si>
-  <si>
     <t>qcycle is 0, baseline should be 1</t>
   </si>
   <si>
@@ -974,9 +956,6 @@
     <t>smoking_amt &gt; 0 &amp; smoking_amt &lt;= 60 | smoking_amt == 888</t>
   </si>
   <si>
-    <t>smoking_stop &gt; 0 &amp; smoking_stop &lt;= 100 | smoking_stop == 888</t>
-  </si>
-  <si>
     <t>smoking_dur &gt;0 &amp; smoking_dur &lt;= 50 | smoking_dur ==888</t>
   </si>
   <si>
@@ -1017,6 +996,24 @@
   </si>
   <si>
     <t>!screen_ever %in% c(0,888)</t>
+  </si>
+  <si>
+    <t>age_preg6 != 666 &amp; age_preg6 &gt; age_preg5 &amp; age_preg5 !=666 &amp; age_preg5 &gt; age_preg4 &amp; age_preg4 != 666 &amp; age_preg4 &gt; age_preg3 &amp; age_preg3 != 666 &amp; age_preg2 != 666 &amp; age_preg1 != 666 &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1</t>
+  </si>
+  <si>
+    <t>age_preg8 != 666 &amp; age_preg8 &gt; age_preg7 &amp; age_preg7 != 666 &amp; age_preg7 &gt; age_preg6 &amp; age_preg6 != 666 &amp; age_preg6 &gt; age_preg5 &amp; age_preg5 !=666 &amp; age_preg5 &gt; age_preg4 &amp; age_preg4 != 666 &amp; age_preg4 &gt; age_preg3 &amp; age_preg3 != 666 &amp; age_preg2 != 666 &amp; age_preg1 != 666 &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1</t>
+  </si>
+  <si>
+    <t>age_preg7 != 666 &amp; age_preg7 &gt; age_preg6 &amp; age_preg6 != 666 &amp; age_preg6 &gt; age_preg5 &amp; age_preg5 !=666 &amp; age_preg5 &gt; age_preg4 &amp; age_preg4 != 666 &amp; age_preg4 &gt; age_preg3 &amp; age_preg3 != 666 &amp; age_preg2 != 666 &amp; age_preg1 != 666 &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1</t>
+  </si>
+  <si>
+    <t>age_preg9 != 666 &amp; age_preg9 &gt; age_preg8 &amp;age_preg8 != 666 &amp; age_preg8 &gt; age_preg7 &amp; age_preg7 != 666 &amp; age_preg7 &gt; age_preg6 &amp; age_preg6 != 666 &amp; age_preg6 &gt; age_preg5 &amp; age_preg5 !=666 &amp; age_preg5 &gt; age_preg4 &amp; age_preg4 != 666 &amp; age_preg4 &gt; age_preg3 &amp; age_preg3 != 666 &amp; age_preg2 != 666 &amp; age_preg1 != 666 &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1</t>
+  </si>
+  <si>
+    <t>age_preg10 != 666 &amp; age_preg10 &gt; age_preg9 &amp; age_preg9 != 666 &amp; age_preg9 &gt; age_preg8 &amp;age_preg8 != 666 &amp; age_preg8 &gt; age_preg7 &amp; age_preg7 != 666 &amp; age_preg7 &gt; age_preg6 &amp; age_preg6 != 666 &amp; age_preg6 &gt; age_preg5 &amp; age_preg5 !=666 &amp; age_preg5 &gt; age_preg4 &amp; age_preg4 != 666 &amp; age_preg4 &gt; age_preg3 &amp; age_preg3 != 666 &amp; age_preg2 != 666 &amp; age_preg1 != 666 &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1</t>
+  </si>
+  <si>
+    <t>smoking_stop &gt; 0 &amp; smoking_stop &lt;= 100 | smoking_stop == 888 | smoking_stop == 666</t>
   </si>
 </sst>
 </file>
@@ -1391,8 +1388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1591,7 +1588,7 @@
         <v>29</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -1617,7 +1614,7 @@
         <v>29</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -1640,29 +1637,29 @@
         <v>29</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="T9" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>34</v>
@@ -1674,32 +1671,32 @@
         <v>2010</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T11" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>34</v>
@@ -1711,32 +1708,32 @@
         <v>100</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T13" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>30</v>
@@ -1745,32 +1742,32 @@
         <v>31</v>
       </c>
       <c r="S14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T14" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T15" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
@@ -1779,15 +1776,15 @@
         <v>31</v>
       </c>
       <c r="S16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T16" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>34</v>
@@ -1799,15 +1796,15 @@
         <v>16</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>34</v>
@@ -1819,15 +1816,15 @@
         <v>200</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>34</v>
@@ -1839,15 +1836,15 @@
         <v>50</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>34</v>
@@ -1859,15 +1856,15 @@
         <v>150</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>34</v>
@@ -1879,15 +1876,15 @@
         <v>50</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>34</v>
@@ -1899,15 +1896,15 @@
         <v>160</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>34</v>
@@ -1919,15 +1916,15 @@
         <v>160</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>34</v>
@@ -1939,15 +1936,15 @@
         <v>1.2</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>34</v>
@@ -1959,15 +1956,15 @@
         <v>58</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>34</v>
@@ -1979,15 +1976,15 @@
         <v>58</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>34</v>
@@ -1999,15 +1996,15 @@
         <v>58</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>34</v>
@@ -2019,15 +2016,15 @@
         <v>58</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>34</v>
@@ -2039,15 +2036,15 @@
         <v>58</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>34</v>
@@ -2059,15 +2056,15 @@
         <v>58</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>34</v>
@@ -2079,15 +2076,15 @@
         <v>58</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>34</v>
@@ -2099,15 +2096,15 @@
         <v>58</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>34</v>
@@ -2119,15 +2116,15 @@
         <v>58</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>34</v>
@@ -2139,252 +2136,252 @@
         <v>58</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G35" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="I35" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G36" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="I36" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G37" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="I37" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>178</v>
+        <v>322</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>181</v>
+        <v>324</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>183</v>
+        <v>323</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>185</v>
+        <v>325</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>188</v>
+        <v>326</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C44" s="2">
         <v>0</v>
@@ -2393,36 +2390,36 @@
         <v>24</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
@@ -2431,36 +2428,36 @@
         <v>24</v>
       </c>
       <c r="G45" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="S45" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="S45" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="T45" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
@@ -2469,36 +2466,36 @@
         <v>24</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -2507,36 +2504,36 @@
         <v>24</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
@@ -2545,36 +2542,36 @@
         <v>24</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
@@ -2583,36 +2580,36 @@
         <v>24</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
@@ -2621,36 +2618,36 @@
         <v>24</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
@@ -2659,36 +2656,36 @@
         <v>24</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
@@ -2697,36 +2694,36 @@
         <v>24</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
@@ -2735,160 +2732,160 @@
         <v>24</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E54" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="T54" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="S54" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="T54" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E55" s="2">
         <v>4</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J55" s="2">
         <v>777</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M55" s="2">
         <v>777</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P55" s="2">
         <v>777</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E56" s="2">
         <v>1</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J56" s="2">
         <v>666</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="I58" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J58" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="I58" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J58" s="2" t="s">
+      <c r="S58" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="T58" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="S58" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="T58" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>37</v>
@@ -2897,270 +2894,270 @@
         <v>777</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G66" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="S66" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T66" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="S66" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="T66" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G67" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J67" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="L67" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M67" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="I67" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="L67" s="2" t="s">
+      <c r="S67" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M67" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="S67" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="T67" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E68" s="2">
         <v>4</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J68" s="2">
         <v>777</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M68" s="2">
         <v>777</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P68" s="2">
         <v>777</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>37</v>
@@ -3169,151 +3166,157 @@
         <v>1</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J69" s="2">
         <v>666</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="G70" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H70" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="I70" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="J70" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>166</v>
+      <c r="L70" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G71" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H71" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H71" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="I71" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J71" s="2">
         <v>1</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J72" s="2">
         <v>0</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J73" s="2">
         <v>888</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G74" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H74" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H74" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="I74" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J74" s="2">
         <v>1</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>37</v>
@@ -3322,21 +3325,21 @@
         <v>0</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J75" s="2">
         <v>0</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T75" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>37</v>
@@ -3345,123 +3348,123 @@
         <v>888</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J76" s="2">
         <v>888</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E77" s="2">
         <v>0</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J77" s="2">
         <v>777</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M77" s="2">
         <v>777</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P77" s="2">
         <v>777</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T77" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E78" s="2">
         <v>888</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J78" s="2">
         <v>888</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M78" s="2">
         <v>888</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P78" s="2">
         <v>888</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T78" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>37</v>
@@ -3470,21 +3473,21 @@
         <v>0</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J80" s="2">
         <v>777</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T80" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>37</v>
@@ -3493,21 +3496,21 @@
         <v>0</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J81" s="2">
         <v>666</v>
       </c>
       <c r="S81" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T81" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="T81" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>34</v>
@@ -3519,15 +3522,15 @@
         <v>84</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>37</v>
@@ -3536,134 +3539,134 @@
         <v>666</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J83" s="2">
         <v>0</v>
       </c>
       <c r="S83" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T83" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T84" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="S85" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T85" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G86" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="S86" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="T86" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="S86" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="T86" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E87" s="2">
         <v>0</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J87" s="2">
         <v>777</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M87" s="2">
         <v>777</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P87" s="2">
         <v>777</v>
       </c>
       <c r="S87" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T87" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>37</v>
@@ -3672,21 +3675,21 @@
         <v>1</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J88" s="2">
         <v>666</v>
       </c>
       <c r="S88" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T88" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>37</v>
@@ -3695,21 +3698,21 @@
         <v>666</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J89" s="2">
         <v>1</v>
       </c>
       <c r="S89" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T89" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>37</v>
@@ -3718,224 +3721,224 @@
         <v>1</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J90" s="2">
         <v>1</v>
       </c>
       <c r="S90" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T90" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G91" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H91" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H91" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="I91" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J91" s="2">
         <v>888</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T91" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E92" s="2">
         <v>2</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J92" s="2">
         <v>777</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M92" s="2">
         <v>777</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T92" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E93" s="2">
         <v>2</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J93" s="2">
         <v>666</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M93" s="2">
         <v>666</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P93" s="2">
         <v>666</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T93" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="S94" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T94" s="2" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T95" s="2" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="S96" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T96" s="2" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E97" s="2">
         <v>0</v>
       </c>
       <c r="I97" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="L97" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J97" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="L97" s="2" t="s">
+      <c r="M97" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="O97" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="M97" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="O97" s="2" t="s">
+      <c r="P97" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="S97" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="P97" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="S97" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="T97" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>37</v>
@@ -3944,44 +3947,44 @@
         <v>0</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S98" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T98" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J99" s="2">
         <v>0</v>
       </c>
       <c r="S99" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T99" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>37</v>
@@ -3990,215 +3993,215 @@
         <v>0</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J100" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="S100" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="T100" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="S100" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="T100" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J101" s="2">
         <v>0</v>
       </c>
       <c r="S101" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T101" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I102" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H102" s="2" t="s">
+      <c r="J102" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I102" s="2" t="s">
+      <c r="L102" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J102" s="2" t="s">
+      <c r="M102" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="L102" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="M102" s="2" t="s">
+      <c r="S102" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T102" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="S102" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="T102" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I103" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H103" s="2" t="s">
+      <c r="J103" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="I103" s="2" t="s">
+      <c r="L103" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J103" s="3" t="s">
+      <c r="M103" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="L103" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="M103" s="2" t="s">
+      <c r="S103" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T103" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="S103" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="T103" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J104" s="2">
         <v>0</v>
       </c>
       <c r="S104" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T104" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J105" s="2">
         <v>0</v>
       </c>
       <c r="S105" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T105" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G106" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="I106" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H106" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="J106" s="2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="S106" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T106" s="2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E107" s="2">
         <v>0</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J107" s="2">
         <v>777</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M107" s="2">
         <v>777</v>
       </c>
       <c r="S107" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T107" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>34</v>
@@ -4210,15 +4213,15 @@
         <v>30</v>
       </c>
       <c r="S108" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="T108" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="T108" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>34</v>
@@ -4230,10 +4233,10 @@
         <v>100</v>
       </c>
       <c r="S109" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="T109" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="T109" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/BCRPP_QC_R_Excel_Program/Core QC Rules/BCRPP Warning Rules.xlsx
+++ b/BCRPP_QC_R_Excel_Program/Core QC Rules/BCRPP Warning Rules.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1404E96-5659-4449-AF6D-E3E520BF3EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08F009B-1AAB-E64F-8AEF-6D86D6AC6B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="25600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="329">
   <si>
     <t>Variable</t>
   </si>
@@ -620,33 +620,6 @@
     <t>Verify: whr is outside of range 0-1.2 cm</t>
   </si>
   <si>
-    <t>parity &gt;= 2</t>
-  </si>
-  <si>
-    <t>parity &gt;=3</t>
-  </si>
-  <si>
-    <t>parity &gt;=4</t>
-  </si>
-  <si>
-    <t>parity &gt;=5</t>
-  </si>
-  <si>
-    <t>parity &gt;=6</t>
-  </si>
-  <si>
-    <t>parity &gt;=7</t>
-  </si>
-  <si>
-    <t>parity &gt;=8</t>
-  </si>
-  <si>
-    <t>parity &gt;=9</t>
-  </si>
-  <si>
-    <t>parity &gt;=10</t>
-  </si>
-  <si>
     <t>parity ≥ 3, ages of pregnancy variables not consistent</t>
   </si>
   <si>
@@ -824,15 +797,9 @@
     <t>parous == 1</t>
   </si>
   <si>
-    <t>parity &gt;= 1</t>
-  </si>
-  <si>
     <t>Verify: breastfeed_dur_b1 is outside range 0-24 months</t>
   </si>
   <si>
-    <t xml:space="preserve">parity &gt;= 2 </t>
-  </si>
-  <si>
     <t>Verify: breastfeed_dur_b2 is outside range 0-24 months</t>
   </si>
   <si>
@@ -845,42 +812,27 @@
     <t>breastfeed_dur_b3 &gt;=0 &amp; breastfeed_dur_b3 &lt;= 24</t>
   </si>
   <si>
-    <t>parity &gt;= 3</t>
-  </si>
-  <si>
     <t>breastfeed_dur_b4 &gt;= 0 &amp; breastfeed_dur_b4 &lt;= 24</t>
   </si>
   <si>
-    <t>parity &gt;= 4</t>
-  </si>
-  <si>
     <t>Verify: breastfeed_dur_b4 is outside range 0-24 months</t>
   </si>
   <si>
     <t>breastfeed_dur_b5 &gt;= 0 &amp; breastfeed_dur_b5 &lt;= 24</t>
   </si>
   <si>
-    <t>parity &gt;= 5</t>
-  </si>
-  <si>
     <t>Verify: breastfeed_dur_b5 is outside range 0-24 months</t>
   </si>
   <si>
     <t>breastfeed_dur_b6 &gt;= 0 &amp; breastfeed_dur_b6 &lt;= 24</t>
   </si>
   <si>
-    <t>parity &gt;= 6</t>
-  </si>
-  <si>
     <t>Verify: breastfeed_dur_b6 is outside range 0-12 months</t>
   </si>
   <si>
     <t>breastfeed_dur_b7 &gt;= 0 &amp; breastfeed_dur_b7 &lt;= 24</t>
   </si>
   <si>
-    <t>parity &gt;= 7</t>
-  </si>
-  <si>
     <t>Verify: breastfeed_dur_b7 is outside range 0-12 months</t>
   </si>
   <si>
@@ -890,9 +842,6 @@
     <t>breastfeed_dur_b8 &gt;= 0 &amp; breastfeed_dur_b8 &lt;= 24</t>
   </si>
   <si>
-    <t>parity &gt;= 8</t>
-  </si>
-  <si>
     <t>Verify: breastfeed_dur_b9 is outside range 0-12 months</t>
   </si>
   <si>
@@ -902,9 +851,6 @@
     <t>breastfeed_dur_b10 &gt;= 0 &amp; breastfeed_dur_b10 &lt;= 24</t>
   </si>
   <si>
-    <t>parity &gt;= 10</t>
-  </si>
-  <si>
     <t>Verify: breastfeed_dur_b10 is outside range 0-12 months</t>
   </si>
   <si>
@@ -1014,6 +960,63 @@
   </si>
   <si>
     <t>smoking_stop &gt; 0 &amp; smoking_stop &lt;= 100 | smoking_stop == 888 | smoking_stop == 666</t>
+  </si>
+  <si>
+    <t>parity &gt;= 1 &amp; !parity %in% c(777,888)</t>
+  </si>
+  <si>
+    <t>parity &gt;= 2 &amp; !parity %in% c(777,888)</t>
+  </si>
+  <si>
+    <t>parity &gt;= 3 &amp; !parity %in% c(777,888)</t>
+  </si>
+  <si>
+    <t>parity &gt;= 4 &amp; !parity %in% c(777,888)</t>
+  </si>
+  <si>
+    <t>parity &gt;= 5 &amp; !parity %in% c(777,888)</t>
+  </si>
+  <si>
+    <t>parity &gt;= 6 &amp; !parity %in% c(777,888)'</t>
+  </si>
+  <si>
+    <t>parity &gt;= 7 &amp; !parity %in% c(777,888)</t>
+  </si>
+  <si>
+    <t>parity &gt;= 8 &amp; !parity %in% c(777,888)</t>
+  </si>
+  <si>
+    <t>parity &gt;=9 &amp; !parity %in% c(777,888)</t>
+  </si>
+  <si>
+    <t>parity &gt;= 10 &amp; !parity %in% c(777,888)</t>
+  </si>
+  <si>
+    <t>parity &gt;= 2 &amp; parity != 888</t>
+  </si>
+  <si>
+    <t>parity &gt;=3 &amp; parity != 888</t>
+  </si>
+  <si>
+    <t>parity &gt;=4 &amp; parity != 888</t>
+  </si>
+  <si>
+    <t>parity &gt;=5 &amp; parity != 888</t>
+  </si>
+  <si>
+    <t>parity &gt;=6 &amp; parity != 888</t>
+  </si>
+  <si>
+    <t>parity &gt;=7 &amp; parity != 888</t>
+  </si>
+  <si>
+    <t>parity &gt;=8 &amp; parity != 888</t>
+  </si>
+  <si>
+    <t>parity &gt;=9 &amp; parity != 888</t>
+  </si>
+  <si>
+    <t>parity &gt;=10 &amp; parity != 888</t>
   </si>
 </sst>
 </file>
@@ -1388,8 +1391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="D35" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1959,7 +1962,7 @@
         <v>95</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -1979,7 +1982,7 @@
         <v>134</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -1999,7 +2002,7 @@
         <v>135</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -2019,7 +2022,7 @@
         <v>136</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -2039,7 +2042,7 @@
         <v>137</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -2059,7 +2062,7 @@
         <v>138</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -2079,7 +2082,7 @@
         <v>139</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -2099,7 +2102,7 @@
         <v>140</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -2119,7 +2122,7 @@
         <v>141</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -2139,7 +2142,7 @@
         <v>142</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -2159,13 +2162,13 @@
         <v>168</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>196</v>
+        <v>320</v>
       </c>
       <c r="S35" s="2" t="s">
         <v>134</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
@@ -2185,13 +2188,13 @@
         <v>168</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>197</v>
+        <v>321</v>
       </c>
       <c r="S36" s="2" t="s">
         <v>135</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -2211,13 +2214,13 @@
         <v>168</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>198</v>
+        <v>322</v>
       </c>
       <c r="S37" s="2" t="s">
         <v>136</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -2237,13 +2240,13 @@
         <v>168</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>199</v>
+        <v>323</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>137</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -2257,19 +2260,19 @@
         <v>176</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>168</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>200</v>
+        <v>324</v>
       </c>
       <c r="S39" s="2" t="s">
         <v>138</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -2283,19 +2286,19 @@
         <v>178</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>168</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>201</v>
+        <v>325</v>
       </c>
       <c r="S40" s="2" t="s">
         <v>139</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -2309,19 +2312,19 @@
         <v>179</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>168</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>202</v>
+        <v>326</v>
       </c>
       <c r="S41" s="2" t="s">
         <v>140</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
@@ -2335,19 +2338,19 @@
         <v>180</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>181</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>203</v>
+        <v>327</v>
       </c>
       <c r="S42" s="2" t="s">
         <v>141</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
@@ -2361,19 +2364,19 @@
         <v>182</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>168</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>204</v>
+        <v>328</v>
       </c>
       <c r="S43" s="2" t="s">
         <v>142</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
@@ -2393,25 +2396,25 @@
         <v>143</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>94</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>168</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>264</v>
+        <v>310</v>
       </c>
       <c r="S44" s="2" t="s">
         <v>143</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
@@ -2431,25 +2434,25 @@
         <v>143</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>94</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>168</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>266</v>
+        <v>311</v>
       </c>
       <c r="S45" s="2" t="s">
         <v>144</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
@@ -2469,25 +2472,25 @@
         <v>145</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>94</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>168</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>271</v>
+        <v>312</v>
       </c>
       <c r="S46" s="2" t="s">
         <v>145</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
@@ -2507,25 +2510,25 @@
         <v>146</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>94</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>168</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>146</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
@@ -2545,25 +2548,25 @@
         <v>147</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>94</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>168</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>147</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
@@ -2583,25 +2586,25 @@
         <v>148</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>94</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>168</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>148</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
@@ -2621,25 +2624,25 @@
         <v>149</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>94</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>168</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="S50" s="2" t="s">
         <v>149</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
@@ -2659,25 +2662,25 @@
         <v>150</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>94</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>168</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="S51" s="3" t="s">
         <v>150</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
@@ -2697,25 +2700,25 @@
         <v>151</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>94</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>168</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>203</v>
+        <v>318</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>151</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
@@ -2735,25 +2738,25 @@
         <v>152</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>94</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>168</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="S53" s="2" t="s">
         <v>152</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
@@ -2805,7 +2808,7 @@
         <v>66</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
@@ -2828,7 +2831,7 @@
         <v>66</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
@@ -2842,19 +2845,19 @@
         <v>70</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>66</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="S57" s="2" t="s">
         <v>70</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
@@ -2903,7 +2906,7 @@
         <v>70</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
@@ -2917,19 +2920,19 @@
         <v>75</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>66</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="S60" s="2" t="s">
         <v>75</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
@@ -2943,19 +2946,19 @@
         <v>71</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>66</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="S61" s="2" t="s">
         <v>76</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
@@ -2969,19 +2972,19 @@
         <v>77</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>66</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="S62" s="2" t="s">
         <v>72</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
@@ -2995,19 +2998,19 @@
         <v>78</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>83</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="S63" s="2" t="s">
         <v>78</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
@@ -3021,19 +3024,19 @@
         <v>79</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>83</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="S64" s="2" t="s">
         <v>79</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
@@ -3047,19 +3050,19 @@
         <v>80</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>83</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="S65" s="2" t="s">
         <v>80</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
@@ -3073,13 +3076,13 @@
         <v>81</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>83</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="S66" s="2" t="s">
         <v>81</v>
@@ -3117,7 +3120,7 @@
         <v>81</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
@@ -3175,7 +3178,7 @@
         <v>83</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
@@ -3201,13 +3204,13 @@
         <v>83</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="S70" s="2" t="s">
         <v>81</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
@@ -3233,7 +3236,7 @@
         <v>87</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
@@ -3259,7 +3262,7 @@
         <v>87</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
@@ -3285,7 +3288,7 @@
         <v>87</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
@@ -3311,7 +3314,7 @@
         <v>92</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
@@ -3334,7 +3337,7 @@
         <v>92</v>
       </c>
       <c r="T75" s="2" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
@@ -3357,7 +3360,7 @@
         <v>92</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
@@ -3392,7 +3395,7 @@
         <v>94</v>
       </c>
       <c r="T77" s="2" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
@@ -3427,7 +3430,7 @@
         <v>94</v>
       </c>
       <c r="T78" s="2" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
@@ -3441,25 +3444,25 @@
         <v>94</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>168</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>97</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="S79" s="2" t="s">
         <v>94</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
@@ -3482,7 +3485,7 @@
         <v>94</v>
       </c>
       <c r="T80" s="2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
@@ -3525,7 +3528,7 @@
         <v>96</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
@@ -3548,7 +3551,7 @@
         <v>97</v>
       </c>
       <c r="T83" s="2" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
@@ -3562,19 +3565,19 @@
         <v>100</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="S84" s="2" t="s">
         <v>100</v>
       </c>
       <c r="T84" s="2" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
@@ -3588,19 +3591,19 @@
         <v>101</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="S85" s="2" t="s">
         <v>101</v>
       </c>
       <c r="T85" s="2" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
@@ -3614,13 +3617,13 @@
         <v>102</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="S86" s="2" t="s">
         <v>102</v>
@@ -3661,7 +3664,7 @@
         <v>104</v>
       </c>
       <c r="T87" s="2" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
@@ -3684,7 +3687,7 @@
         <v>105</v>
       </c>
       <c r="T88" s="2" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
@@ -3707,7 +3710,7 @@
         <v>105</v>
       </c>
       <c r="T89" s="2" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
@@ -3730,7 +3733,7 @@
         <v>107</v>
       </c>
       <c r="T90" s="2" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
@@ -3756,7 +3759,7 @@
         <v>107</v>
       </c>
       <c r="T91" s="2" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
@@ -3785,7 +3788,7 @@
         <v>109</v>
       </c>
       <c r="T92" s="2" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
@@ -3820,7 +3823,7 @@
         <v>109</v>
       </c>
       <c r="T93" s="2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
@@ -3834,19 +3837,19 @@
         <v>112</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="S94" s="2" t="s">
         <v>112</v>
       </c>
       <c r="T94" s="2" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
@@ -3860,19 +3863,19 @@
         <v>113</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="S95" s="2" t="s">
         <v>113</v>
       </c>
       <c r="T95" s="2" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
@@ -3886,19 +3889,19 @@
         <v>114</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="S96" s="2" t="s">
         <v>114</v>
       </c>
       <c r="T96" s="2" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
@@ -3933,7 +3936,7 @@
         <v>115</v>
       </c>
       <c r="T97" s="2" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
@@ -3956,7 +3959,7 @@
         <v>113</v>
       </c>
       <c r="T98" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
@@ -3979,7 +3982,7 @@
         <v>113</v>
       </c>
       <c r="T99" s="2" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
@@ -4103,7 +4106,7 @@
         <v>116</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="I104" s="2" t="s">
         <v>115</v>
@@ -4115,7 +4118,7 @@
         <v>115</v>
       </c>
       <c r="T104" s="2" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
@@ -4129,7 +4132,7 @@
         <v>117</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="I105" s="2" t="s">
         <v>115</v>
@@ -4141,7 +4144,7 @@
         <v>115</v>
       </c>
       <c r="T105" s="2" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
@@ -4155,19 +4158,19 @@
         <v>127</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="I106" s="2" t="s">
         <v>128</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="S106" s="2" t="s">
         <v>127</v>
       </c>
       <c r="T106" s="2" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
@@ -4196,7 +4199,7 @@
         <v>128</v>
       </c>
       <c r="T107" s="2" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">

--- a/BCRPP_QC_R_Excel_Program/Core QC Rules/BCRPP Warning Rules.xlsx
+++ b/BCRPP_QC_R_Excel_Program/Core QC Rules/BCRPP Warning Rules.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08F009B-1AAB-E64F-8AEF-6D86D6AC6B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4599F067-48F8-8049-8D2B-4C4789DA5EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="25600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51200" yWindow="500" windowWidth="51200" windowHeight="26600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$109</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="328">
   <si>
     <t>Variable</t>
   </si>
@@ -146,12 +149,21 @@
     <t>crossvalid1.warnings</t>
   </si>
   <si>
+    <t>qcycle is 0, baseline should be 1</t>
+  </si>
+  <si>
     <t>baseline == 0</t>
   </si>
   <si>
     <t>1 &lt;= qcycle &amp; qcycle != 888</t>
   </si>
   <si>
+    <t>qcycle ≥ 1, baseline should be 0</t>
+  </si>
+  <si>
+    <t>qcycle is 888, please check value of baseline</t>
+  </si>
+  <si>
     <t>0, 1</t>
   </si>
   <si>
@@ -164,6 +176,9 @@
     <t>birth_year</t>
   </si>
   <si>
+    <t>Verify: birth year is outside of range 1910-2010</t>
+  </si>
+  <si>
     <t>sex</t>
   </si>
   <si>
@@ -176,6 +191,9 @@
     <t>age</t>
   </si>
   <si>
+    <t>Verify: age is outside of range 10-100</t>
+  </si>
+  <si>
     <t>race</t>
   </si>
   <si>
@@ -209,27 +227,237 @@
     <t>agemenarche</t>
   </si>
   <si>
+    <t>Verify: agemenarche is outside of range 8-16</t>
+  </si>
+  <si>
     <t>height</t>
   </si>
   <si>
+    <t>Verify: height is outside of range 100-200cm</t>
+  </si>
+  <si>
     <t>bmi</t>
   </si>
   <si>
+    <t>Verify: bmi is outside of range 16-50</t>
+  </si>
+  <si>
     <t>weight</t>
   </si>
   <si>
+    <t>Verify: weight is outside of range 30-150 kg</t>
+  </si>
+  <si>
     <t>bmi_earlyadult</t>
   </si>
   <si>
+    <t>Verify: bmi_earlyadult is outiside of range 16-50</t>
+  </si>
+  <si>
     <t>waist</t>
   </si>
   <si>
+    <t>Verify: waist is outside of range 0-160 cm</t>
+  </si>
+  <si>
     <t>hip</t>
   </si>
   <si>
+    <t>Verify: hip is outside of range 0-160 cm</t>
+  </si>
+  <si>
     <t>whr</t>
   </si>
   <si>
+    <t>Verify: whr is outside of range 0-1.2 cm</t>
+  </si>
+  <si>
+    <t>age_preg1</t>
+  </si>
+  <si>
+    <t>Verify: age_preg1 is outside range 12-58 years</t>
+  </si>
+  <si>
+    <t>age_preg2</t>
+  </si>
+  <si>
+    <t>Verify: age_preg2 is outside range 12-58 years</t>
+  </si>
+  <si>
+    <t>age_preg3</t>
+  </si>
+  <si>
+    <t>Verify: age_preg3 is outside range 12-58 years</t>
+  </si>
+  <si>
+    <t>age_preg4</t>
+  </si>
+  <si>
+    <t>Verify: age_preg4 is outside range 12-58 years</t>
+  </si>
+  <si>
+    <t>age_preg5</t>
+  </si>
+  <si>
+    <t>Verify: age_preg5 is outside range 12-58 years</t>
+  </si>
+  <si>
+    <t>age_preg6</t>
+  </si>
+  <si>
+    <t>Verify: age_preg6 is outside range 12-58 years</t>
+  </si>
+  <si>
+    <t>age_preg7</t>
+  </si>
+  <si>
+    <t>Verify: age_preg7 is otuside range 12-58 years</t>
+  </si>
+  <si>
+    <t>age_preg8</t>
+  </si>
+  <si>
+    <t>Verify: age_preg8 is outside range 12-58 years</t>
+  </si>
+  <si>
+    <t>age_preg9</t>
+  </si>
+  <si>
+    <t>Verify: age_preg9 is outside range 12-58 years</t>
+  </si>
+  <si>
+    <t>age_preg10</t>
+  </si>
+  <si>
+    <t>Verify: age_preg10 is outside range 12-58 years</t>
+  </si>
+  <si>
+    <t>parity</t>
+  </si>
+  <si>
+    <t>parity ≥ 2, ages of pregnancy variables not consistent</t>
+  </si>
+  <si>
+    <t>age_preg3,age_preg2,age_preg1</t>
+  </si>
+  <si>
+    <t>parity ≥ 3, ages of pregnancy variables not consistent</t>
+  </si>
+  <si>
+    <t>age_preg4,age_preg3,age_preg2,age_preg1</t>
+  </si>
+  <si>
+    <t>parity ≥ 4, ages of pregnancy variables not consistent</t>
+  </si>
+  <si>
+    <t>age_preg5,age_preg4,age_preg3,age_preg2,age_preg1</t>
+  </si>
+  <si>
+    <t>parity ≥ 5, ages of pregnancy variables not consistent</t>
+  </si>
+  <si>
+    <t>age_preg6,age_preg5,age_preg4,age_preg3,age_preg2,age_preg1</t>
+  </si>
+  <si>
+    <t>parity ≥ 6, ages of pregnancy variables not consistent</t>
+  </si>
+  <si>
+    <t>age_preg7,age_preg6,age_preg5,age_preg4,age_preg3,age_preg2,age_preg1</t>
+  </si>
+  <si>
+    <t>parity ≥ 7, ages of pregnancy variables not consistent</t>
+  </si>
+  <si>
+    <t>age_preg8,age_preg7,age_preg6,age_preg5,age_preg4,age_preg3,age_preg2,age_preg1</t>
+  </si>
+  <si>
+    <t>parity ≥ 8, ages of pregnancy variables not consistent</t>
+  </si>
+  <si>
+    <t>age_preg9,age_preg8,age_preg7,age_preg6,age_preg5,age_preg4,age_preg3,age_preg2,age_preg1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parity </t>
+  </si>
+  <si>
+    <t>parity ≥ 9, ages of pregnancy variables not consistent</t>
+  </si>
+  <si>
+    <t>age_preg10,age_preg9,age_preg8,age_preg7,age_preg6,age_preg5,age_preg4,age_preg3,age_preg2,age_preg1</t>
+  </si>
+  <si>
+    <t>parity ≥ 10, ages of pregnancy variables not consistent</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b1</t>
+  </si>
+  <si>
+    <t>crossrange2.warnings</t>
+  </si>
+  <si>
+    <t>parous</t>
+  </si>
+  <si>
+    <t>parous == 1</t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b1 is outside range 0-24 months</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b2</t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b2 is outside range 0-24 months</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b3</t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b3 is outside range 0-24 months</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b4</t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b4 is outside range 0-24 months</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b5</t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b5 is outside range 0-24 months</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b6</t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b6 is outside range 0-12 months</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b7</t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b7 is outside range 0-12 months</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b8</t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b8 is outside range 0-12 months</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b9</t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b9 is outside range 0-12 months</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b10</t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b10 is outside range 0-12 months</t>
+  </si>
+  <si>
     <t>alcohol_status</t>
   </si>
   <si>
@@ -251,37 +479,118 @@
     <t>alcohol_dur</t>
   </si>
   <si>
+    <t>alcohol_status is 4 (never drinker); not consistent with alcohol_init, alochol_stop or alcohol_dur</t>
+  </si>
+  <si>
     <t>crossvalid2.warnings</t>
   </si>
   <si>
+    <t>alcohol_init &gt; 10 &amp; alcohol_init &lt;= 70 | alcohol_init ==888</t>
+  </si>
+  <si>
+    <t>!alcohol_status %in% c(4, 777,888)</t>
+  </si>
+  <si>
+    <t>Verify: alcohol_init is not within range 10-70 years</t>
+  </si>
+  <si>
+    <t>alcohol_init,age</t>
+  </si>
+  <si>
+    <t>alcohol_init &lt; age</t>
+  </si>
+  <si>
+    <t>!alcohol_init %in% c(777,888)</t>
+  </si>
+  <si>
+    <t>alcohol_init should be smaller than age</t>
+  </si>
+  <si>
     <t>2, 4</t>
   </si>
   <si>
+    <t>Verify: values of alcohol_init and alcohol_status are not consistent</t>
+  </si>
+  <si>
     <t>alcohol_amt</t>
   </si>
   <si>
+    <t>alcohol_amt &gt; 0 &amp; alcohol_amt &lt;= 25 | alcohol_amt == 888</t>
+  </si>
+  <si>
+    <t>Verify: alcohol_amt is outside range 0-25 gms</t>
+  </si>
+  <si>
+    <t>alcohol_stop &gt; 0 &amp; alcohol_stop &lt;= 100 | alcohol_stop ==888</t>
+  </si>
+  <si>
     <t xml:space="preserve">alcohol_stop </t>
   </si>
   <si>
-    <t>alchol_dur</t>
+    <t>Verify: alcohol_stop is outside range 0-100 years</t>
+  </si>
+  <si>
+    <t>Verify: alcohol_dur is outside range 0-50 years</t>
   </si>
   <si>
     <t>smoking_init</t>
   </si>
   <si>
+    <t>smoking_init &gt; 0 &amp; smoking_init &lt;= 70 | smoking_init == 888</t>
+  </si>
+  <si>
+    <t>smoking_status</t>
+  </si>
+  <si>
+    <t>!smoking_status %in% c(4,777,888)</t>
+  </si>
+  <si>
+    <t>Verify: smoking_init outside  range 0-70 years</t>
+  </si>
+  <si>
     <t>smoking_amt</t>
   </si>
   <si>
+    <t>smoking_amt &gt; 0 &amp; smoking_amt &lt;= 60 | smoking_amt == 888</t>
+  </si>
+  <si>
+    <t>Verify: smoking_amt is outside  range 0-60 cigarrettes</t>
+  </si>
+  <si>
     <t>smoking_stop</t>
   </si>
   <si>
+    <t>smoking_stop &gt; 0 &amp; smoking_stop &lt;= 100 | smoking_stop == 888 | smoking_stop == 666</t>
+  </si>
+  <si>
+    <t>Verify: smoking_stop is outside range 0-100 years</t>
+  </si>
+  <si>
     <t>smoking_dur</t>
   </si>
   <si>
+    <t>smoking_dur &gt;0 &amp; smoking_dur &lt;= 50 | smoking_dur ==888</t>
+  </si>
+  <si>
+    <t>smoking_stop != 666</t>
+  </si>
+  <si>
     <t>Verify: smoking_dur is not within range 0-50 years</t>
   </si>
   <si>
-    <t>smoking_status</t>
+    <t>smoking_init,smoking_dur,smoking_stop</t>
+  </si>
+  <si>
+    <t>smoking_dur &lt; (1 + smoking_stop - smoking_init)  | smoking_dur == 888</t>
+  </si>
+  <si>
+    <t>!smoking_init %in% c(777,888)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !smoking_stop %in% c(666,777,888)</t>
+  </si>
+  <si>
+    <t>smoking_dur is more than the difference between smoking_init and smoking_stop</t>
   </si>
   <si>
     <t xml:space="preserve">smoking_init </t>
@@ -290,6 +599,24 @@
     <t>smoking_status is 4 (never smoker) ; not consistent with smoking_init, smoking_stop or smoking_dur</t>
   </si>
   <si>
+    <t>Verify: values of smoking_status and smoking_stop are not consistent</t>
+  </si>
+  <si>
+    <t>smoking_dur,age</t>
+  </si>
+  <si>
+    <t>smoking_dur &lt; age - 7 | smoking_dur == 888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age </t>
+  </si>
+  <si>
+    <t>!is.na(age)</t>
+  </si>
+  <si>
+    <t>Verify: smoking_dur ≥ age - 7 years</t>
+  </si>
+  <si>
     <t>Biopsies_yesno</t>
   </si>
   <si>
@@ -299,12 +626,21 @@
     <t>!Biopsies_number %in% c(0, 888)</t>
   </si>
   <si>
+    <t>Verify: value of Biopsies_yesno = 1 not consistent with Biopsies_number</t>
+  </si>
+  <si>
     <t>Biopsies_number == 0</t>
   </si>
   <si>
+    <t>Verify: values of Biopsies_yesno = 0, not consistent with Biopsies_number</t>
+  </si>
+  <si>
     <t>Biopsies_number == 888</t>
   </si>
   <si>
+    <t>Verify: values of Biopsies_yesno = 888,  not consistent with Biopsies_number</t>
+  </si>
+  <si>
     <t>BBD_history</t>
   </si>
   <si>
@@ -314,51 +650,111 @@
     <t>!BBD_number %in% c(0, 888)</t>
   </si>
   <si>
-    <t>parous</t>
-  </si>
-  <si>
-    <t>age_preg1</t>
+    <t>Verify: BBD_history = 1, not consistent with BBD_number</t>
+  </si>
+  <si>
+    <t>Verify: BBD_history = 0, not consistent with BBD_number</t>
+  </si>
+  <si>
+    <t>Verify: BBD_history = 888, not consistent with BBD_number</t>
+  </si>
+  <si>
+    <t>breastfeed</t>
+  </si>
+  <si>
+    <t>Verify: parous is 0, not consistent with age_preg1, parity, or breastfeed</t>
+  </si>
+  <si>
+    <t>Verify: parous is 888, not consistent with age_preg1, parity, or breastfeed</t>
+  </si>
+  <si>
+    <t>!parity %in% c(0,777, 888)</t>
+  </si>
+  <si>
+    <t>!breastfeed %in% c(777,888) &amp; !age_preg1 %in% c(777,888)</t>
+  </si>
+  <si>
+    <t>Verify: parous is not consistent with age_preg1, parity, or breastfeed</t>
   </si>
   <si>
     <t>breastfeed_dur</t>
   </si>
   <si>
-    <t>breastfeed</t>
+    <t>Verify: parous is 0, not consistent with breastfeed_dur</t>
   </si>
   <si>
     <t>breastfeed is 0 but breastfeed_dur is not 666</t>
   </si>
   <si>
+    <t>Verify: breastfeed_dur is outside range 0-84 months</t>
+  </si>
+  <si>
     <t xml:space="preserve">breastfeed </t>
   </si>
   <si>
+    <t>Verify: breastfeed_dur is 666, not consistent with breastfeed</t>
+  </si>
+  <si>
     <t>ocuse_dur</t>
   </si>
   <si>
+    <t>ocuse_dur &gt; 0 &amp; ocuse_dur &lt;= 84 | ocuse_dur == 888</t>
+  </si>
+  <si>
+    <t>ocuse_ever</t>
+  </si>
+  <si>
+    <t>!ocuse_ever %in% c(0,777,888)</t>
+  </si>
+  <si>
+    <t>Verify: ocuse_dur is outside range 0-84 months</t>
+  </si>
+  <si>
     <t>ocuse_start</t>
   </si>
   <si>
+    <t>ocuse_start &gt;= 16 &amp; ocuse_start &lt;= 58 | ocuse_start == 888</t>
+  </si>
+  <si>
+    <t>Verify: ocuse_start is outside range 16-58 years</t>
+  </si>
+  <si>
     <t>ocuse_stop</t>
   </si>
   <si>
+    <t>ocuse_stop &gt; 0 &amp; ocuse_stop &lt;= 58 | ocuse_stop == 888</t>
+  </si>
+  <si>
     <t>Verify: ocuse_stop is not within range 0-58 years</t>
   </si>
   <si>
-    <t>ocuse_ever</t>
+    <t>ocuse_ever is 0 (never user): not consistent with ocuse_start, or ocuse_stop, or ocuse_dur</t>
   </si>
   <si>
     <t>ocuse_current</t>
   </si>
   <si>
+    <t>Verify: ocuse_current is 1, not consistent with ocuse_stop</t>
+  </si>
+  <si>
+    <t>Verify: ocuse_stop is 666, not consistent with ocuse_current</t>
+  </si>
+  <si>
     <t>othcontracep_current</t>
   </si>
   <si>
     <t>othcontracep_ever</t>
   </si>
   <si>
+    <t>Verify: othcontracep_current is 1, not consistent with othcontracep_ever</t>
+  </si>
+  <si>
     <t>othcontracep_ever != 0</t>
   </si>
   <si>
+    <t>Verify: othcontracep_current is 888, not consistent with othcontracep_ever</t>
+  </si>
+  <si>
     <t>meno_status</t>
   </si>
   <si>
@@ -368,6 +764,9 @@
     <t>meno_reason</t>
   </si>
   <si>
+    <t>Verify: meno_status is 2 (pre-menopausal), not consistent with meno_age and meno_reason</t>
+  </si>
+  <si>
     <t>hrt_dur</t>
   </si>
   <si>
@@ -377,16 +776,52 @@
     <t>hrteonly_dur</t>
   </si>
   <si>
+    <t>Verify:  verify values of hrt_dur, hrtep_dur, hrteonly_dur with meno_status = 2 (pre-menopausal)</t>
+  </si>
+  <si>
+    <t>hrt_dur &gt; 0 &amp; hrt_dur &lt;= 24 | hrt_dur == 888</t>
+  </si>
+  <si>
+    <t>Verify: hrt_dur is outside range 0-24 months</t>
+  </si>
+  <si>
+    <t>hrtep_dur &gt; 0 &amp; hrtep_dur &lt;= 24 | hrtep_dur == 888</t>
+  </si>
+  <si>
+    <t>Verify: hrtep_dur is outside range 0-24 months</t>
+  </si>
+  <si>
+    <t>hrteonly_dur &gt; 0 &amp; hrteonly_dur &lt;= 24 | hrteonly_dur == 888</t>
+  </si>
+  <si>
+    <t>Verify: hrteonly_dur is outside range 0-24 months</t>
+  </si>
+  <si>
     <t>hrtuse</t>
   </si>
   <si>
+    <t>666, 777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hrtuse is 0 (never user):  not consistent with hrt_dur, hrtep_dur, or hrteonly_dur </t>
+  </si>
+  <si>
     <t>hrtuse_ep</t>
   </si>
   <si>
+    <t>Verify:  hrtuse_ep is 0 (never user), not consistent with hrtep_dur</t>
+  </si>
+  <si>
+    <t>Verify: hrtep_dur = (666,777), not consistent with hrtuse_ep</t>
+  </si>
+  <si>
     <t>hrtuse_eonly</t>
   </si>
   <si>
-    <t>crossrange2.warnings</t>
+    <t>hrtuse_eonly is 0 ( never user) but hrteonly_dur is not 666 or777</t>
+  </si>
+  <si>
+    <t>hrteonly_dur is 666 or 777 but hrtuse_eonly is not 0</t>
   </si>
   <si>
     <t>hrtuse == 1</t>
@@ -413,15 +848,39 @@
     <t>hrtuse is not 2 but hrtuse_eonly and hrtuse_ep are both 2 (former user)</t>
   </si>
   <si>
+    <t>hrtuse_ep == 0</t>
+  </si>
+  <si>
+    <t>hrtuse is 0 (never user), not consistent with hrtuse_eponly</t>
+  </si>
+  <si>
+    <t>hrtuse_eonly == 0</t>
+  </si>
+  <si>
+    <t>hrtuse is 0 (never user), not consistent with hrtuse_eonly</t>
+  </si>
+  <si>
     <t>screen_start</t>
   </si>
   <si>
+    <t>screen_start &gt;= 16 &amp; screen_start &lt;= 90 | screen_start == 888</t>
+  </si>
+  <si>
     <t>screen_ever</t>
   </si>
   <si>
+    <t>!screen_ever %in% c(0,888)</t>
+  </si>
+  <si>
+    <t>Verify: screen_start is outside range 16-90 years</t>
+  </si>
+  <si>
     <t>lastscreen_year</t>
   </si>
   <si>
+    <t xml:space="preserve">screen_ever is 0, not consistent with lastscreen_year or screen_start </t>
+  </si>
+  <si>
     <t>pa_mets</t>
   </si>
   <si>
@@ -434,589 +893,130 @@
     <t>pa_pct is not within range 0-100 %</t>
   </si>
   <si>
-    <t>age_preg2</t>
-  </si>
-  <si>
-    <t>age_preg3</t>
-  </si>
-  <si>
-    <t>age_preg4</t>
-  </si>
-  <si>
-    <t>age_preg5</t>
-  </si>
-  <si>
-    <t>age_preg6</t>
-  </si>
-  <si>
-    <t>age_preg7</t>
-  </si>
-  <si>
-    <t>age_preg8</t>
-  </si>
-  <si>
-    <t>age_preg9</t>
-  </si>
-  <si>
-    <t>age_preg10</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b1</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b2</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b3</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b4</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b5</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b6</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b7</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b8</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b9</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b10</t>
-  </si>
-  <si>
-    <t>666, 777</t>
-  </si>
-  <si>
-    <t>hrtuse_eonly is 0 ( never user) but hrteonly_dur is not 666 or777</t>
-  </si>
-  <si>
-    <t>hrteonly_dur is 666 or 777 but hrtuse_eonly is not 0</t>
-  </si>
-  <si>
-    <t>alcohol_init,age</t>
-  </si>
-  <si>
-    <t>alcohol_init &lt; age</t>
-  </si>
-  <si>
-    <t>!alcohol_init %in% c(777,888)</t>
-  </si>
-  <si>
-    <t>alcohol_init should be smaller than age</t>
-  </si>
-  <si>
-    <t>smoking_init,smoking_dur,smoking_stop</t>
-  </si>
-  <si>
-    <t>!smoking_init %in% c(777,888)</t>
-  </si>
-  <si>
-    <t>smoking_dur,age</t>
-  </si>
-  <si>
-    <t>smoking_dur &lt; age - 7 | smoking_dur == 888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age </t>
-  </si>
-  <si>
-    <t>!is.na(age)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smoking_dur &lt; (1 + smoking_stop - smoking_init) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> !smoking_stop %in% c(666,777,888)</t>
-  </si>
-  <si>
-    <t>parity</t>
-  </si>
-  <si>
-    <t>age_preg2, age_preg1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age_preg2 != 666 &amp; age_preg2 &gt; age_preg1 </t>
-  </si>
-  <si>
-    <t>age_preg3,age_preg2,age_preg1</t>
-  </si>
-  <si>
-    <t>age_preg3 != 666 &amp; age_preg2 != 666 &amp; age_preg1 != 666 &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1</t>
-  </si>
-  <si>
-    <t>age_preg4,age_preg3,age_preg2,age_preg1</t>
-  </si>
-  <si>
-    <t>age_preg4 != 666 &amp; age_preg4 &gt; age_preg3 &amp; age_preg3 != 666 &amp; age_preg2 != 666 &amp; age_preg1 != 666 &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1</t>
-  </si>
-  <si>
-    <t>age_preg5,age_preg4,age_preg3,age_preg2,age_preg1</t>
-  </si>
-  <si>
-    <t>age_preg6,age_preg5,age_preg4,age_preg3,age_preg2,age_preg1</t>
-  </si>
-  <si>
-    <t>age_preg5 != 666 &amp; age_preg5 &gt; age_preg4 &amp; age_preg4 != 666 &amp; age_preg4 &gt; age_preg3 &amp; age_preg3 != 666 &amp; age_preg2 != 666 &amp; age_preg1 != 666 &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1</t>
-  </si>
-  <si>
-    <t>age_preg7,age_preg6,age_preg5,age_preg4,age_preg3,age_preg2,age_preg1</t>
-  </si>
-  <si>
-    <t>age_preg8,age_preg7,age_preg6,age_preg5,age_preg4,age_preg3,age_preg2,age_preg1</t>
-  </si>
-  <si>
-    <t>age_preg9,age_preg8,age_preg7,age_preg6,age_preg5,age_preg4,age_preg3,age_preg2,age_preg1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parity </t>
-  </si>
-  <si>
-    <t>age_preg10,age_preg9,age_preg8,age_preg7,age_preg6,age_preg5,age_preg4,age_preg3,age_preg2,age_preg1</t>
-  </si>
-  <si>
-    <t>qcycle is 0, baseline should be 1</t>
-  </si>
-  <si>
-    <t>qcycle ≥ 1, baseline should be 0</t>
-  </si>
-  <si>
-    <t>qcycle is 888, please check value of baseline</t>
-  </si>
-  <si>
-    <t>Verify: birth year is outside of range 1910-2010</t>
-  </si>
-  <si>
-    <t>Verify: age is outside of range 10-100</t>
-  </si>
-  <si>
-    <t>Verify: agemenarche is outside of range 8-16</t>
-  </si>
-  <si>
-    <t>Verify: height is outside of range 100-200cm</t>
-  </si>
-  <si>
-    <t>Verify: bmi is outside of range 16-50</t>
-  </si>
-  <si>
-    <t>Verify: weight is outside of range 30-150 kg</t>
-  </si>
-  <si>
-    <t>Verify: bmi_earlyadult is outiside of range 16-50</t>
-  </si>
-  <si>
-    <t>Verify: waist is outside of range 0-160 cm</t>
-  </si>
-  <si>
-    <t>Verify: hip is outside of range 0-160 cm</t>
-  </si>
-  <si>
-    <t>Verify: whr is outside of range 0-1.2 cm</t>
-  </si>
-  <si>
-    <t>parity ≥ 3, ages of pregnancy variables not consistent</t>
-  </si>
-  <si>
-    <t>parity ≥ 4, ages of pregnancy variables not consistent</t>
-  </si>
-  <si>
-    <t>parity ≥ 5, ages of pregnancy variables not consistent</t>
-  </si>
-  <si>
-    <t>parity ≥ 6, ages of pregnancy variables not consistent</t>
-  </si>
-  <si>
-    <t>parity ≥ 7, ages of pregnancy variables not consistent</t>
-  </si>
-  <si>
-    <t>parity ≥ 8, ages of pregnancy variables not consistent</t>
-  </si>
-  <si>
-    <t>parity ≥ 9, ages of pregnancy variables not consistent</t>
-  </si>
-  <si>
-    <t>parity ≥ 10, ages of pregnancy variables not consistent</t>
-  </si>
-  <si>
-    <t>parity ≥ 2, ages of pregnancy variables not consistent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alcohol_status is 1 (current drinker), alcohol_stop should be 666 </t>
-  </si>
-  <si>
-    <t>alcohol_status is 4 (never drinker); not consistent with alcohol_init, alochol_stop or alcohol_dur</t>
-  </si>
-  <si>
-    <t>Verify: alcohol_init is not within range 10-70 years</t>
-  </si>
-  <si>
-    <t>Verify: values of alcohol_init and alcohol_status are not consistent</t>
-  </si>
-  <si>
-    <t>Verify: alcohol_amt is outside range 0-25 gms</t>
-  </si>
-  <si>
-    <t>Verify: alcohol_stop is outside range 0-100 years</t>
-  </si>
-  <si>
-    <t>Verify: alcohol_dur is outside range 0-50 years</t>
-  </si>
-  <si>
-    <t>Verify: smoking_init outside  range 0-70 years</t>
-  </si>
-  <si>
-    <t>Verify: smoking_amt is outside  range 0-60 cigarrettes</t>
-  </si>
-  <si>
-    <t>Verify: smoking_stop is outside range 0-100 years</t>
-  </si>
-  <si>
-    <t>smoking_dur is more than the difference between smoking_init and smoking_stop</t>
-  </si>
-  <si>
-    <t>Verify: values of smoking_status and smoking_stop are not consistent</t>
-  </si>
-  <si>
-    <t>Verify: value of Biopsies_yesno = 1 not consistent with Biopsies_number</t>
-  </si>
-  <si>
-    <t>Verify: values of Biopsies_yesno = 0, not consistent with Biopsies_number</t>
-  </si>
-  <si>
-    <t>Verify: values of Biopsies_yesno = 888,  not consistent with Biopsies_number</t>
-  </si>
-  <si>
-    <t>Verify: BBD_history = 1, not consistent with BBD_number</t>
-  </si>
-  <si>
-    <t>Verify: BBD_history = 0, not consistent with BBD_number</t>
-  </si>
-  <si>
-    <t>Verify: BBD_history = 888, not consistent with BBD_number</t>
-  </si>
-  <si>
-    <t>Verify: parous is 0, not consistent with breastfeed_dur</t>
-  </si>
-  <si>
-    <t>Verify: breastfeed_dur is outside range 0-84 months</t>
-  </si>
-  <si>
-    <t>Verify: breastfeed_dur is 666, not consistent with breastfeed</t>
-  </si>
-  <si>
-    <t>Verify: ocuse_dur is outside range 0-84 months</t>
-  </si>
-  <si>
-    <t>Verify: ocuse_start is outside range 16-58 years</t>
-  </si>
-  <si>
-    <t>ocuse_ever is 0 (never user): not consistent with ocuse_start, or ocuse_stop, or ocuse_dur</t>
-  </si>
-  <si>
-    <t>Verify: ocuse_current is 1, not consistent with ocuse_stop</t>
-  </si>
-  <si>
-    <t>Verify: ocuse_stop is 666, not consistent with ocuse_current</t>
-  </si>
-  <si>
-    <t>Verify: othcontracep_current is 1, not consistent with othcontracep_ever</t>
-  </si>
-  <si>
-    <t>Verify: othcontracep_current is 888, not consistent with othcontracep_ever</t>
-  </si>
-  <si>
-    <t>Verify: meno_status is 2 (pre-menopausal), not consistent with meno_age and meno_reason</t>
-  </si>
-  <si>
-    <t>Verify:  verify values of hrt_dur, hrtep_dur, hrteonly_dur with meno_status = 2 (pre-menopausal)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hrtuse is 0 (never user):  not consistent with hrt_dur, hrtep_dur, or hrteonly_dur </t>
-  </si>
-  <si>
-    <t>Verify:  hrtuse_ep is 0 (never user), not consistent with hrtep_dur</t>
-  </si>
-  <si>
-    <t>Verify: hrtep_dur = (666,777), not consistent with hrtuse_ep</t>
-  </si>
-  <si>
-    <t>hrtuse_eonly == 0</t>
-  </si>
-  <si>
-    <t>hrtuse_ep == 0</t>
-  </si>
-  <si>
-    <t>hrtuse is 0 (never user), not consistent with hrtuse_eponly</t>
-  </si>
-  <si>
-    <t>hrtuse is 0 (never user), not consistent with hrtuse_eonly</t>
-  </si>
-  <si>
-    <t>Verify: screen_start is outside range 16-90 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">screen_ever is 0, not consistent with lastscreen_year or screen_start </t>
-  </si>
-  <si>
-    <t>Verify: age_preg1 is outside range 12-58 years</t>
-  </si>
-  <si>
-    <t>Verify: age_preg2 is outside range 12-58 years</t>
-  </si>
-  <si>
-    <t>Verify: age_preg3 is outside range 12-58 years</t>
-  </si>
-  <si>
-    <t>Verify: age_preg4 is outside range 12-58 years</t>
-  </si>
-  <si>
-    <t>Verify: age_preg5 is outside range 12-58 years</t>
-  </si>
-  <si>
-    <t>Verify: age_preg6 is outside range 12-58 years</t>
-  </si>
-  <si>
-    <t>Verify: age_preg7 is otuside range 12-58 years</t>
-  </si>
-  <si>
-    <t>Verify: age_preg8 is outside range 12-58 years</t>
-  </si>
-  <si>
-    <t>Verify: age_preg9 is outside range 12-58 years</t>
-  </si>
-  <si>
-    <t>Verify: age_preg10 is outside range 12-58 years</t>
-  </si>
-  <si>
-    <t>parous == 1</t>
-  </si>
-  <si>
-    <t>Verify: breastfeed_dur_b1 is outside range 0-24 months</t>
-  </si>
-  <si>
-    <t>Verify: breastfeed_dur_b2 is outside range 0-24 months</t>
-  </si>
-  <si>
-    <t>Verify: breastfeed_dur_b3 is outside range 0-24 months</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b2 &gt;= 0 &amp; breastfeed_dur_b2 &lt;= 24</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b3 &gt;=0 &amp; breastfeed_dur_b3 &lt;= 24</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b4 &gt;= 0 &amp; breastfeed_dur_b4 &lt;= 24</t>
-  </si>
-  <si>
-    <t>Verify: breastfeed_dur_b4 is outside range 0-24 months</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b5 &gt;= 0 &amp; breastfeed_dur_b5 &lt;= 24</t>
-  </si>
-  <si>
-    <t>Verify: breastfeed_dur_b5 is outside range 0-24 months</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b6 &gt;= 0 &amp; breastfeed_dur_b6 &lt;= 24</t>
-  </si>
-  <si>
-    <t>Verify: breastfeed_dur_b6 is outside range 0-12 months</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b7 &gt;= 0 &amp; breastfeed_dur_b7 &lt;= 24</t>
-  </si>
-  <si>
-    <t>Verify: breastfeed_dur_b7 is outside range 0-12 months</t>
-  </si>
-  <si>
-    <t>Verify: breastfeed_dur_b8 is outside range 0-12 months</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b8 &gt;= 0 &amp; breastfeed_dur_b8 &lt;= 24</t>
-  </si>
-  <si>
-    <t>Verify: breastfeed_dur_b9 is outside range 0-12 months</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b9 &gt;= 0 &amp; breastfeed_dur_b9 &lt;= 24</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b10 &gt;= 0 &amp; breastfeed_dur_b10 &lt;= 24</t>
-  </si>
-  <si>
-    <t>Verify: breastfeed_dur_b10 is outside range 0-12 months</t>
-  </si>
-  <si>
-    <t>Verify: parous is 0, not consistent with age_preg1, parity, or breastfeed</t>
-  </si>
-  <si>
-    <t>Verify: parous is 888, not consistent with age_preg1, parity, or breastfeed</t>
-  </si>
-  <si>
-    <t>Verify: parous is not consistent with age_preg1, parity, or breastfeed</t>
-  </si>
-  <si>
-    <t>!parity %in% c(0,777, 888)</t>
-  </si>
-  <si>
-    <t>!breastfeed %in% c(777,888) &amp; !age_preg1 %in% c(777,888)</t>
-  </si>
-  <si>
-    <t>!alcohol_status %in% c(4, 777,888)</t>
-  </si>
-  <si>
-    <t>!smoking_status %in% c(4,777,888)</t>
-  </si>
-  <si>
-    <t>Verify: smoking_dur ≥ age - 7 years</t>
-  </si>
-  <si>
-    <t>!ocuse_ever %in% c(0,777,888)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">breastfeed_dur_b1 &gt;= 0 &amp; breastfeed_dur_b1 &lt;= 24 </t>
-  </si>
-  <si>
-    <t>alcohol_init &gt; 10 &amp; alcohol_init &lt;= 70 | alcohol_init ==888</t>
-  </si>
-  <si>
-    <t>alcohol_amt &gt; 0 &amp; alcohol_amt &lt;= 25 | alcohol_amt == 888</t>
-  </si>
-  <si>
-    <t>alcohol_stop &gt; 0 &amp; alcohol_stop &lt;= 100 | alcohol_stop ==888</t>
-  </si>
-  <si>
-    <t>alchol_dur &gt; 0 &amp; alchol_dur &lt;= 50 | alchol_dur == 888</t>
-  </si>
-  <si>
-    <t>smoking_init &gt; 0 &amp; smoking_init &lt;= 70 | smoking_init == 888</t>
-  </si>
-  <si>
-    <t>smoking_amt &gt; 0 &amp; smoking_amt &lt;= 60 | smoking_amt == 888</t>
-  </si>
-  <si>
-    <t>smoking_dur &gt;0 &amp; smoking_dur &lt;= 50 | smoking_dur ==888</t>
-  </si>
-  <si>
-    <t>ocuse_dur &gt; 0 &amp; ocuse_dur &lt;= 84 | ocuse_dur == 888</t>
-  </si>
-  <si>
-    <t>ocuse_start &gt;= 16 &amp; ocuse_start &lt;= 58 | ocuse_start == 888</t>
-  </si>
-  <si>
-    <t>ocuse_stop &gt; 0 &amp; ocuse_stop &lt;= 58 | ocuse_stop == 888</t>
-  </si>
-  <si>
-    <t>hrt_use</t>
-  </si>
-  <si>
-    <t>!hrt_use %in% c(0,888)</t>
-  </si>
-  <si>
-    <t>hrt_dur &gt; 0 &amp; hrt_dur &lt;= 24 | hrt_dur == 888</t>
-  </si>
-  <si>
-    <t>Verify: hrt_dur is outside range 0-24 months</t>
-  </si>
-  <si>
-    <t>Verify: hrtep_dur is outside range 0-24 months</t>
-  </si>
-  <si>
-    <t>Verify: hrteonly_dur is outside range 0-24 months</t>
-  </si>
-  <si>
-    <t>hrteonly_dur &gt; 0 &amp; hrteonly_dur &lt;= 24 | hrteonly_dur == 888</t>
-  </si>
-  <si>
-    <t>hrtep_dur &gt; 0 &amp; hrtep_dur &lt;= 24 | hrtep_dur == 888</t>
-  </si>
-  <si>
-    <t>screen_start &gt;= 16 &amp; screen_start &lt;= 90 | screen_start == 888</t>
-  </si>
-  <si>
-    <t>!screen_ever %in% c(0,888)</t>
-  </si>
-  <si>
-    <t>age_preg6 != 666 &amp; age_preg6 &gt; age_preg5 &amp; age_preg5 !=666 &amp; age_preg5 &gt; age_preg4 &amp; age_preg4 != 666 &amp; age_preg4 &gt; age_preg3 &amp; age_preg3 != 666 &amp; age_preg2 != 666 &amp; age_preg1 != 666 &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1</t>
-  </si>
-  <si>
-    <t>age_preg8 != 666 &amp; age_preg8 &gt; age_preg7 &amp; age_preg7 != 666 &amp; age_preg7 &gt; age_preg6 &amp; age_preg6 != 666 &amp; age_preg6 &gt; age_preg5 &amp; age_preg5 !=666 &amp; age_preg5 &gt; age_preg4 &amp; age_preg4 != 666 &amp; age_preg4 &gt; age_preg3 &amp; age_preg3 != 666 &amp; age_preg2 != 666 &amp; age_preg1 != 666 &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1</t>
-  </si>
-  <si>
-    <t>age_preg7 != 666 &amp; age_preg7 &gt; age_preg6 &amp; age_preg6 != 666 &amp; age_preg6 &gt; age_preg5 &amp; age_preg5 !=666 &amp; age_preg5 &gt; age_preg4 &amp; age_preg4 != 666 &amp; age_preg4 &gt; age_preg3 &amp; age_preg3 != 666 &amp; age_preg2 != 666 &amp; age_preg1 != 666 &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1</t>
-  </si>
-  <si>
-    <t>age_preg9 != 666 &amp; age_preg9 &gt; age_preg8 &amp;age_preg8 != 666 &amp; age_preg8 &gt; age_preg7 &amp; age_preg7 != 666 &amp; age_preg7 &gt; age_preg6 &amp; age_preg6 != 666 &amp; age_preg6 &gt; age_preg5 &amp; age_preg5 !=666 &amp; age_preg5 &gt; age_preg4 &amp; age_preg4 != 666 &amp; age_preg4 &gt; age_preg3 &amp; age_preg3 != 666 &amp; age_preg2 != 666 &amp; age_preg1 != 666 &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1</t>
-  </si>
-  <si>
-    <t>age_preg10 != 666 &amp; age_preg10 &gt; age_preg9 &amp; age_preg9 != 666 &amp; age_preg9 &gt; age_preg8 &amp;age_preg8 != 666 &amp; age_preg8 &gt; age_preg7 &amp; age_preg7 != 666 &amp; age_preg7 &gt; age_preg6 &amp; age_preg6 != 666 &amp; age_preg6 &gt; age_preg5 &amp; age_preg5 !=666 &amp; age_preg5 &gt; age_preg4 &amp; age_preg4 != 666 &amp; age_preg4 &gt; age_preg3 &amp; age_preg3 != 666 &amp; age_preg2 != 666 &amp; age_preg1 != 666 &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1</t>
-  </si>
-  <si>
-    <t>smoking_stop &gt; 0 &amp; smoking_stop &lt;= 100 | smoking_stop == 888 | smoking_stop == 666</t>
-  </si>
-  <si>
-    <t>parity &gt;= 1 &amp; !parity %in% c(777,888)</t>
-  </si>
-  <si>
-    <t>parity &gt;= 2 &amp; !parity %in% c(777,888)</t>
-  </si>
-  <si>
-    <t>parity &gt;= 3 &amp; !parity %in% c(777,888)</t>
-  </si>
-  <si>
-    <t>parity &gt;= 4 &amp; !parity %in% c(777,888)</t>
-  </si>
-  <si>
-    <t>parity &gt;= 5 &amp; !parity %in% c(777,888)</t>
-  </si>
-  <si>
-    <t>parity &gt;= 6 &amp; !parity %in% c(777,888)'</t>
-  </si>
-  <si>
-    <t>parity &gt;= 7 &amp; !parity %in% c(777,888)</t>
-  </si>
-  <si>
-    <t>parity &gt;= 8 &amp; !parity %in% c(777,888)</t>
-  </si>
-  <si>
-    <t>parity &gt;=9 &amp; !parity %in% c(777,888)</t>
-  </si>
-  <si>
-    <t>parity &gt;= 10 &amp; !parity %in% c(777,888)</t>
-  </si>
-  <si>
-    <t>parity &gt;= 2 &amp; parity != 888</t>
-  </si>
-  <si>
-    <t>parity &gt;=3 &amp; parity != 888</t>
-  </si>
-  <si>
-    <t>parity &gt;=4 &amp; parity != 888</t>
-  </si>
-  <si>
-    <t>parity &gt;=5 &amp; parity != 888</t>
-  </si>
-  <si>
-    <t>parity &gt;=6 &amp; parity != 888</t>
-  </si>
-  <si>
-    <t>parity &gt;=7 &amp; parity != 888</t>
-  </si>
-  <si>
-    <t>parity &gt;=8 &amp; parity != 888</t>
-  </si>
-  <si>
-    <t>parity &gt;=9 &amp; parity != 888</t>
-  </si>
-  <si>
-    <t>parity &gt;=10 &amp; parity != 888</t>
+    <t>age_preg2,age_preg1</t>
+  </si>
+  <si>
+    <t>!hrtuse %in% c(0,888)</t>
+  </si>
+  <si>
+    <t>alcohol_dur &gt; 0 &amp; alcohol_dur &lt;= 50 | alcohol_dur == 888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alcohol_status is 1 (current drinker), alcohol_stop expected to be 666 </t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b1 &gt;= 0 &amp; breastfeed_dur_b1 &lt;= 24 | breastfeed_dur_b1 == 888</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b2 &gt;= 0 &amp; breastfeed_dur_b2 &lt;= 24 | breastfeed_dur_b2 == 888</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b3 &gt;=0 &amp; breastfeed_dur_b3 &lt;= 24 | breastfeed_dur_b3 == 888</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b4 &gt;= 0 &amp; breastfeed_dur_b4 &lt;= 24| breastfeed_dur_b4 == 888</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b5 &gt;= 0 &amp; breastfeed_dur_b5 &lt;= 24 | breastfeed_dur_b5 == 888</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b6 &gt;= 0 &amp; breastfeed_dur_b6 &lt;= 24 | breastfeed_dur_b6 == 888</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b7 &gt;= 0 &amp; breastfeed_dur_b7 &lt;= 24 | | breastfeed_dur_b7 == 888</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b8 &gt;= 0 &amp; breastfeed_dur_b8 &lt;= 24 | breastfeed_dur_b8 == 888</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b9 &gt;= 0 &amp; breastfeed_dur_b9 &lt;= 24 | breastfeed_dur_b9 == 888</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b10 &gt;= 0 &amp; breastfeed_dur_b10 &lt;= 24 | breastfeed_dur_b10 == 888</t>
+  </si>
+  <si>
+    <t>age_preg2 != 666 &amp; age_preg1 != 666 &amp;  age_preg2 &gt; age_preg1 |age_preg1 == 888 | age_preg2 == 888</t>
+  </si>
+  <si>
+    <t>!age_preg3 %in% c(666) | !age_preg2 %in% c(666) !age_preg1 %in% c(666) &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1| age_preg3 == 888 | age_preg_2 == 888 | age_preg1 == 888</t>
+  </si>
+  <si>
+    <t>!age_preg4 %in% c(666) &amp; age_preg4 &gt; age_preg3 &amp; !age_preg3 %in% c(666) &amp; !age_preg2 %in% c(666) &amp; !age_preg1 %in% c(666) &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1 | age_preg4 == 888 | age_preg3 == 888 | age_preg2 == 888 | age_preg1 == 888</t>
+  </si>
+  <si>
+    <t>!age_preg5 %in% c(666) &amp; age_preg5 &gt; age_preg4 &amp; !age_preg4 %in% c(666) &amp; age_preg4 &gt; age_preg3 &amp; !age_preg3 %in% c(666) &amp; !age_preg2 %in% c(666) &amp; !age_preg1 %in% c(666) &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1 | age_preg_5 == 888| age_preg4 == 888 | age_preg3 == 888 | age_preg2 == 888 | age_preg1 == 888</t>
+  </si>
+  <si>
+    <t>!age_preg6 %in% c(666) &amp; age_preg6 &gt; age_preg5 &amp; !age_preg5 %in% c(666)&amp; age_preg5 &gt; age_preg4 &amp; !age_preg4 %in% c(666) &amp; age_preg4 &gt; age_preg3 &amp; !age_preg3 %in% c(666)&amp; !age_preg2 %in% c(666) &amp; !age_preg1 %in% c(666) &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1 | age_preg6 == 888 | age_preg5 == 888 | age_preg4 == 888 | age_preg3 == 888 | age_preg2 == 888 | age_preg1 == 888</t>
+  </si>
+  <si>
+    <t>!age_preg7 %in% c(666) &amp; age_preg7 &gt; age_preg6 &amp; !age_preg6 %in% c(666) &amp; age_preg6 &gt; age_preg5 &amp; !age_preg5 %in% c(666) &amp; age_preg5 &gt; age_preg4 &amp; !age_preg4  %in% c(666) &amp; age_preg4 &gt; age_preg3 &amp; !age_preg3 %in% c(666) &amp; !age_preg2 %in% c(666) &amp; !age_preg1 %in% c(666) &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1| age_preg7 == 888 | age_preg6 == 888 | age_preg5 == 888 | age_preg4 == 888 | age_preg3 == 888 | age_preg2 == 888 |age_preg1 == 888</t>
+  </si>
+  <si>
+    <t>!age_preg8 %in% c(666) &amp; age_preg8 &gt; age_preg7 &amp; !age_preg7 %in% c(666) &amp; age_preg7 &gt; age_preg6 &amp; !age_preg6 %in% c(666) &amp; age_preg6 &gt; age_preg5 &amp; !age_preg5 %in% c(666)  &amp; age_preg5 &gt; age_preg4 &amp; !age_preg4 %in% c(666) &amp; age_preg4 &gt; age_preg3 &amp; !age_preg3 %in% c(666) &amp; !age_preg2 %in% c(666) &amp; !age_preg1 %in% c(666) &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1 | age_preg8 == 888 | age_preg7 == 888 | age_preg6 == 888 | age_preg5 == 888 | age_preg4 == 888 | age_preg3 == 888 | age_preg2 == 888 |age_preg1 == 888</t>
+  </si>
+  <si>
+    <t>!age_preg9 %in% c(666) &amp; age_preg9 &gt; age_preg8 &amp; !age_preg8 %in% c(666) &amp; age_preg8 &gt; age_preg7 &amp; !age_preg7 %in% c(666) &amp; age_preg7 &gt; age_preg6 &amp; !age_preg6 %in% c(666) &amp; age_preg6 &gt; age_preg5 &amp; !age_preg5 %in% c(666) &amp; age_preg5 &gt; age_preg4 &amp; !age_preg4 %in% c(666) &amp; age_preg4 &gt; age_preg3 &amp; !age_preg3 %in% c(666) &amp; !age_preg2 %in% c(666) &amp; !age_preg1 %in% c(666) &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1 | age_preg9 == 888 | age_preg8 == 888 | age_preg7 == 888 | age_preg6 == 888 | age_preg5 == 888 | age_preg4 == 888 | age_preg3 == 888 | age_preg2 == 888 | age_preg1 == 888</t>
+  </si>
+  <si>
+    <t>!age_preg10 %in% c(666) &amp; age_preg10 &gt; age_preg9 &amp; !age_preg9 %in% c(666) &amp; age_preg9 &gt; age_preg8 &amp; !age_preg8 %in% c(666)&amp; age_preg8 &gt; age_preg7 &amp; !age_preg7 %in% c(666)&amp; age_preg7 &gt; age_preg6 &amp; !age_preg6 %in% c(666) &amp; age_preg6 &gt; age_preg5 &amp; !age_preg5 %in% c(666) &amp; age_preg5 &gt; age_preg4 &amp; !age_preg4 %in% c(666) &amp; age_preg4 &gt; age_preg3 &amp; !age_preg3 %in% c(666) &amp; !age_preg2 %in% c(666) &amp; !age_preg1 %in% c(666) &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1 | age_preg10 == 888 | age_preg9 == 888 | age_preg8 == 888 | age_preg7 == 888 | age_preg7 == 888 | age_preg6 == 888 | age_preg5 == 888 | age_preg4 == 888 | age_preg3 == 888 | age_preg2 == 888 | age_preg1 == 888</t>
+  </si>
+  <si>
+    <t>parity &gt;= 2 &amp; parity != 888 &amp; parity != 777</t>
+  </si>
+  <si>
+    <t>parity &gt;=3 &amp; parity != 888 &amp; parity != 777</t>
+  </si>
+  <si>
+    <t>parity &gt;=4 &amp; parity != 888 &amp; parity != 777</t>
+  </si>
+  <si>
+    <t>parity &gt;=5 &amp; parity != 888 &amp; parity != 777</t>
+  </si>
+  <si>
+    <t>parity &gt;=6 &amp; parity != 888 &amp; parity != 777</t>
+  </si>
+  <si>
+    <t>parity &gt;=7 &amp; parity != 888 &amp; parity != 777</t>
+  </si>
+  <si>
+    <t>parity &gt;=8 &amp; parity != 888 &amp; parity != 777</t>
+  </si>
+  <si>
+    <t>parity &gt;=9 &amp; parity != 888 &amp; parity != 777</t>
+  </si>
+  <si>
+    <t>parity &gt;=10 &amp; parity != 888 &amp; parity != 777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parity &gt;= 1 &amp; parity != 888  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">parity &gt;= 2   &amp; parity != 888  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">parity &gt;= 3  &amp; parity != 888  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">parity &gt;= 4  &amp; parity != 888  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">parity &gt;= 5  &amp; parity != 888  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">parity &gt;= 6  &amp; parity != 888  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">parity &gt;= 7  &amp; parity != 888  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">parity &gt;= 8  &amp; parity != 888  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">parity &gt;=9  &amp; parity != 888  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">parity &gt;= 10  &amp; parity != 888  </t>
   </si>
 </sst>
 </file>
@@ -1391,8 +1391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D35" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1591,7 +1591,7 @@
         <v>29</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>183</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -1605,19 +1605,19 @@
         <v>29</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>184</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -1640,29 +1640,29 @@
         <v>29</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>185</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>34</v>
@@ -1674,32 +1674,32 @@
         <v>2010</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>186</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>34</v>
@@ -1711,32 +1711,32 @@
         <v>100</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>187</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>30</v>
@@ -1745,32 +1745,32 @@
         <v>31</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
@@ -1779,15 +1779,15 @@
         <v>31</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>34</v>
@@ -1799,15 +1799,15 @@
         <v>16</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>188</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>34</v>
@@ -1819,15 +1819,15 @@
         <v>200</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>189</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>34</v>
@@ -1839,15 +1839,15 @@
         <v>50</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>190</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>34</v>
@@ -1859,15 +1859,15 @@
         <v>150</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>191</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>34</v>
@@ -1879,15 +1879,15 @@
         <v>50</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>192</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>34</v>
@@ -1899,15 +1899,15 @@
         <v>160</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>193</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>34</v>
@@ -1919,15 +1919,15 @@
         <v>160</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>194</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>34</v>
@@ -1939,15 +1939,15 @@
         <v>1.2</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>195</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>34</v>
@@ -1959,15 +1959,15 @@
         <v>58</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>244</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>34</v>
@@ -1979,15 +1979,15 @@
         <v>58</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>245</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>34</v>
@@ -1999,15 +1999,15 @@
         <v>58</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>246</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>34</v>
@@ -2019,15 +2019,15 @@
         <v>58</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>247</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>34</v>
@@ -2039,15 +2039,15 @@
         <v>58</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>248</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>34</v>
@@ -2059,15 +2059,15 @@
         <v>58</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>249</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>34</v>
@@ -2079,15 +2079,15 @@
         <v>58</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>250</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>34</v>
@@ -2099,15 +2099,15 @@
         <v>58</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>251</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>34</v>
@@ -2119,15 +2119,15 @@
         <v>58</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>252</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>34</v>
@@ -2139,252 +2139,252 @@
         <v>58</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>253</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>169</v>
+        <v>286</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>204</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>172</v>
+        <v>301</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>196</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>174</v>
+        <v>302</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>197</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>177</v>
+        <v>303</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>198</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>304</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>199</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>200</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>201</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>180</v>
+        <v>113</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>307</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>202</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>308</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>203</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C44" s="2">
         <v>0</v>
@@ -2393,36 +2393,36 @@
         <v>24</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>254</v>
+        <v>121</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>255</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
@@ -2431,36 +2431,36 @@
         <v>24</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>254</v>
+        <v>121</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>256</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
@@ -2469,36 +2469,36 @@
         <v>24</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>254</v>
+        <v>121</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>257</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -2507,36 +2507,36 @@
         <v>24</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>254</v>
+        <v>121</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>261</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
@@ -2545,36 +2545,36 @@
         <v>24</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>254</v>
+        <v>121</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>263</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
@@ -2583,36 +2583,36 @@
         <v>24</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>254</v>
+        <v>121</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>265</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
@@ -2621,36 +2621,36 @@
         <v>24</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>254</v>
+        <v>121</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>267</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
@@ -2659,36 +2659,36 @@
         <v>24</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>254</v>
+        <v>121</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
@@ -2697,36 +2697,36 @@
         <v>24</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>254</v>
+        <v>121</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>270</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
@@ -2735,160 +2735,160 @@
         <v>24</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>254</v>
+        <v>121</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>273</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="E55" s="2">
         <v>4</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="J55" s="2">
         <v>777</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="M55" s="2">
         <v>777</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="P55" s="2">
         <v>777</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="E56" s="2">
         <v>1</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="J56" s="2">
         <v>666</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>284</v>
+        <v>150</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>279</v>
+        <v>151</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>207</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="S58" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="T58" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="S58" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="T58" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>37</v>
@@ -2897,270 +2897,276 @@
         <v>777</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>208</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>285</v>
+        <v>160</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>279</v>
+        <v>151</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>286</v>
+        <v>162</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>279</v>
+        <v>151</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>279</v>
+        <v>151</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>288</v>
+        <v>167</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>280</v>
+        <v>169</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>289</v>
+        <v>172</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>280</v>
+        <v>169</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>309</v>
+        <v>175</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>280</v>
+        <v>169</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>290</v>
+        <v>178</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>280</v>
+        <v>169</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>82</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="H67" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I67" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="I67" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="J67" s="2" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="E68" s="2">
         <v>4</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>84</v>
+        <v>186</v>
       </c>
       <c r="J68" s="2">
         <v>777</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="M68" s="2">
         <v>777</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="P68" s="2">
         <v>777</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>37</v>
@@ -3169,157 +3175,157 @@
         <v>1</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="J69" s="2">
         <v>666</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>280</v>
+        <v>169</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>281</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>86</v>
+        <v>194</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>87</v>
+        <v>195</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>86</v>
+        <v>194</v>
       </c>
       <c r="J71" s="2">
         <v>1</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>87</v>
+        <v>195</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>86</v>
+        <v>194</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>87</v>
+        <v>195</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>89</v>
+        <v>198</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>86</v>
+        <v>194</v>
       </c>
       <c r="J72" s="2">
         <v>0</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>87</v>
+        <v>195</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>86</v>
+        <v>194</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>87</v>
+        <v>195</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>86</v>
+        <v>194</v>
       </c>
       <c r="J73" s="2">
         <v>888</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>87</v>
+        <v>195</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>92</v>
+        <v>203</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>93</v>
+        <v>204</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="J74" s="2">
         <v>1</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>92</v>
+        <v>203</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>37</v>
@@ -3328,21 +3334,21 @@
         <v>0</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>92</v>
+        <v>203</v>
       </c>
       <c r="J75" s="2">
         <v>0</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>92</v>
+        <v>203</v>
       </c>
       <c r="T75" s="2" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>37</v>
@@ -3351,123 +3357,123 @@
         <v>888</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>92</v>
+        <v>203</v>
       </c>
       <c r="J76" s="2">
         <v>888</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>92</v>
+        <v>203</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="E77" s="2">
         <v>0</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="J77" s="2">
         <v>777</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="M77" s="2">
         <v>777</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>97</v>
+        <v>208</v>
       </c>
       <c r="P77" s="2">
         <v>777</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="T77" s="2" t="s">
-        <v>274</v>
+        <v>209</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="E78" s="2">
         <v>888</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="J78" s="2">
         <v>888</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="M78" s="2">
         <v>888</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>97</v>
+        <v>208</v>
       </c>
       <c r="P78" s="2">
         <v>888</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="T78" s="2" t="s">
-        <v>275</v>
+        <v>210</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>254</v>
+        <v>121</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>277</v>
+        <v>211</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>97</v>
+        <v>208</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>278</v>
+        <v>212</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>276</v>
+        <v>213</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>37</v>
@@ -3476,21 +3482,21 @@
         <v>0</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>96</v>
+        <v>214</v>
       </c>
       <c r="J80" s="2">
         <v>777</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="T80" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>97</v>
+        <v>208</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>37</v>
@@ -3499,21 +3505,21 @@
         <v>0</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>96</v>
+        <v>214</v>
       </c>
       <c r="J81" s="2">
         <v>666</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>97</v>
+        <v>208</v>
       </c>
       <c r="T81" s="2" t="s">
-        <v>98</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>96</v>
+        <v>214</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>34</v>
@@ -3525,15 +3531,15 @@
         <v>84</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>96</v>
+        <v>214</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>96</v>
+        <v>214</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>37</v>
@@ -3542,65 +3548,65 @@
         <v>666</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>99</v>
+        <v>218</v>
       </c>
       <c r="J83" s="2">
         <v>0</v>
       </c>
       <c r="S83" s="2" t="s">
-        <v>97</v>
+        <v>208</v>
       </c>
       <c r="T83" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>291</v>
+        <v>221</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>104</v>
+        <v>222</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>282</v>
+        <v>223</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="T84" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>101</v>
+        <v>225</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>101</v>
+        <v>225</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>292</v>
+        <v>226</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>104</v>
+        <v>222</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>282</v>
+        <v>223</v>
       </c>
       <c r="S85" s="2" t="s">
-        <v>101</v>
+        <v>225</v>
       </c>
       <c r="T85" s="2" t="s">
         <v>227</v>
@@ -3608,68 +3614,68 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>102</v>
+        <v>228</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>102</v>
+        <v>228</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>293</v>
+        <v>229</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>104</v>
+        <v>222</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>282</v>
+        <v>223</v>
       </c>
       <c r="S86" s="2" t="s">
-        <v>102</v>
+        <v>228</v>
       </c>
       <c r="T86" s="2" t="s">
-        <v>103</v>
+        <v>230</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>104</v>
+        <v>222</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="E87" s="2">
         <v>0</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="J87" s="2">
         <v>777</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>101</v>
+        <v>225</v>
       </c>
       <c r="M87" s="2">
         <v>777</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>102</v>
+        <v>228</v>
       </c>
       <c r="P87" s="2">
         <v>777</v>
       </c>
       <c r="S87" s="2" t="s">
-        <v>104</v>
+        <v>222</v>
       </c>
       <c r="T87" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>105</v>
+        <v>232</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>37</v>
@@ -3678,21 +3684,21 @@
         <v>1</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>102</v>
+        <v>228</v>
       </c>
       <c r="J88" s="2">
         <v>666</v>
       </c>
       <c r="S88" s="2" t="s">
-        <v>105</v>
+        <v>232</v>
       </c>
       <c r="T88" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>102</v>
+        <v>228</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>37</v>
@@ -3701,21 +3707,21 @@
         <v>666</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>105</v>
+        <v>232</v>
       </c>
       <c r="J89" s="2">
         <v>1</v>
       </c>
       <c r="S89" s="2" t="s">
-        <v>105</v>
+        <v>232</v>
       </c>
       <c r="T89" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>106</v>
+        <v>235</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>37</v>
@@ -3724,224 +3730,224 @@
         <v>1</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>107</v>
+        <v>236</v>
       </c>
       <c r="J90" s="2">
         <v>1</v>
       </c>
       <c r="S90" s="2" t="s">
-        <v>107</v>
+        <v>236</v>
       </c>
       <c r="T90" s="2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>106</v>
+        <v>235</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>107</v>
+        <v>236</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>108</v>
+        <v>238</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>106</v>
+        <v>235</v>
       </c>
       <c r="J91" s="2">
         <v>888</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>107</v>
+        <v>236</v>
       </c>
       <c r="T91" s="2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>109</v>
+        <v>240</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="E92" s="2">
         <v>2</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>110</v>
+        <v>241</v>
       </c>
       <c r="J92" s="2">
         <v>777</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>111</v>
+        <v>242</v>
       </c>
       <c r="M92" s="2">
         <v>777</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>109</v>
+        <v>240</v>
       </c>
       <c r="T92" s="2" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>109</v>
+        <v>240</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="E93" s="2">
         <v>2</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>112</v>
+        <v>244</v>
       </c>
       <c r="J93" s="2">
         <v>666</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>113</v>
+        <v>245</v>
       </c>
       <c r="M93" s="2">
         <v>666</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="P93" s="2">
         <v>666</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>109</v>
+        <v>240</v>
       </c>
       <c r="T93" s="2" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>112</v>
+        <v>244</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>112</v>
+        <v>244</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="S94" s="2" t="s">
-        <v>112</v>
+        <v>244</v>
       </c>
       <c r="T94" s="2" t="s">
-        <v>297</v>
+        <v>249</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>113</v>
+        <v>245</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>113</v>
+        <v>245</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>301</v>
+        <v>250</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>113</v>
+        <v>245</v>
       </c>
       <c r="T95" s="2" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>300</v>
+        <v>252</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="S96" s="2" t="s">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="T96" s="2" t="s">
-        <v>299</v>
+        <v>253</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>115</v>
+        <v>254</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="E97" s="2">
         <v>0</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>112</v>
+        <v>244</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>153</v>
+        <v>255</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>113</v>
+        <v>245</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>153</v>
+        <v>255</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>153</v>
+        <v>255</v>
       </c>
       <c r="S97" s="2" t="s">
-        <v>115</v>
+        <v>254</v>
       </c>
       <c r="T97" s="2" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>116</v>
+        <v>257</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>37</v>
@@ -3950,44 +3956,44 @@
         <v>0</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>113</v>
+        <v>245</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>153</v>
+        <v>255</v>
       </c>
       <c r="S98" s="2" t="s">
-        <v>113</v>
+        <v>245</v>
       </c>
       <c r="T98" s="2" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>113</v>
+        <v>245</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>153</v>
+        <v>255</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>116</v>
+        <v>257</v>
       </c>
       <c r="J99" s="2">
         <v>0</v>
       </c>
       <c r="S99" s="2" t="s">
-        <v>113</v>
+        <v>245</v>
       </c>
       <c r="T99" s="2" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>117</v>
+        <v>260</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>37</v>
@@ -3996,215 +4002,215 @@
         <v>0</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>153</v>
+        <v>255</v>
       </c>
       <c r="S100" s="2" t="s">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="T100" s="2" t="s">
-        <v>154</v>
+        <v>261</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>153</v>
+        <v>255</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>117</v>
+        <v>260</v>
       </c>
       <c r="J101" s="2">
         <v>0</v>
       </c>
       <c r="S101" s="2" t="s">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="T101" s="2" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>115</v>
+        <v>254</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>115</v>
+        <v>254</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>119</v>
+        <v>263</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>116</v>
+        <v>257</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>120</v>
+        <v>264</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>117</v>
+        <v>260</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>121</v>
+        <v>265</v>
       </c>
       <c r="S102" s="2" t="s">
-        <v>115</v>
+        <v>254</v>
       </c>
       <c r="T102" s="2" t="s">
-        <v>122</v>
+        <v>266</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>115</v>
+        <v>254</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>115</v>
+        <v>254</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>123</v>
+        <v>267</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>116</v>
+        <v>257</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>124</v>
+        <v>268</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>117</v>
+        <v>260</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>125</v>
+        <v>269</v>
       </c>
       <c r="S103" s="2" t="s">
-        <v>115</v>
+        <v>254</v>
       </c>
       <c r="T103" s="2" t="s">
-        <v>126</v>
+        <v>270</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>115</v>
+        <v>254</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>116</v>
+        <v>257</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>115</v>
+        <v>254</v>
       </c>
       <c r="J104" s="2">
         <v>0</v>
       </c>
       <c r="S104" s="2" t="s">
-        <v>115</v>
+        <v>254</v>
       </c>
       <c r="T104" s="2" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>115</v>
+        <v>254</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>117</v>
+        <v>260</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>115</v>
+        <v>254</v>
       </c>
       <c r="J105" s="2">
         <v>0</v>
       </c>
       <c r="S105" s="2" t="s">
-        <v>115</v>
+        <v>254</v>
       </c>
       <c r="T105" s="2" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>127</v>
+        <v>275</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>127</v>
+        <v>275</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>128</v>
+        <v>277</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="S106" s="2" t="s">
-        <v>127</v>
+        <v>275</v>
       </c>
       <c r="T106" s="2" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>128</v>
+        <v>277</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="E107" s="2">
         <v>0</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>127</v>
+        <v>275</v>
       </c>
       <c r="J107" s="2">
         <v>777</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>129</v>
+        <v>280</v>
       </c>
       <c r="M107" s="2">
         <v>777</v>
       </c>
       <c r="S107" s="2" t="s">
-        <v>128</v>
+        <v>277</v>
       </c>
       <c r="T107" s="2" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>34</v>
@@ -4216,15 +4222,15 @@
         <v>30</v>
       </c>
       <c r="S108" s="2" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c r="T108" s="2" t="s">
-        <v>131</v>
+        <v>283</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>132</v>
+        <v>284</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>34</v>
@@ -4236,13 +4242,14 @@
         <v>100</v>
       </c>
       <c r="S109" s="2" t="s">
-        <v>132</v>
+        <v>284</v>
       </c>
       <c r="T109" s="2" t="s">
-        <v>133</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T109" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/BCRPP_QC_R_Excel_Program/Core QC Rules/BCRPP Warning Rules.xlsx
+++ b/BCRPP_QC_R_Excel_Program/Core QC Rules/BCRPP Warning Rules.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27609"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4599F067-48F8-8049-8D2B-4C4789DA5EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{4599F067-48F8-8049-8D2B-4C4789DA5EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CE92DCE-B18E-4D79-A379-AFB536224B21}"/>
   <bookViews>
     <workbookView xWindow="-51200" yWindow="500" windowWidth="51200" windowHeight="26600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,9 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -164,12 +167,12 @@
     <t>qcycle is 888, please check value of baseline</t>
   </si>
   <si>
+    <t>lastfollowup</t>
+  </si>
+  <si>
     <t>0, 1</t>
   </si>
   <si>
-    <t>lastfollowup</t>
-  </si>
-  <si>
     <t>lastfollowup does not have recognized values</t>
   </si>
   <si>
@@ -335,57 +338,114 @@
     <t>parity</t>
   </si>
   <si>
+    <t>age_preg2,age_preg1</t>
+  </si>
+  <si>
+    <t>age_preg2 != 666 &amp; age_preg1 != 666 &amp;  age_preg2 &gt; age_preg1 |age_preg1 == 888 | age_preg2 == 888</t>
+  </si>
+  <si>
+    <t>parity &gt;= 2 &amp; parity != 888 &amp; parity != 777</t>
+  </si>
+  <si>
     <t>parity ≥ 2, ages of pregnancy variables not consistent</t>
   </si>
   <si>
     <t>age_preg3,age_preg2,age_preg1</t>
   </si>
   <si>
+    <t>!age_preg3 %in% c(666) &amp; !age_preg2 %in% c(666) &amp; !age_preg1 %in% c(666) &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1| age_preg3 == 888 | age_preg2 == 888 | age_preg1 == 888</t>
+  </si>
+  <si>
+    <t>parity &gt;=3 &amp; parity != 888 &amp; parity != 777</t>
+  </si>
+  <si>
     <t>parity ≥ 3, ages of pregnancy variables not consistent</t>
   </si>
   <si>
     <t>age_preg4,age_preg3,age_preg2,age_preg1</t>
   </si>
   <si>
+    <t>!age_preg4 %in% c(666) &amp; age_preg4 &gt; age_preg3 &amp; !age_preg3 %in% c(666) &amp; !age_preg2 %in% c(666) &amp; !age_preg1 %in% c(666) &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1 | age_preg4 == 888 | age_preg3 == 888 | age_preg2 == 888 | age_preg1 == 888</t>
+  </si>
+  <si>
+    <t>parity &gt;=4 &amp; parity != 888 &amp; parity != 777</t>
+  </si>
+  <si>
     <t>parity ≥ 4, ages of pregnancy variables not consistent</t>
   </si>
   <si>
     <t>age_preg5,age_preg4,age_preg3,age_preg2,age_preg1</t>
   </si>
   <si>
+    <t>!age_preg5 %in% c(666) &amp; age_preg5 &gt; age_preg4 &amp; !age_preg4 %in% c(666) &amp; age_preg4 &gt; age_preg3 &amp; !age_preg3 %in% c(666) &amp; !age_preg2 %in% c(666) &amp; !age_preg1 %in% c(666) &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1 | age_preg5 == 888| age_preg4 == 888 | age_preg3 == 888 | age_preg2 == 888 | age_preg1 == 888</t>
+  </si>
+  <si>
+    <t>parity &gt;=5 &amp; parity != 888 &amp; parity != 777</t>
+  </si>
+  <si>
     <t>parity ≥ 5, ages of pregnancy variables not consistent</t>
   </si>
   <si>
     <t>age_preg6,age_preg5,age_preg4,age_preg3,age_preg2,age_preg1</t>
   </si>
   <si>
+    <t>!age_preg6 %in% c(666) &amp; age_preg6 &gt; age_preg5 &amp; !age_preg5 %in% c(666)&amp; age_preg5 &gt; age_preg4 &amp; !age_preg4 %in% c(666) &amp; age_preg4 &gt; age_preg3 &amp; !age_preg3 %in% c(666)&amp; !age_preg2 %in% c(666) &amp; !age_preg1 %in% c(666) &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1 | age_preg6 == 888 | age_preg5 == 888 | age_preg4 == 888 | age_preg3 == 888 | age_preg2 == 888 | age_preg1 == 888</t>
+  </si>
+  <si>
+    <t>parity &gt;=6 &amp; parity != 888 &amp; parity != 777</t>
+  </si>
+  <si>
     <t>parity ≥ 6, ages of pregnancy variables not consistent</t>
   </si>
   <si>
     <t>age_preg7,age_preg6,age_preg5,age_preg4,age_preg3,age_preg2,age_preg1</t>
   </si>
   <si>
+    <t>!age_preg7 %in% c(666) &amp; age_preg7 &gt; age_preg6 &amp; !age_preg6 %in% c(666) &amp; age_preg6 &gt; age_preg5 &amp; !age_preg5 %in% c(666) &amp; age_preg5 &gt; age_preg4 &amp; !age_preg4  %in% c(666) &amp; age_preg4 &gt; age_preg3 &amp; !age_preg3 %in% c(666) &amp; !age_preg2 %in% c(666) &amp; !age_preg1 %in% c(666) &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1| age_preg7 == 888 | age_preg6 == 888 | age_preg5 == 888 | age_preg4 == 888 | age_preg3 == 888 | age_preg2 == 888 |age_preg1 == 888</t>
+  </si>
+  <si>
+    <t>parity &gt;=7 &amp; parity != 888 &amp; parity != 777</t>
+  </si>
+  <si>
     <t>parity ≥ 7, ages of pregnancy variables not consistent</t>
   </si>
   <si>
     <t>age_preg8,age_preg7,age_preg6,age_preg5,age_preg4,age_preg3,age_preg2,age_preg1</t>
   </si>
   <si>
+    <t>!age_preg8 %in% c(666) &amp; age_preg8 &gt; age_preg7 &amp; !age_preg7 %in% c(666) &amp; age_preg7 &gt; age_preg6 &amp; !age_preg6 %in% c(666) &amp; age_preg6 &gt; age_preg5 &amp; !age_preg5 %in% c(666)  &amp; age_preg5 &gt; age_preg4 &amp; !age_preg4 %in% c(666) &amp; age_preg4 &gt; age_preg3 &amp; !age_preg3 %in% c(666) &amp; !age_preg2 %in% c(666) &amp; !age_preg1 %in% c(666) &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1 | age_preg8 == 888 | age_preg7 == 888 | age_preg6 == 888 | age_preg5 == 888 | age_preg4 == 888 | age_preg3 == 888 | age_preg2 == 888 |age_preg1 == 888</t>
+  </si>
+  <si>
+    <t>parity &gt;=8 &amp; parity != 888 &amp; parity != 777</t>
+  </si>
+  <si>
     <t>parity ≥ 8, ages of pregnancy variables not consistent</t>
   </si>
   <si>
     <t>age_preg9,age_preg8,age_preg7,age_preg6,age_preg5,age_preg4,age_preg3,age_preg2,age_preg1</t>
   </si>
   <si>
+    <t>!age_preg9 %in% c(666) &amp; age_preg9 &gt; age_preg8 &amp; !age_preg8 %in% c(666) &amp; age_preg8 &gt; age_preg7 &amp; !age_preg7 %in% c(666) &amp; age_preg7 &gt; age_preg6 &amp; !age_preg6 %in% c(666) &amp; age_preg6 &gt; age_preg5 &amp; !age_preg5 %in% c(666) &amp; age_preg5 &gt; age_preg4 &amp; !age_preg4 %in% c(666) &amp; age_preg4 &gt; age_preg3 &amp; !age_preg3 %in% c(666) &amp; !age_preg2 %in% c(666) &amp; !age_preg1 %in% c(666) &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1 | age_preg9 == 888 | age_preg8 == 888 | age_preg7 == 888 | age_preg6 == 888 | age_preg5 == 888 | age_preg4 == 888 | age_preg3 == 888 | age_preg2 == 888 | age_preg1 == 888</t>
+  </si>
+  <si>
     <t xml:space="preserve">parity </t>
   </si>
   <si>
+    <t>parity &gt;=9 &amp; parity != 888 &amp; parity != 777</t>
+  </si>
+  <si>
     <t>parity ≥ 9, ages of pregnancy variables not consistent</t>
   </si>
   <si>
     <t>age_preg10,age_preg9,age_preg8,age_preg7,age_preg6,age_preg5,age_preg4,age_preg3,age_preg2,age_preg1</t>
   </si>
   <si>
+    <t>!age_preg10 %in% c(666) &amp; age_preg10 &gt; age_preg9 &amp; !age_preg9 %in% c(666) &amp; age_preg9 &gt; age_preg8 &amp; !age_preg8 %in% c(666)&amp; age_preg8 &gt; age_preg7 &amp; !age_preg7 %in% c(666)&amp; age_preg7 &gt; age_preg6 &amp; !age_preg6 %in% c(666) &amp; age_preg6 &gt; age_preg5 &amp; !age_preg5 %in% c(666) &amp; age_preg5 &gt; age_preg4 &amp; !age_preg4 %in% c(666) &amp; age_preg4 &gt; age_preg3 &amp; !age_preg3 %in% c(666) &amp; !age_preg2 %in% c(666) &amp; !age_preg1 %in% c(666) &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1 | age_preg10 == 888 | age_preg9 == 888 | age_preg8 == 888 | age_preg7 == 888 | age_preg7 == 888 | age_preg6 == 888 | age_preg5 == 888 | age_preg4 == 888 | age_preg3 == 888 | age_preg2 == 888 | age_preg1 == 888</t>
+  </si>
+  <si>
+    <t>parity &gt;=10 &amp; parity != 888 &amp; parity != 777</t>
+  </si>
+  <si>
     <t>parity ≥ 10, ages of pregnancy variables not consistent</t>
   </si>
   <si>
@@ -395,66 +455,126 @@
     <t>crossrange2.warnings</t>
   </si>
   <si>
+    <t>breastfeed_dur_b1 &gt;= 0 &amp; breastfeed_dur_b1 &lt;= 24 | breastfeed_dur_b1 == 888</t>
+  </si>
+  <si>
     <t>parous</t>
   </si>
   <si>
     <t>parous == 1</t>
   </si>
   <si>
+    <t xml:space="preserve">parity &gt;= 1 &amp; parity != 888  </t>
+  </si>
+  <si>
     <t>Verify: breastfeed_dur_b1 is outside range 0-24 months</t>
   </si>
   <si>
     <t>breastfeed_dur_b2</t>
   </si>
   <si>
+    <t>breastfeed_dur_b2 &gt;= 0 &amp; breastfeed_dur_b2 &lt;= 24 | breastfeed_dur_b2 == 888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parity &gt;= 2   &amp; parity != 888  </t>
+  </si>
+  <si>
     <t>Verify: breastfeed_dur_b2 is outside range 0-24 months</t>
   </si>
   <si>
     <t>breastfeed_dur_b3</t>
   </si>
   <si>
+    <t>breastfeed_dur_b3 &gt;=0 &amp; breastfeed_dur_b3 &lt;= 24 | breastfeed_dur_b3 == 888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parity &gt;= 3  &amp; parity != 888  </t>
+  </si>
+  <si>
     <t>Verify: breastfeed_dur_b3 is outside range 0-24 months</t>
   </si>
   <si>
     <t>breastfeed_dur_b4</t>
   </si>
   <si>
+    <t>breastfeed_dur_b4 &gt;= 0 &amp; breastfeed_dur_b4 &lt;= 24| breastfeed_dur_b4 == 888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parity &gt;= 4  &amp; parity != 888  </t>
+  </si>
+  <si>
     <t>Verify: breastfeed_dur_b4 is outside range 0-24 months</t>
   </si>
   <si>
     <t>breastfeed_dur_b5</t>
   </si>
   <si>
+    <t>breastfeed_dur_b5 &gt;= 0 &amp; breastfeed_dur_b5 &lt;= 24 | breastfeed_dur_b5 == 888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parity &gt;= 5  &amp; parity != 888  </t>
+  </si>
+  <si>
     <t>Verify: breastfeed_dur_b5 is outside range 0-24 months</t>
   </si>
   <si>
     <t>breastfeed_dur_b6</t>
   </si>
   <si>
+    <t>breastfeed_dur_b6 &gt;= 0 &amp; breastfeed_dur_b6 &lt;= 24 | breastfeed_dur_b6 == 888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parity &gt;= 6  &amp; parity != 888  </t>
+  </si>
+  <si>
     <t>Verify: breastfeed_dur_b6 is outside range 0-12 months</t>
   </si>
   <si>
     <t>breastfeed_dur_b7</t>
   </si>
   <si>
+    <t>breastfeed_dur_b7 &gt;= 0 &amp; breastfeed_dur_b7 &lt;= 24 |  breastfeed_dur_b7 == 888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parity &gt;= 7  &amp; parity != 888  </t>
+  </si>
+  <si>
     <t>Verify: breastfeed_dur_b7 is outside range 0-12 months</t>
   </si>
   <si>
     <t>breastfeed_dur_b8</t>
   </si>
   <si>
+    <t>breastfeed_dur_b8 &gt;= 0 &amp; breastfeed_dur_b8 &lt;= 24 | breastfeed_dur_b8 == 888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parity &gt;= 8  &amp; parity != 888  </t>
+  </si>
+  <si>
     <t>Verify: breastfeed_dur_b8 is outside range 0-12 months</t>
   </si>
   <si>
     <t>breastfeed_dur_b9</t>
   </si>
   <si>
+    <t>breastfeed_dur_b9 &gt;= 0 &amp; breastfeed_dur_b9 &lt;= 24 | breastfeed_dur_b9 == 888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parity &gt;=9  &amp; parity != 888  </t>
+  </si>
+  <si>
     <t>Verify: breastfeed_dur_b9 is outside range 0-12 months</t>
   </si>
   <si>
     <t>breastfeed_dur_b10</t>
   </si>
   <si>
+    <t>breastfeed_dur_b10 &gt;= 0 &amp; breastfeed_dur_b10 &lt;= 24 | breastfeed_dur_b10 == 888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parity &gt;= 10  &amp; parity != 888  </t>
+  </si>
+  <si>
     <t>Verify: breastfeed_dur_b10 is outside range 0-12 months</t>
   </si>
   <si>
@@ -482,282 +602,288 @@
     <t>alcohol_status is 4 (never drinker); not consistent with alcohol_init, alochol_stop or alcohol_dur</t>
   </si>
   <si>
+    <t xml:space="preserve">alcohol_status is 1 (current drinker), alcohol_stop expected to be 666 </t>
+  </si>
+  <si>
+    <t>alcohol_init &gt; 10 &amp; alcohol_init &lt;= 70 | alcohol_init ==888</t>
+  </si>
+  <si>
+    <t>!alcohol_status %in% c(4, 777,888)</t>
+  </si>
+  <si>
+    <t>Verify: alcohol_init is not within range 10-70 years</t>
+  </si>
+  <si>
+    <t>alcohol_init,age</t>
+  </si>
+  <si>
+    <t>alcohol_init &lt; age</t>
+  </si>
+  <si>
+    <t>!alcohol_init %in% c(777,888)</t>
+  </si>
+  <si>
+    <t>alcohol_init should be smaller than age</t>
+  </si>
+  <si>
+    <t>2, 4</t>
+  </si>
+  <si>
+    <t>Verify: values of alcohol_init and alcohol_status are not consistent</t>
+  </si>
+  <si>
+    <t>alcohol_amt</t>
+  </si>
+  <si>
+    <t>alcohol_amt &gt; 0 &amp; alcohol_amt &lt;= 25 | alcohol_amt == 888</t>
+  </si>
+  <si>
+    <t>Verify: alcohol_amt is outside range 0-25 gms</t>
+  </si>
+  <si>
+    <t>alcohol_stop &gt; 0 &amp; alcohol_stop &lt;= 100 | alcohol_stop ==888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alcohol_stop </t>
+  </si>
+  <si>
+    <t>Verify: alcohol_stop is outside range 0-100 years</t>
+  </si>
+  <si>
+    <t>alcohol_dur &gt; 0 &amp; alcohol_dur &lt;= 50 | alcohol_dur == 888</t>
+  </si>
+  <si>
+    <t>Verify: alcohol_dur is outside range 0-50 years</t>
+  </si>
+  <si>
+    <t>smoking_init</t>
+  </si>
+  <si>
+    <t>smoking_init &gt; 0 &amp; smoking_init &lt;= 70 | smoking_init == 888</t>
+  </si>
+  <si>
+    <t>smoking_status</t>
+  </si>
+  <si>
+    <t>!smoking_status %in% c(4,777,888)</t>
+  </si>
+  <si>
+    <t>Verify: smoking_init outside  range 0-70 years</t>
+  </si>
+  <si>
+    <t>smoking_amt</t>
+  </si>
+  <si>
+    <t>smoking_amt &gt; 0 &amp; smoking_amt &lt;= 60 | smoking_amt == 888</t>
+  </si>
+  <si>
+    <t>Verify: smoking_amt is outside  range 0-60 cigarrettes</t>
+  </si>
+  <si>
+    <t>smoking_stop</t>
+  </si>
+  <si>
+    <t>smoking_stop &gt; 0 &amp; smoking_stop &lt;= 100 | smoking_stop == 888 | smoking_stop == 666</t>
+  </si>
+  <si>
+    <t>Verify: smoking_stop is outside range 0-100 years</t>
+  </si>
+  <si>
+    <t>smoking_dur</t>
+  </si>
+  <si>
+    <t>smoking_dur &gt;0 &amp; smoking_dur &lt;= 50 | smoking_dur ==888</t>
+  </si>
+  <si>
+    <t>smoking_stop != 666</t>
+  </si>
+  <si>
+    <t>Verify: smoking_dur is not within range 0-50 years</t>
+  </si>
+  <si>
+    <t>smoking_init,smoking_dur,smoking_stop</t>
+  </si>
+  <si>
+    <t>smoking_dur &lt; (1 + smoking_stop - smoking_init)  | smoking_dur == 888</t>
+  </si>
+  <si>
+    <t>!smoking_init %in% c(777,888)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !smoking_stop %in% c(666,777,888)</t>
+  </si>
+  <si>
+    <t>smoking_dur is more than the difference between smoking_init and smoking_stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smoking_init </t>
+  </si>
+  <si>
+    <t>smoking_status is 4 (never smoker) ; not consistent with smoking_init, smoking_stop or smoking_dur</t>
+  </si>
+  <si>
+    <t>Verify: values of smoking_status and smoking_stop are not consistent</t>
+  </si>
+  <si>
+    <t>smoking_dur,age</t>
+  </si>
+  <si>
+    <t>smoking_dur &lt; age - 7 | smoking_dur == 888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age </t>
+  </si>
+  <si>
+    <t>!is.na(age)</t>
+  </si>
+  <si>
+    <t>Verify: smoking_dur ≥ age - 7 years</t>
+  </si>
+  <si>
+    <t>Biopsies_yesno</t>
+  </si>
+  <si>
+    <t>Biopsies_number</t>
+  </si>
+  <si>
+    <t>!Biopsies_number %in% c(0, 888)</t>
+  </si>
+  <si>
+    <t>Verify: value of Biopsies_yesno = 1 not consistent with Biopsies_number</t>
+  </si>
+  <si>
+    <t>Biopsies_number == 0</t>
+  </si>
+  <si>
+    <t>Verify: values of Biopsies_yesno = 0, not consistent with Biopsies_number</t>
+  </si>
+  <si>
+    <t>Biopsies_number == 888</t>
+  </si>
+  <si>
+    <t>Verify: values of Biopsies_yesno = 888,  not consistent with Biopsies_number</t>
+  </si>
+  <si>
+    <t>BBD_history</t>
+  </si>
+  <si>
+    <t>BBD_number</t>
+  </si>
+  <si>
+    <t>!BBD_number %in% c(0, 888)</t>
+  </si>
+  <si>
+    <t>Verify: BBD_history = 1, not consistent with BBD_number</t>
+  </si>
+  <si>
+    <t>Verify: BBD_history = 0, not consistent with BBD_number</t>
+  </si>
+  <si>
+    <t>Verify: BBD_history = 888, not consistent with BBD_number</t>
+  </si>
+  <si>
+    <t>breastfeed</t>
+  </si>
+  <si>
+    <t>Verify: parous is 0, not consistent with age_preg1, parity, or breastfeed</t>
+  </si>
+  <si>
+    <t>Verify: parous is 888, not consistent with age_preg1, parity, or breastfeed</t>
+  </si>
+  <si>
+    <t>!parity %in% c(0,777, 888)</t>
+  </si>
+  <si>
+    <t>!breastfeed %in% c(777,888) &amp; !age_preg1 %in% c(777,888)</t>
+  </si>
+  <si>
+    <t>Verify: parous is not consistent with age_preg1, parity, or breastfeed</t>
+  </si>
+  <si>
+    <t>breastfeed_dur</t>
+  </si>
+  <si>
+    <t>Verify: parous is 0, not consistent with breastfeed_dur</t>
+  </si>
+  <si>
+    <t>breastfeed is 0 but breastfeed_dur is not 666</t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur is outside range 0-84 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">breastfeed </t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur is 666, not consistent with breastfeed</t>
+  </si>
+  <si>
+    <t>ocuse_dur</t>
+  </si>
+  <si>
+    <t>ocuse_dur &gt; 0 &amp; ocuse_dur &lt;= 84 | ocuse_dur == 888</t>
+  </si>
+  <si>
+    <t>ocuse_ever</t>
+  </si>
+  <si>
+    <t>!ocuse_ever %in% c(0,777,888)</t>
+  </si>
+  <si>
+    <t>Verify: ocuse_dur is outside range 0-84 months</t>
+  </si>
+  <si>
+    <t>ocuse_start</t>
+  </si>
+  <si>
+    <t>ocuse_start &gt;= 16 &amp; ocuse_start &lt;= 58 | ocuse_start == 888</t>
+  </si>
+  <si>
+    <t>Verify: ocuse_start is outside range 16-58 years</t>
+  </si>
+  <si>
+    <t>ocuse_stop</t>
+  </si>
+  <si>
+    <t>ocuse_stop &gt; 0 &amp; ocuse_stop &lt;= 58 | ocuse_stop == 888</t>
+  </si>
+  <si>
+    <t>Verify: ocuse_stop is not within range 0-58 years</t>
+  </si>
+  <si>
+    <t>ocuse_ever is 0 (never user): not consistent with ocuse_start, or ocuse_stop, or ocuse_dur</t>
+  </si>
+  <si>
+    <t>ocuse_current</t>
+  </si>
+  <si>
+    <t>Verify: ocuse_current is 1, not consistent with ocuse_stop</t>
+  </si>
+  <si>
+    <t>Verify: ocuse_stop is 666, not consistent with ocuse_current</t>
+  </si>
+  <si>
+    <t>othcontracep_current</t>
+  </si>
+  <si>
+    <t>othcontracep_ever</t>
+  </si>
+  <si>
+    <t>Verify: othcontracep_current is 1, not consistent with othcontracep_ever</t>
+  </si>
+  <si>
+    <t>othcontracep_ever != 0</t>
+  </si>
+  <si>
+    <t>Verify: othcontracep_current is 888, not consistent with othcontracep_ever</t>
+  </si>
+  <si>
+    <t>meno_status</t>
+  </si>
+  <si>
     <t>crossvalid2.warnings</t>
   </si>
   <si>
-    <t>alcohol_init &gt; 10 &amp; alcohol_init &lt;= 70 | alcohol_init ==888</t>
-  </si>
-  <si>
-    <t>!alcohol_status %in% c(4, 777,888)</t>
-  </si>
-  <si>
-    <t>Verify: alcohol_init is not within range 10-70 years</t>
-  </si>
-  <si>
-    <t>alcohol_init,age</t>
-  </si>
-  <si>
-    <t>alcohol_init &lt; age</t>
-  </si>
-  <si>
-    <t>!alcohol_init %in% c(777,888)</t>
-  </si>
-  <si>
-    <t>alcohol_init should be smaller than age</t>
-  </si>
-  <si>
-    <t>2, 4</t>
-  </si>
-  <si>
-    <t>Verify: values of alcohol_init and alcohol_status are not consistent</t>
-  </si>
-  <si>
-    <t>alcohol_amt</t>
-  </si>
-  <si>
-    <t>alcohol_amt &gt; 0 &amp; alcohol_amt &lt;= 25 | alcohol_amt == 888</t>
-  </si>
-  <si>
-    <t>Verify: alcohol_amt is outside range 0-25 gms</t>
-  </si>
-  <si>
-    <t>alcohol_stop &gt; 0 &amp; alcohol_stop &lt;= 100 | alcohol_stop ==888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alcohol_stop </t>
-  </si>
-  <si>
-    <t>Verify: alcohol_stop is outside range 0-100 years</t>
-  </si>
-  <si>
-    <t>Verify: alcohol_dur is outside range 0-50 years</t>
-  </si>
-  <si>
-    <t>smoking_init</t>
-  </si>
-  <si>
-    <t>smoking_init &gt; 0 &amp; smoking_init &lt;= 70 | smoking_init == 888</t>
-  </si>
-  <si>
-    <t>smoking_status</t>
-  </si>
-  <si>
-    <t>!smoking_status %in% c(4,777,888)</t>
-  </si>
-  <si>
-    <t>Verify: smoking_init outside  range 0-70 years</t>
-  </si>
-  <si>
-    <t>smoking_amt</t>
-  </si>
-  <si>
-    <t>smoking_amt &gt; 0 &amp; smoking_amt &lt;= 60 | smoking_amt == 888</t>
-  </si>
-  <si>
-    <t>Verify: smoking_amt is outside  range 0-60 cigarrettes</t>
-  </si>
-  <si>
-    <t>smoking_stop</t>
-  </si>
-  <si>
-    <t>smoking_stop &gt; 0 &amp; smoking_stop &lt;= 100 | smoking_stop == 888 | smoking_stop == 666</t>
-  </si>
-  <si>
-    <t>Verify: smoking_stop is outside range 0-100 years</t>
-  </si>
-  <si>
-    <t>smoking_dur</t>
-  </si>
-  <si>
-    <t>smoking_dur &gt;0 &amp; smoking_dur &lt;= 50 | smoking_dur ==888</t>
-  </si>
-  <si>
-    <t>smoking_stop != 666</t>
-  </si>
-  <si>
-    <t>Verify: smoking_dur is not within range 0-50 years</t>
-  </si>
-  <si>
-    <t>smoking_init,smoking_dur,smoking_stop</t>
-  </si>
-  <si>
-    <t>smoking_dur &lt; (1 + smoking_stop - smoking_init)  | smoking_dur == 888</t>
-  </si>
-  <si>
-    <t>!smoking_init %in% c(777,888)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> !smoking_stop %in% c(666,777,888)</t>
-  </si>
-  <si>
-    <t>smoking_dur is more than the difference between smoking_init and smoking_stop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smoking_init </t>
-  </si>
-  <si>
-    <t>smoking_status is 4 (never smoker) ; not consistent with smoking_init, smoking_stop or smoking_dur</t>
-  </si>
-  <si>
-    <t>Verify: values of smoking_status and smoking_stop are not consistent</t>
-  </si>
-  <si>
-    <t>smoking_dur,age</t>
-  </si>
-  <si>
-    <t>smoking_dur &lt; age - 7 | smoking_dur == 888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age </t>
-  </si>
-  <si>
-    <t>!is.na(age)</t>
-  </si>
-  <si>
-    <t>Verify: smoking_dur ≥ age - 7 years</t>
-  </si>
-  <si>
-    <t>Biopsies_yesno</t>
-  </si>
-  <si>
-    <t>Biopsies_number</t>
-  </si>
-  <si>
-    <t>!Biopsies_number %in% c(0, 888)</t>
-  </si>
-  <si>
-    <t>Verify: value of Biopsies_yesno = 1 not consistent with Biopsies_number</t>
-  </si>
-  <si>
-    <t>Biopsies_number == 0</t>
-  </si>
-  <si>
-    <t>Verify: values of Biopsies_yesno = 0, not consistent with Biopsies_number</t>
-  </si>
-  <si>
-    <t>Biopsies_number == 888</t>
-  </si>
-  <si>
-    <t>Verify: values of Biopsies_yesno = 888,  not consistent with Biopsies_number</t>
-  </si>
-  <si>
-    <t>BBD_history</t>
-  </si>
-  <si>
-    <t>BBD_number</t>
-  </si>
-  <si>
-    <t>!BBD_number %in% c(0, 888)</t>
-  </si>
-  <si>
-    <t>Verify: BBD_history = 1, not consistent with BBD_number</t>
-  </si>
-  <si>
-    <t>Verify: BBD_history = 0, not consistent with BBD_number</t>
-  </si>
-  <si>
-    <t>Verify: BBD_history = 888, not consistent with BBD_number</t>
-  </si>
-  <si>
-    <t>breastfeed</t>
-  </si>
-  <si>
-    <t>Verify: parous is 0, not consistent with age_preg1, parity, or breastfeed</t>
-  </si>
-  <si>
-    <t>Verify: parous is 888, not consistent with age_preg1, parity, or breastfeed</t>
-  </si>
-  <si>
-    <t>!parity %in% c(0,777, 888)</t>
-  </si>
-  <si>
-    <t>!breastfeed %in% c(777,888) &amp; !age_preg1 %in% c(777,888)</t>
-  </si>
-  <si>
-    <t>Verify: parous is not consistent with age_preg1, parity, or breastfeed</t>
-  </si>
-  <si>
-    <t>breastfeed_dur</t>
-  </si>
-  <si>
-    <t>Verify: parous is 0, not consistent with breastfeed_dur</t>
-  </si>
-  <si>
-    <t>breastfeed is 0 but breastfeed_dur is not 666</t>
-  </si>
-  <si>
-    <t>Verify: breastfeed_dur is outside range 0-84 months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">breastfeed </t>
-  </si>
-  <si>
-    <t>Verify: breastfeed_dur is 666, not consistent with breastfeed</t>
-  </si>
-  <si>
-    <t>ocuse_dur</t>
-  </si>
-  <si>
-    <t>ocuse_dur &gt; 0 &amp; ocuse_dur &lt;= 84 | ocuse_dur == 888</t>
-  </si>
-  <si>
-    <t>ocuse_ever</t>
-  </si>
-  <si>
-    <t>!ocuse_ever %in% c(0,777,888)</t>
-  </si>
-  <si>
-    <t>Verify: ocuse_dur is outside range 0-84 months</t>
-  </si>
-  <si>
-    <t>ocuse_start</t>
-  </si>
-  <si>
-    <t>ocuse_start &gt;= 16 &amp; ocuse_start &lt;= 58 | ocuse_start == 888</t>
-  </si>
-  <si>
-    <t>Verify: ocuse_start is outside range 16-58 years</t>
-  </si>
-  <si>
-    <t>ocuse_stop</t>
-  </si>
-  <si>
-    <t>ocuse_stop &gt; 0 &amp; ocuse_stop &lt;= 58 | ocuse_stop == 888</t>
-  </si>
-  <si>
-    <t>Verify: ocuse_stop is not within range 0-58 years</t>
-  </si>
-  <si>
-    <t>ocuse_ever is 0 (never user): not consistent with ocuse_start, or ocuse_stop, or ocuse_dur</t>
-  </si>
-  <si>
-    <t>ocuse_current</t>
-  </si>
-  <si>
-    <t>Verify: ocuse_current is 1, not consistent with ocuse_stop</t>
-  </si>
-  <si>
-    <t>Verify: ocuse_stop is 666, not consistent with ocuse_current</t>
-  </si>
-  <si>
-    <t>othcontracep_current</t>
-  </si>
-  <si>
-    <t>othcontracep_ever</t>
-  </si>
-  <si>
-    <t>Verify: othcontracep_current is 1, not consistent with othcontracep_ever</t>
-  </si>
-  <si>
-    <t>othcontracep_ever != 0</t>
-  </si>
-  <si>
-    <t>Verify: othcontracep_current is 888, not consistent with othcontracep_ever</t>
-  </si>
-  <si>
-    <t>meno_status</t>
-  </si>
-  <si>
     <t>meno_age</t>
   </si>
   <si>
@@ -782,6 +908,12 @@
     <t>hrt_dur &gt; 0 &amp; hrt_dur &lt;= 24 | hrt_dur == 888</t>
   </si>
   <si>
+    <t>hrtuse</t>
+  </si>
+  <si>
+    <t>!hrtuse %in% c(0,888)</t>
+  </si>
+  <si>
     <t>Verify: hrt_dur is outside range 0-24 months</t>
   </si>
   <si>
@@ -797,9 +929,6 @@
     <t>Verify: hrteonly_dur is outside range 0-24 months</t>
   </si>
   <si>
-    <t>hrtuse</t>
-  </si>
-  <si>
     <t>666, 777</t>
   </si>
   <si>
@@ -891,139 +1020,13 @@
   </si>
   <si>
     <t>pa_pct is not within range 0-100 %</t>
-  </si>
-  <si>
-    <t>age_preg2,age_preg1</t>
-  </si>
-  <si>
-    <t>!hrtuse %in% c(0,888)</t>
-  </si>
-  <si>
-    <t>alcohol_dur &gt; 0 &amp; alcohol_dur &lt;= 50 | alcohol_dur == 888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alcohol_status is 1 (current drinker), alcohol_stop expected to be 666 </t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b1 &gt;= 0 &amp; breastfeed_dur_b1 &lt;= 24 | breastfeed_dur_b1 == 888</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b2 &gt;= 0 &amp; breastfeed_dur_b2 &lt;= 24 | breastfeed_dur_b2 == 888</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b3 &gt;=0 &amp; breastfeed_dur_b3 &lt;= 24 | breastfeed_dur_b3 == 888</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b4 &gt;= 0 &amp; breastfeed_dur_b4 &lt;= 24| breastfeed_dur_b4 == 888</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b5 &gt;= 0 &amp; breastfeed_dur_b5 &lt;= 24 | breastfeed_dur_b5 == 888</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b6 &gt;= 0 &amp; breastfeed_dur_b6 &lt;= 24 | breastfeed_dur_b6 == 888</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b7 &gt;= 0 &amp; breastfeed_dur_b7 &lt;= 24 | | breastfeed_dur_b7 == 888</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b8 &gt;= 0 &amp; breastfeed_dur_b8 &lt;= 24 | breastfeed_dur_b8 == 888</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b9 &gt;= 0 &amp; breastfeed_dur_b9 &lt;= 24 | breastfeed_dur_b9 == 888</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b10 &gt;= 0 &amp; breastfeed_dur_b10 &lt;= 24 | breastfeed_dur_b10 == 888</t>
-  </si>
-  <si>
-    <t>age_preg2 != 666 &amp; age_preg1 != 666 &amp;  age_preg2 &gt; age_preg1 |age_preg1 == 888 | age_preg2 == 888</t>
-  </si>
-  <si>
-    <t>!age_preg3 %in% c(666) | !age_preg2 %in% c(666) !age_preg1 %in% c(666) &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1| age_preg3 == 888 | age_preg_2 == 888 | age_preg1 == 888</t>
-  </si>
-  <si>
-    <t>!age_preg4 %in% c(666) &amp; age_preg4 &gt; age_preg3 &amp; !age_preg3 %in% c(666) &amp; !age_preg2 %in% c(666) &amp; !age_preg1 %in% c(666) &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1 | age_preg4 == 888 | age_preg3 == 888 | age_preg2 == 888 | age_preg1 == 888</t>
-  </si>
-  <si>
-    <t>!age_preg5 %in% c(666) &amp; age_preg5 &gt; age_preg4 &amp; !age_preg4 %in% c(666) &amp; age_preg4 &gt; age_preg3 &amp; !age_preg3 %in% c(666) &amp; !age_preg2 %in% c(666) &amp; !age_preg1 %in% c(666) &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1 | age_preg_5 == 888| age_preg4 == 888 | age_preg3 == 888 | age_preg2 == 888 | age_preg1 == 888</t>
-  </si>
-  <si>
-    <t>!age_preg6 %in% c(666) &amp; age_preg6 &gt; age_preg5 &amp; !age_preg5 %in% c(666)&amp; age_preg5 &gt; age_preg4 &amp; !age_preg4 %in% c(666) &amp; age_preg4 &gt; age_preg3 &amp; !age_preg3 %in% c(666)&amp; !age_preg2 %in% c(666) &amp; !age_preg1 %in% c(666) &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1 | age_preg6 == 888 | age_preg5 == 888 | age_preg4 == 888 | age_preg3 == 888 | age_preg2 == 888 | age_preg1 == 888</t>
-  </si>
-  <si>
-    <t>!age_preg7 %in% c(666) &amp; age_preg7 &gt; age_preg6 &amp; !age_preg6 %in% c(666) &amp; age_preg6 &gt; age_preg5 &amp; !age_preg5 %in% c(666) &amp; age_preg5 &gt; age_preg4 &amp; !age_preg4  %in% c(666) &amp; age_preg4 &gt; age_preg3 &amp; !age_preg3 %in% c(666) &amp; !age_preg2 %in% c(666) &amp; !age_preg1 %in% c(666) &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1| age_preg7 == 888 | age_preg6 == 888 | age_preg5 == 888 | age_preg4 == 888 | age_preg3 == 888 | age_preg2 == 888 |age_preg1 == 888</t>
-  </si>
-  <si>
-    <t>!age_preg8 %in% c(666) &amp; age_preg8 &gt; age_preg7 &amp; !age_preg7 %in% c(666) &amp; age_preg7 &gt; age_preg6 &amp; !age_preg6 %in% c(666) &amp; age_preg6 &gt; age_preg5 &amp; !age_preg5 %in% c(666)  &amp; age_preg5 &gt; age_preg4 &amp; !age_preg4 %in% c(666) &amp; age_preg4 &gt; age_preg3 &amp; !age_preg3 %in% c(666) &amp; !age_preg2 %in% c(666) &amp; !age_preg1 %in% c(666) &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1 | age_preg8 == 888 | age_preg7 == 888 | age_preg6 == 888 | age_preg5 == 888 | age_preg4 == 888 | age_preg3 == 888 | age_preg2 == 888 |age_preg1 == 888</t>
-  </si>
-  <si>
-    <t>!age_preg9 %in% c(666) &amp; age_preg9 &gt; age_preg8 &amp; !age_preg8 %in% c(666) &amp; age_preg8 &gt; age_preg7 &amp; !age_preg7 %in% c(666) &amp; age_preg7 &gt; age_preg6 &amp; !age_preg6 %in% c(666) &amp; age_preg6 &gt; age_preg5 &amp; !age_preg5 %in% c(666) &amp; age_preg5 &gt; age_preg4 &amp; !age_preg4 %in% c(666) &amp; age_preg4 &gt; age_preg3 &amp; !age_preg3 %in% c(666) &amp; !age_preg2 %in% c(666) &amp; !age_preg1 %in% c(666) &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1 | age_preg9 == 888 | age_preg8 == 888 | age_preg7 == 888 | age_preg6 == 888 | age_preg5 == 888 | age_preg4 == 888 | age_preg3 == 888 | age_preg2 == 888 | age_preg1 == 888</t>
-  </si>
-  <si>
-    <t>!age_preg10 %in% c(666) &amp; age_preg10 &gt; age_preg9 &amp; !age_preg9 %in% c(666) &amp; age_preg9 &gt; age_preg8 &amp; !age_preg8 %in% c(666)&amp; age_preg8 &gt; age_preg7 &amp; !age_preg7 %in% c(666)&amp; age_preg7 &gt; age_preg6 &amp; !age_preg6 %in% c(666) &amp; age_preg6 &gt; age_preg5 &amp; !age_preg5 %in% c(666) &amp; age_preg5 &gt; age_preg4 &amp; !age_preg4 %in% c(666) &amp; age_preg4 &gt; age_preg3 &amp; !age_preg3 %in% c(666) &amp; !age_preg2 %in% c(666) &amp; !age_preg1 %in% c(666) &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1 | age_preg10 == 888 | age_preg9 == 888 | age_preg8 == 888 | age_preg7 == 888 | age_preg7 == 888 | age_preg6 == 888 | age_preg5 == 888 | age_preg4 == 888 | age_preg3 == 888 | age_preg2 == 888 | age_preg1 == 888</t>
-  </si>
-  <si>
-    <t>parity &gt;= 2 &amp; parity != 888 &amp; parity != 777</t>
-  </si>
-  <si>
-    <t>parity &gt;=3 &amp; parity != 888 &amp; parity != 777</t>
-  </si>
-  <si>
-    <t>parity &gt;=4 &amp; parity != 888 &amp; parity != 777</t>
-  </si>
-  <si>
-    <t>parity &gt;=5 &amp; parity != 888 &amp; parity != 777</t>
-  </si>
-  <si>
-    <t>parity &gt;=6 &amp; parity != 888 &amp; parity != 777</t>
-  </si>
-  <si>
-    <t>parity &gt;=7 &amp; parity != 888 &amp; parity != 777</t>
-  </si>
-  <si>
-    <t>parity &gt;=8 &amp; parity != 888 &amp; parity != 777</t>
-  </si>
-  <si>
-    <t>parity &gt;=9 &amp; parity != 888 &amp; parity != 777</t>
-  </si>
-  <si>
-    <t>parity &gt;=10 &amp; parity != 888 &amp; parity != 777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parity &gt;= 1 &amp; parity != 888  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">parity &gt;= 2   &amp; parity != 888  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">parity &gt;= 3  &amp; parity != 888  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">parity &gt;= 4  &amp; parity != 888  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">parity &gt;= 5  &amp; parity != 888  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">parity &gt;= 6  &amp; parity != 888  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">parity &gt;= 7  &amp; parity != 888  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">parity &gt;= 8  &amp; parity != 888  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">parity &gt;=9  &amp; parity != 888  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">parity &gt;= 10  &amp; parity != 888  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1391,36 +1394,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="M53" sqref="M53"/>
+    <sheetView tabSelected="1" topLeftCell="F30" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="97" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.83203125" style="2"/>
+    <col min="21" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1482,7 +1485,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -1508,7 +1511,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -1534,7 +1537,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
@@ -1551,7 +1554,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -1571,7 +1574,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -1594,7 +1597,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -1620,7 +1623,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
@@ -1643,24 +1646,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S9" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="T9" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
@@ -1680,7 +1683,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11" s="2" t="s">
         <v>48</v>
       </c>
@@ -1697,7 +1700,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" s="2" t="s">
         <v>51</v>
       </c>
@@ -1717,7 +1720,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="2" t="s">
         <v>53</v>
       </c>
@@ -1734,7 +1737,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14" s="2" t="s">
         <v>56</v>
       </c>
@@ -1751,7 +1754,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" s="2" t="s">
         <v>58</v>
       </c>
@@ -1768,7 +1771,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16" s="2" t="s">
         <v>61</v>
       </c>
@@ -1785,7 +1788,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20">
       <c r="A17" s="2" t="s">
         <v>63</v>
       </c>
@@ -1805,7 +1808,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18" s="2" t="s">
         <v>65</v>
       </c>
@@ -1825,7 +1828,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" s="2" t="s">
         <v>67</v>
       </c>
@@ -1845,7 +1848,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20">
       <c r="A20" s="2" t="s">
         <v>69</v>
       </c>
@@ -1865,7 +1868,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20">
       <c r="A21" s="2" t="s">
         <v>71</v>
       </c>
@@ -1885,7 +1888,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20">
       <c r="A22" s="2" t="s">
         <v>73</v>
       </c>
@@ -1905,7 +1908,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20">
       <c r="A23" s="2" t="s">
         <v>75</v>
       </c>
@@ -1925,7 +1928,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="A24" s="2" t="s">
         <v>77</v>
       </c>
@@ -1945,7 +1948,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="A25" s="2" t="s">
         <v>79</v>
       </c>
@@ -1965,7 +1968,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20">
       <c r="A26" s="2" t="s">
         <v>81</v>
       </c>
@@ -1985,7 +1988,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20">
       <c r="A27" s="2" t="s">
         <v>83</v>
       </c>
@@ -2005,7 +2008,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20">
       <c r="A28" s="2" t="s">
         <v>85</v>
       </c>
@@ -2025,7 +2028,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20">
       <c r="A29" s="2" t="s">
         <v>87</v>
       </c>
@@ -2045,7 +2048,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20">
       <c r="A30" s="2" t="s">
         <v>89</v>
       </c>
@@ -2065,7 +2068,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20">
       <c r="A31" s="2" t="s">
         <v>91</v>
       </c>
@@ -2085,7 +2088,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20">
       <c r="A32" s="2" t="s">
         <v>93</v>
       </c>
@@ -2105,7 +2108,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20">
       <c r="A33" s="2" t="s">
         <v>95</v>
       </c>
@@ -2125,7 +2128,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20">
       <c r="A34" s="2" t="s">
         <v>97</v>
       </c>
@@ -2145,7 +2148,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20">
       <c r="A35" s="2" t="s">
         <v>99</v>
       </c>
@@ -2153,25 +2156,25 @@
         <v>21</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>286</v>
+        <v>100</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>300</v>
+        <v>101</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>99</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>309</v>
+        <v>102</v>
       </c>
       <c r="S35" s="2" t="s">
         <v>81</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" s="2" t="s">
         <v>99</v>
       </c>
@@ -2179,25 +2182,25 @@
         <v>21</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>301</v>
+        <v>105</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>99</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>310</v>
+        <v>106</v>
       </c>
       <c r="S36" s="2" t="s">
         <v>83</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" s="2" t="s">
         <v>99</v>
       </c>
@@ -2205,25 +2208,25 @@
         <v>21</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>302</v>
+        <v>109</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>99</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>311</v>
+        <v>110</v>
       </c>
       <c r="S37" s="2" t="s">
         <v>85</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" s="2" t="s">
         <v>99</v>
       </c>
@@ -2231,25 +2234,25 @@
         <v>21</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>303</v>
+        <v>113</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>99</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>312</v>
+        <v>114</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>87</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" s="2" t="s">
         <v>99</v>
       </c>
@@ -2257,25 +2260,25 @@
         <v>21</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>304</v>
+        <v>117</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>99</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>313</v>
+        <v>118</v>
       </c>
       <c r="S39" s="2" t="s">
         <v>89</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" s="2" t="s">
         <v>99</v>
       </c>
@@ -2283,25 +2286,25 @@
         <v>21</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>305</v>
+        <v>121</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>99</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>314</v>
+        <v>122</v>
       </c>
       <c r="S40" s="2" t="s">
         <v>91</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" s="2" t="s">
         <v>99</v>
       </c>
@@ -2309,25 +2312,25 @@
         <v>21</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>306</v>
+        <v>125</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>99</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>315</v>
+        <v>126</v>
       </c>
       <c r="S41" s="2" t="s">
         <v>93</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" s="2" t="s">
         <v>99</v>
       </c>
@@ -2335,25 +2338,25 @@
         <v>21</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>307</v>
+        <v>129</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>316</v>
+        <v>131</v>
       </c>
       <c r="S42" s="2" t="s">
         <v>95</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" s="2" t="s">
         <v>99</v>
       </c>
@@ -2361,30 +2364,30 @@
         <v>21</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>308</v>
+        <v>134</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>99</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>317</v>
+        <v>135</v>
       </c>
       <c r="S43" s="2" t="s">
         <v>97</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="C44" s="2">
         <v>0</v>
@@ -2393,36 +2396,36 @@
         <v>24</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>290</v>
+        <v>139</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>99</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>318</v>
+        <v>142</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" s="2" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
@@ -2431,36 +2434,36 @@
         <v>24</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>291</v>
+        <v>145</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>99</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>319</v>
+        <v>146</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" s="2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
@@ -2469,36 +2472,36 @@
         <v>24</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>292</v>
+        <v>149</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>99</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" s="2" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -2507,36 +2510,36 @@
         <v>24</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>293</v>
+        <v>153</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>99</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>321</v>
+        <v>154</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" s="2" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
@@ -2545,36 +2548,36 @@
         <v>24</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>294</v>
+        <v>157</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>99</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>322</v>
+        <v>158</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" s="2" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
@@ -2583,36 +2586,36 @@
         <v>24</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>295</v>
+        <v>161</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>99</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>323</v>
+        <v>162</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" s="2" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
@@ -2621,36 +2624,36 @@
         <v>24</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>296</v>
+        <v>165</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>99</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>324</v>
+        <v>166</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" s="2" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
@@ -2659,36 +2662,36 @@
         <v>24</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>297</v>
+        <v>169</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>99</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>325</v>
+        <v>170</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52" s="2" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
@@ -2697,36 +2700,36 @@
         <v>24</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>298</v>
+        <v>173</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>99</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>326</v>
+        <v>174</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="T52" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="A53" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
@@ -2735,85 +2738,85 @@
         <v>24</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>299</v>
+        <v>177</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>99</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>327</v>
+        <v>178</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54" s="2" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55" s="2" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="E55" s="2">
         <v>4</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="J55" s="2">
         <v>777</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="M55" s="2">
         <v>777</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="P55" s="2">
         <v>777</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56" s="2" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>37</v>
@@ -2822,73 +2825,73 @@
         <v>1</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="J56" s="2">
         <v>666</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57" s="2" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58" s="2" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59" s="2" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>37</v>
@@ -2897,276 +2900,276 @@
         <v>777</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60" s="2" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61" s="2" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62" s="2" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>288</v>
+        <v>204</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64" s="2" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
       <c r="A65" s="2" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
       <c r="A66" s="2" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
       <c r="A67" s="2" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="J67" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="S67" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="T67" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
+      <c r="A68" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="S67" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="T67" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="E68" s="2">
         <v>4</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>186</v>
+        <v>226</v>
       </c>
       <c r="J68" s="2">
         <v>777</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="M68" s="2">
         <v>777</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="P68" s="2">
         <v>777</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
       <c r="A69" s="2" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>37</v>
@@ -3175,157 +3178,157 @@
         <v>1</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="J69" s="2">
         <v>666</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20">
       <c r="A70" s="2" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
       <c r="A71" s="2" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>195</v>
+        <v>235</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="J71" s="2">
         <v>1</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>195</v>
+        <v>235</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
       <c r="A72" s="2" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>195</v>
+        <v>235</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="J72" s="2">
         <v>0</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>195</v>
+        <v>235</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20">
       <c r="A73" s="2" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>195</v>
+        <v>235</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="J73" s="2">
         <v>888</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>195</v>
+        <v>235</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20">
       <c r="A74" s="2" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="J74" s="2">
         <v>1</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20">
       <c r="A75" s="2" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>37</v>
@@ -3334,21 +3337,21 @@
         <v>0</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="J75" s="2">
         <v>0</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="T75" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20">
       <c r="A76" s="2" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>37</v>
@@ -3357,24 +3360,24 @@
         <v>888</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="J76" s="2">
         <v>888</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20">
       <c r="A77" s="2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="E77" s="2">
         <v>0</v>
@@ -3392,24 +3395,24 @@
         <v>777</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="P77" s="2">
         <v>777</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="T77" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
       <c r="A78" s="2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="E78" s="2">
         <v>888</v>
@@ -3427,53 +3430,53 @@
         <v>888</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="P78" s="2">
         <v>888</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="T78" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20">
       <c r="A79" s="2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>99</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20">
       <c r="A80" s="2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>37</v>
@@ -3482,21 +3485,21 @@
         <v>0</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="J80" s="2">
         <v>777</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="T80" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20">
       <c r="A81" s="2" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>37</v>
@@ -3505,21 +3508,21 @@
         <v>0</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="J81" s="2">
         <v>666</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="T81" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20">
       <c r="A82" s="2" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>34</v>
@@ -3531,15 +3534,15 @@
         <v>84</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20">
       <c r="A83" s="2" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>37</v>
@@ -3548,134 +3551,134 @@
         <v>666</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>218</v>
+        <v>258</v>
       </c>
       <c r="J83" s="2">
         <v>0</v>
       </c>
       <c r="S83" s="2" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="T83" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20">
       <c r="A84" s="2" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="T84" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20">
       <c r="A85" s="2" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="S85" s="2" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="T85" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20">
       <c r="A86" s="2" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="S86" s="2" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="T86" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20">
       <c r="A87" s="2" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="E87" s="2">
         <v>0</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="J87" s="2">
         <v>777</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="M87" s="2">
         <v>777</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="P87" s="2">
         <v>777</v>
       </c>
       <c r="S87" s="2" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="T87" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20">
       <c r="A88" s="2" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>37</v>
@@ -3684,21 +3687,21 @@
         <v>1</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="J88" s="2">
         <v>666</v>
       </c>
       <c r="S88" s="2" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="T88" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20">
       <c r="A89" s="2" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>37</v>
@@ -3707,21 +3710,21 @@
         <v>666</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="J89" s="2">
         <v>1</v>
       </c>
       <c r="S89" s="2" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="T89" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20">
       <c r="A90" s="2" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>37</v>
@@ -3730,224 +3733,224 @@
         <v>1</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="J90" s="2">
         <v>1</v>
       </c>
       <c r="S90" s="2" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="T90" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20">
       <c r="A91" s="2" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>238</v>
+        <v>278</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="J91" s="2">
         <v>888</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="T91" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20">
       <c r="A92" s="2" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>149</v>
+        <v>281</v>
       </c>
       <c r="E92" s="2">
         <v>2</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>241</v>
+        <v>282</v>
       </c>
       <c r="J92" s="2">
         <v>777</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>242</v>
+        <v>283</v>
       </c>
       <c r="M92" s="2">
         <v>777</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="T92" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20">
       <c r="A93" s="2" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="E93" s="2">
         <v>2</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
       <c r="J93" s="2">
         <v>666</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="M93" s="2">
         <v>666</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="P93" s="2">
         <v>666</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="T93" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20">
       <c r="A94" s="2" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="S94" s="2" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
       <c r="T94" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20">
       <c r="A95" s="2" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>250</v>
+        <v>293</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="J95" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="S95" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="T95" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20">
+      <c r="A96" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="S95" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="T95" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="J96" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="S96" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="S96" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="T96" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20">
       <c r="A97" s="2" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="E97" s="2">
         <v>0</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="S97" s="2" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="T97" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20">
       <c r="A98" s="2" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>37</v>
@@ -3956,44 +3959,44 @@
         <v>0</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="S98" s="2" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="T98" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20">
       <c r="A99" s="2" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="J99" s="2">
         <v>0</v>
       </c>
       <c r="S99" s="2" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="T99" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20">
       <c r="A100" s="2" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>37</v>
@@ -4002,215 +4005,215 @@
         <v>0</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="S100" s="2" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="T100" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20">
       <c r="A101" s="2" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="J101" s="2">
         <v>0</v>
       </c>
       <c r="S101" s="2" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="T101" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20">
       <c r="A102" s="2" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="S102" s="2" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="T102" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20">
       <c r="A103" s="2" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="S103" s="2" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="T103" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20">
       <c r="A104" s="2" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="J104" s="2">
         <v>0</v>
       </c>
       <c r="S104" s="2" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="T104" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20">
       <c r="A105" s="2" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="J105" s="2">
         <v>0</v>
       </c>
       <c r="S105" s="2" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="T105" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20">
       <c r="A106" s="2" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="S106" s="2" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="T106" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20">
       <c r="A107" s="2" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>149</v>
+        <v>281</v>
       </c>
       <c r="E107" s="2">
         <v>0</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="J107" s="2">
         <v>777</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="M107" s="2">
         <v>777</v>
       </c>
       <c r="S107" s="2" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="T107" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20">
       <c r="A108" s="2" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>34</v>
@@ -4222,15 +4225,15 @@
         <v>30</v>
       </c>
       <c r="S108" s="2" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="T108" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20">
       <c r="A109" s="2" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>34</v>
@@ -4242,10 +4245,10 @@
         <v>100</v>
       </c>
       <c r="S109" s="2" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="T109" s="2" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -4262,7 +4265,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4275,7 +4278,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/BCRPP_QC_R_Excel_Program/Core QC Rules/BCRPP Warning Rules.xlsx
+++ b/BCRPP_QC_R_Excel_Program/Core QC Rules/BCRPP Warning Rules.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{4599F067-48F8-8049-8D2B-4C4789DA5EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CE92DCE-B18E-4D79-A379-AFB536224B21}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09DD897-605D-574B-8DF5-58A5EECA76D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="500" windowWidth="51200" windowHeight="26600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51200" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$110</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="339">
   <si>
     <t>Variable</t>
   </si>
@@ -455,9 +455,6 @@
     <t>crossrange2.warnings</t>
   </si>
   <si>
-    <t>breastfeed_dur_b1 &gt;= 0 &amp; breastfeed_dur_b1 &lt;= 24 | breastfeed_dur_b1 == 888</t>
-  </si>
-  <si>
     <t>parous</t>
   </si>
   <si>
@@ -473,9 +470,6 @@
     <t>breastfeed_dur_b2</t>
   </si>
   <si>
-    <t>breastfeed_dur_b2 &gt;= 0 &amp; breastfeed_dur_b2 &lt;= 24 | breastfeed_dur_b2 == 888</t>
-  </si>
-  <si>
     <t xml:space="preserve">parity &gt;= 2   &amp; parity != 888  </t>
   </si>
   <si>
@@ -485,9 +479,6 @@
     <t>breastfeed_dur_b3</t>
   </si>
   <si>
-    <t>breastfeed_dur_b3 &gt;=0 &amp; breastfeed_dur_b3 &lt;= 24 | breastfeed_dur_b3 == 888</t>
-  </si>
-  <si>
     <t xml:space="preserve">parity &gt;= 3  &amp; parity != 888  </t>
   </si>
   <si>
@@ -497,9 +488,6 @@
     <t>breastfeed_dur_b4</t>
   </si>
   <si>
-    <t>breastfeed_dur_b4 &gt;= 0 &amp; breastfeed_dur_b4 &lt;= 24| breastfeed_dur_b4 == 888</t>
-  </si>
-  <si>
     <t xml:space="preserve">parity &gt;= 4  &amp; parity != 888  </t>
   </si>
   <si>
@@ -509,9 +497,6 @@
     <t>breastfeed_dur_b5</t>
   </si>
   <si>
-    <t>breastfeed_dur_b5 &gt;= 0 &amp; breastfeed_dur_b5 &lt;= 24 | breastfeed_dur_b5 == 888</t>
-  </si>
-  <si>
     <t xml:space="preserve">parity &gt;= 5  &amp; parity != 888  </t>
   </si>
   <si>
@@ -521,9 +506,6 @@
     <t>breastfeed_dur_b6</t>
   </si>
   <si>
-    <t>breastfeed_dur_b6 &gt;= 0 &amp; breastfeed_dur_b6 &lt;= 24 | breastfeed_dur_b6 == 888</t>
-  </si>
-  <si>
     <t xml:space="preserve">parity &gt;= 6  &amp; parity != 888  </t>
   </si>
   <si>
@@ -533,9 +515,6 @@
     <t>breastfeed_dur_b7</t>
   </si>
   <si>
-    <t>breastfeed_dur_b7 &gt;= 0 &amp; breastfeed_dur_b7 &lt;= 24 |  breastfeed_dur_b7 == 888</t>
-  </si>
-  <si>
     <t xml:space="preserve">parity &gt;= 7  &amp; parity != 888  </t>
   </si>
   <si>
@@ -545,9 +524,6 @@
     <t>breastfeed_dur_b8</t>
   </si>
   <si>
-    <t>breastfeed_dur_b8 &gt;= 0 &amp; breastfeed_dur_b8 &lt;= 24 | breastfeed_dur_b8 == 888</t>
-  </si>
-  <si>
     <t xml:space="preserve">parity &gt;= 8  &amp; parity != 888  </t>
   </si>
   <si>
@@ -557,9 +533,6 @@
     <t>breastfeed_dur_b9</t>
   </si>
   <si>
-    <t>breastfeed_dur_b9 &gt;= 0 &amp; breastfeed_dur_b9 &lt;= 24 | breastfeed_dur_b9 == 888</t>
-  </si>
-  <si>
     <t xml:space="preserve">parity &gt;=9  &amp; parity != 888  </t>
   </si>
   <si>
@@ -569,9 +542,6 @@
     <t>breastfeed_dur_b10</t>
   </si>
   <si>
-    <t>breastfeed_dur_b10 &gt;= 0 &amp; breastfeed_dur_b10 &lt;= 24 | breastfeed_dur_b10 == 888</t>
-  </si>
-  <si>
     <t xml:space="preserve">parity &gt;= 10  &amp; parity != 888  </t>
   </si>
   <si>
@@ -617,15 +587,9 @@
     <t>alcohol_init,age</t>
   </si>
   <si>
-    <t>alcohol_init &lt; age</t>
-  </si>
-  <si>
     <t>!alcohol_init %in% c(777,888)</t>
   </si>
   <si>
-    <t>alcohol_init should be smaller than age</t>
-  </si>
-  <si>
     <t>2, 4</t>
   </si>
   <si>
@@ -641,9 +605,6 @@
     <t>Verify: alcohol_amt is outside range 0-25 gms</t>
   </si>
   <si>
-    <t>alcohol_stop &gt; 0 &amp; alcohol_stop &lt;= 100 | alcohol_stop ==888</t>
-  </si>
-  <si>
     <t xml:space="preserve">alcohol_stop </t>
   </si>
   <si>
@@ -791,9 +752,6 @@
     <t>Verify: parous is 888, not consistent with age_preg1, parity, or breastfeed</t>
   </si>
   <si>
-    <t>!parity %in% c(0,777, 888)</t>
-  </si>
-  <si>
     <t>!breastfeed %in% c(777,888) &amp; !age_preg1 %in% c(777,888)</t>
   </si>
   <si>
@@ -821,36 +779,21 @@
     <t>ocuse_dur</t>
   </si>
   <si>
-    <t>ocuse_dur &gt; 0 &amp; ocuse_dur &lt;= 84 | ocuse_dur == 888</t>
-  </si>
-  <si>
     <t>ocuse_ever</t>
   </si>
   <si>
-    <t>!ocuse_ever %in% c(0,777,888)</t>
-  </si>
-  <si>
     <t>Verify: ocuse_dur is outside range 0-84 months</t>
   </si>
   <si>
     <t>ocuse_start</t>
   </si>
   <si>
-    <t>ocuse_start &gt;= 16 &amp; ocuse_start &lt;= 58 | ocuse_start == 888</t>
-  </si>
-  <si>
     <t>Verify: ocuse_start is outside range 16-58 years</t>
   </si>
   <si>
     <t>ocuse_stop</t>
   </si>
   <si>
-    <t>ocuse_stop &gt; 0 &amp; ocuse_stop &lt;= 58 | ocuse_stop == 888</t>
-  </si>
-  <si>
-    <t>Verify: ocuse_stop is not within range 0-58 years</t>
-  </si>
-  <si>
     <t>ocuse_ever is 0 (never user): not consistent with ocuse_start, or ocuse_stop, or ocuse_dur</t>
   </si>
   <si>
@@ -905,30 +848,12 @@
     <t>Verify:  verify values of hrt_dur, hrtep_dur, hrteonly_dur with meno_status = 2 (pre-menopausal)</t>
   </si>
   <si>
-    <t>hrt_dur &gt; 0 &amp; hrt_dur &lt;= 24 | hrt_dur == 888</t>
-  </si>
-  <si>
     <t>hrtuse</t>
   </si>
   <si>
     <t>!hrtuse %in% c(0,888)</t>
   </si>
   <si>
-    <t>Verify: hrt_dur is outside range 0-24 months</t>
-  </si>
-  <si>
-    <t>hrtep_dur &gt; 0 &amp; hrtep_dur &lt;= 24 | hrtep_dur == 888</t>
-  </si>
-  <si>
-    <t>Verify: hrtep_dur is outside range 0-24 months</t>
-  </si>
-  <si>
-    <t>hrteonly_dur &gt; 0 &amp; hrteonly_dur &lt;= 24 | hrteonly_dur == 888</t>
-  </si>
-  <si>
-    <t>Verify: hrteonly_dur is outside range 0-24 months</t>
-  </si>
-  <si>
     <t>666, 777</t>
   </si>
   <si>
@@ -941,18 +866,12 @@
     <t>Verify:  hrtuse_ep is 0 (never user), not consistent with hrtep_dur</t>
   </si>
   <si>
-    <t>Verify: hrtep_dur = (666,777), not consistent with hrtuse_ep</t>
-  </si>
-  <si>
     <t>hrtuse_eonly</t>
   </si>
   <si>
     <t>hrtuse_eonly is 0 ( never user) but hrteonly_dur is not 666 or777</t>
   </si>
   <si>
-    <t>hrteonly_dur is 666 or 777 but hrtuse_eonly is not 0</t>
-  </si>
-  <si>
     <t>hrtuse == 1</t>
   </si>
   <si>
@@ -1013,20 +932,134 @@
     <t>pa_mets</t>
   </si>
   <si>
-    <t>Verify: pa_mets is not within range 0-30 hours</t>
-  </si>
-  <si>
     <t>pa_pct</t>
   </si>
   <si>
     <t>pa_pct is not within range 0-100 %</t>
+  </si>
+  <si>
+    <t>alcohol_init &lt;= age</t>
+  </si>
+  <si>
+    <t>Verify: age at alcohol inititation (alcohol_init) is larger than the age at record date (age)</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>!alcohol_status %in% c(1, 4, 888)</t>
+  </si>
+  <si>
+    <t>!alcohol_status %in% c(4 ,888)</t>
+  </si>
+  <si>
+    <t>alcohol_stop &gt; 0 &amp; alcohol_stop &lt;= 100 | alcohol_stop ==888 | alcohol_stop == 666</t>
+  </si>
+  <si>
+    <t>!smoking_status %in% c(4, 888)</t>
+  </si>
+  <si>
+    <t>!smoking_status %in% c(4,888)</t>
+  </si>
+  <si>
+    <t>!parity %in% c(0, 888)</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b1 &gt;= 0 &amp; breastfeed_dur_b1 &lt;= 24 | breastfeed_dur_b1 == 888 | breastfeed_dur_b1 == 666</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b2 &gt;= 0 &amp; breastfeed_dur_b2 &lt;= 24 | breastfeed_dur_b2 == 888 | breastfeed_dur_b2 == 666</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b3 &gt;=0 &amp; breastfeed_dur_b3 &lt;= 24 | breastfeed_dur_b3 == 888 | breastfeed_dur_b3 == 666</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b4 &gt;= 0 &amp; breastfeed_dur_b4 &lt;= 24| breastfeed_dur_b4 == 888 | breastfeed_dur_b4 == 666</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b5 &gt;= 0 &amp; breastfeed_dur_b5 &lt;= 24 | breastfeed_dur_b5 == 888 | breastfeed_dur_b5 == 666</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b6 &gt;= 0 &amp; breastfeed_dur_b6 &lt;= 24 | breastfeed_dur_b6 == 888 | breastfeed_dur_b6 == 666</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b7 &gt;= 0 &amp; breastfeed_dur_b7 &lt;= 24 |  breastfeed_dur_b7 == 888 | breastfeed_dur_b7 == 666</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b8 &gt;= 0 &amp; breastfeed_dur_b8 &lt;= 24 | breastfeed_dur_b8 == 888 | breastfeed_dur_b8 == 666</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b9 &gt;= 0 &amp; breastfeed_dur_b9 &lt;= 24 | breastfeed_dur_b9 == 888 | breastfeed_dur_b9 == 666</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b10 &gt;= 0 &amp; breastfeed_dur_b10 &lt;= 24 | breastfeed_dur_b10 == 888 | breastfeed_dur_b10 == 666</t>
+  </si>
+  <si>
+    <t>ocuse_dur &gt; 0 &amp; ocuse_dur &lt;= 500 | ocuse_dur == 888</t>
+  </si>
+  <si>
+    <t>!ocuse_ever %in% c(0,888)</t>
+  </si>
+  <si>
+    <t>ocuse_start &gt;= 10 &amp; ocuse_start &lt;= 58 | ocuse_start == 888</t>
+  </si>
+  <si>
+    <t>ocuse_stop,ocuse_start</t>
+  </si>
+  <si>
+    <t>ocuse_dur,ocuse_start,ocuse_stop</t>
+  </si>
+  <si>
+    <t>!ocuse_start  %in% c(777,888)</t>
+  </si>
+  <si>
+    <t>!ocuse_stop %in% c(666, 777,888)</t>
+  </si>
+  <si>
+    <t>between(  (ocuse_stop * 12) - (ocuse_start * 12) - ocuse_dur, left = -6, right = 6)</t>
+  </si>
+  <si>
+    <t>Please verify that ocuse_start, ocuse_stop, and ocuse_dur are consistent</t>
+  </si>
+  <si>
+    <t>ocuse_stop &gt; ocuse_start &amp; ocuse_stop &lt;= 58 | ocuse_stop == 888 | ocuse_stop == 666</t>
+  </si>
+  <si>
+    <t>hrt_dur &gt; 0 &amp; hrt_dur &lt;= 300 | hrt_dur == 888</t>
+  </si>
+  <si>
+    <t>Verify: hrt_dur is outside range 0-300 months</t>
+  </si>
+  <si>
+    <t>Verify: ocuse_stop is either smaller than ocuse_stop or greater than 58</t>
+  </si>
+  <si>
+    <t>Verify: hrtep_dur is outside range 0-300 months</t>
+  </si>
+  <si>
+    <t>Verify: hrteonly_dur is outside range 0-300 months</t>
+  </si>
+  <si>
+    <t>hrteonly_dur &gt; 0 &amp; hrteonly_dur &lt;= 300 | hrteonly_dur == 888</t>
+  </si>
+  <si>
+    <t>hrtep_dur &gt; 0 &amp; hrtep_dur &lt;= 300 | hrtep_dur == 888</t>
+  </si>
+  <si>
+    <t>Verify: hrtep_dur is 777, not consistent with hrtuse_ep</t>
+  </si>
+  <si>
+    <t>hrteonly_dur is  777  hrtuse_eonly should be 0</t>
+  </si>
+  <si>
+    <t>Verify: pa_mets is not within range 0-150 METS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1392,38 +1425,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T109"/>
+  <dimension ref="A1:T110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F30" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="L82" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="T108" sqref="T108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="97" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.85546875" style="2"/>
+    <col min="21" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1485,7 +1518,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -1511,7 +1544,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -1537,7 +1570,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
@@ -1554,15 +1587,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="2">
-        <v>0</v>
+      <c r="C5" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="D5" s="2">
         <v>10</v>
@@ -1574,7 +1607,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -1597,7 +1630,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -1623,7 +1656,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
@@ -1646,7 +1679,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
@@ -1663,7 +1696,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
@@ -1683,7 +1716,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>48</v>
       </c>
@@ -1700,7 +1733,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>51</v>
       </c>
@@ -1720,7 +1753,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>53</v>
       </c>
@@ -1737,7 +1770,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>56</v>
       </c>
@@ -1754,7 +1787,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>58</v>
       </c>
@@ -1771,7 +1804,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>61</v>
       </c>
@@ -1788,7 +1821,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>63</v>
       </c>
@@ -1808,7 +1841,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>65</v>
       </c>
@@ -1828,7 +1861,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>67</v>
       </c>
@@ -1848,7 +1881,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>69</v>
       </c>
@@ -1868,7 +1901,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>71</v>
       </c>
@@ -1888,7 +1921,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>73</v>
       </c>
@@ -1908,7 +1941,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>75</v>
       </c>
@@ -1928,7 +1961,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>77</v>
       </c>
@@ -1948,7 +1981,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>79</v>
       </c>
@@ -1968,7 +2001,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>81</v>
       </c>
@@ -1988,7 +2021,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>83</v>
       </c>
@@ -2008,7 +2041,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>85</v>
       </c>
@@ -2028,7 +2061,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>87</v>
       </c>
@@ -2048,7 +2081,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>89</v>
       </c>
@@ -2068,7 +2101,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>91</v>
       </c>
@@ -2088,7 +2121,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>93</v>
       </c>
@@ -2108,7 +2141,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>95</v>
       </c>
@@ -2128,7 +2161,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>97</v>
       </c>
@@ -2148,7 +2181,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>99</v>
       </c>
@@ -2174,7 +2207,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>99</v>
       </c>
@@ -2200,7 +2233,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>99</v>
       </c>
@@ -2226,7 +2259,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>99</v>
       </c>
@@ -2252,7 +2285,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>99</v>
       </c>
@@ -2278,7 +2311,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>99</v>
       </c>
@@ -2304,7 +2337,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>99</v>
       </c>
@@ -2330,7 +2363,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>99</v>
       </c>
@@ -2356,7 +2389,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>99</v>
       </c>
@@ -2382,7 +2415,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>137</v>
       </c>
@@ -2399,30 +2432,30 @@
         <v>137</v>
       </c>
       <c r="H44" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="I44" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="J44" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>99</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S44" s="2" t="s">
         <v>137</v>
       </c>
       <c r="T44" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20">
-      <c r="A45" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>138</v>
@@ -2437,30 +2470,30 @@
         <v>137</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>145</v>
+        <v>310</v>
       </c>
       <c r="I45" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J45" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>99</v>
       </c>
       <c r="M45" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="S45" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="T45" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
-      <c r="A46" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>138</v>
@@ -2472,33 +2505,33 @@
         <v>24</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>149</v>
+        <v>311</v>
       </c>
       <c r="I46" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J46" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>99</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="S46" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="T46" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20">
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>138</v>
@@ -2510,33 +2543,33 @@
         <v>24</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>153</v>
+        <v>312</v>
       </c>
       <c r="I47" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J47" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>99</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="S47" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="T47" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20">
-      <c r="A48" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>138</v>
@@ -2548,33 +2581,33 @@
         <v>24</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>157</v>
+        <v>313</v>
       </c>
       <c r="I48" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J48" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>99</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>138</v>
@@ -2586,33 +2619,33 @@
         <v>24</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>161</v>
+        <v>314</v>
       </c>
       <c r="I49" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J49" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>99</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>138</v>
@@ -2624,33 +2657,33 @@
         <v>24</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>165</v>
+        <v>315</v>
       </c>
       <c r="I50" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J50" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>99</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>138</v>
@@ -2662,33 +2695,33 @@
         <v>24</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>169</v>
+        <v>316</v>
       </c>
       <c r="I51" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J51" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>99</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>138</v>
@@ -2700,33 +2733,33 @@
         <v>24</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>173</v>
+        <v>317</v>
       </c>
       <c r="I52" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J52" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>99</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>138</v>
@@ -2738,85 +2771,85 @@
         <v>24</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>177</v>
+        <v>318</v>
       </c>
       <c r="I53" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J53" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>99</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E55" s="2">
         <v>4</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="J55" s="2">
         <v>777</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="M55" s="2">
         <v>777</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="P55" s="2">
         <v>777</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>37</v>
@@ -2825,73 +2858,73 @@
         <v>1</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="J56" s="2">
         <v>666</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="I57" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J57" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="S57" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>193</v>
+        <v>300</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>37</v>
@@ -2900,276 +2933,276 @@
         <v>777</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>190</v>
+        <v>170</v>
+      </c>
+      <c r="J60" s="2">
+        <v>1</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>201</v>
+        <v>305</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="J61" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="S61" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="T61" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="S61" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="T61" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20">
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>190</v>
+        <v>304</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>209</v>
+        <v>306</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>209</v>
+        <v>307</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>209</v>
+        <v>306</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>138</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>209</v>
+        <v>306</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>138</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E68" s="2">
         <v>4</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J68" s="2">
         <v>777</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="M68" s="2">
         <v>777</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="P68" s="2">
         <v>777</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>37</v>
@@ -3178,157 +3211,157 @@
         <v>1</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="J69" s="2">
         <v>666</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>138</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="J71" s="2">
         <v>1</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="J72" s="2">
         <v>0</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="J73" s="2">
         <v>888</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="J74" s="2">
         <v>1</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>37</v>
@@ -3337,21 +3370,21 @@
         <v>0</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="J75" s="2">
         <v>0</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="T75" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>37</v>
@@ -3360,24 +3393,24 @@
         <v>888</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="J76" s="2">
         <v>888</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E77" s="2">
         <v>0</v>
@@ -3392,27 +3425,27 @@
         <v>99</v>
       </c>
       <c r="M77" s="2">
-        <v>777</v>
+        <v>0</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="P77" s="2">
         <v>777</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="T77" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E78" s="2">
         <v>888</v>
@@ -3430,53 +3463,53 @@
         <v>888</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="P78" s="2">
         <v>888</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="T78" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>138</v>
       </c>
       <c r="G79" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H79" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>99</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>251</v>
+        <v>308</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>37</v>
@@ -3485,21 +3518,21 @@
         <v>0</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="J80" s="2">
         <v>777</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="T80" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>37</v>
@@ -3508,21 +3541,21 @@
         <v>0</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="J81" s="2">
         <v>666</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="T81" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>34</v>
@@ -3534,15 +3567,15 @@
         <v>84</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>37</v>
@@ -3551,689 +3584,701 @@
         <v>666</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="J83" s="2">
         <v>0</v>
       </c>
       <c r="S83" s="2" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="T83" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>263</v>
+        <v>320</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="T84" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>266</v>
+        <v>321</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>263</v>
+        <v>320</v>
       </c>
       <c r="S85" s="2" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="T85" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>263</v>
+        <v>320</v>
       </c>
       <c r="S86" s="2" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="T86" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E87" s="2">
+        <v>138</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="S87" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="T87" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E88" s="2">
         <v>0</v>
       </c>
-      <c r="I87" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="J87" s="2">
+      <c r="I88" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J88" s="2">
         <v>777</v>
       </c>
-      <c r="L87" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="M87" s="2">
+      <c r="L88" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M88" s="2">
         <v>777</v>
       </c>
-      <c r="O87" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="P87" s="2">
+      <c r="O88" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="P88" s="2">
         <v>777</v>
       </c>
-      <c r="S87" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="T87" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20">
-      <c r="A88" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E88" s="2">
-        <v>1</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="J88" s="2">
-        <v>666</v>
-      </c>
       <c r="S88" s="2" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="T88" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E89" s="2">
+        <v>1</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="J89" s="2">
         <v>666</v>
       </c>
-      <c r="I89" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="J89" s="2">
-        <v>1</v>
-      </c>
       <c r="S89" s="2" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="T89" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E90" s="2">
-        <v>1</v>
+        <v>666</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="J90" s="2">
         <v>1</v>
       </c>
       <c r="S90" s="2" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="T90" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E91" s="2">
+        <v>1</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="J91" s="2">
+        <v>1</v>
+      </c>
+      <c r="S91" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="T91" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G91" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="J91" s="2">
+      <c r="G92" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="J92" s="2">
         <v>888</v>
       </c>
-      <c r="S91" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="T91" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20">
-      <c r="A92" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E92" s="2">
-        <v>2</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="J92" s="2">
-        <v>777</v>
-      </c>
-      <c r="L92" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="M92" s="2">
-        <v>777</v>
-      </c>
       <c r="S92" s="2" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="T92" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>183</v>
+        <v>262</v>
       </c>
       <c r="E93" s="2">
         <v>2</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="J93" s="2">
+        <v>777</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="M93" s="2">
+        <v>777</v>
+      </c>
+      <c r="S93" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="T93" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E94" s="2">
+        <v>2</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="J94" s="2">
         <v>666</v>
       </c>
-      <c r="L93" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="M93" s="2">
+      <c r="L94" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="M94" s="2">
         <v>666</v>
       </c>
-      <c r="O93" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="P93" s="2">
+      <c r="O94" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="P94" s="2">
         <v>666</v>
       </c>
-      <c r="S93" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="T93" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20">
-      <c r="A94" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="J94" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="S94" s="2" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="T94" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="T95" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="S96" s="2" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="T96" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E97" s="2">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="L97" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="M97" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="O97" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="P97" s="2" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="S97" s="2" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="T97" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="E98" s="2">
         <v>0</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>297</v>
+        <v>272</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="O98" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="P98" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="S98" s="2" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="T98" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>297</v>
+      <c r="E99" s="2">
+        <v>0</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="J99" s="2">
-        <v>0</v>
+        <v>267</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="S99" s="2" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="T99" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E100" s="2">
+        <v>777</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="J100" s="2">
         <v>0</v>
       </c>
-      <c r="I100" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="J100" s="2" t="s">
-        <v>297</v>
-      </c>
       <c r="S100" s="2" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="T100" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>297</v>
+      <c r="E101" s="2">
+        <v>0</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="J101" s="2">
+        <v>268</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="S101" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="T101" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E102" s="2">
+        <v>777</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J102" s="2">
         <v>0</v>
       </c>
-      <c r="S101" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="T101" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20">
-      <c r="A102" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="J102" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="L102" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="M102" s="2" t="s">
-        <v>307</v>
-      </c>
       <c r="S102" s="2" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="T102" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="103" spans="1:20">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>138</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="J103" s="3" t="s">
-        <v>310</v>
+        <v>274</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="S103" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="T103" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="J104" s="2">
-        <v>0</v>
+        <v>274</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="S104" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="T104" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="J105" s="2">
         <v>0</v>
       </c>
       <c r="S105" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="T105" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>317</v>
+        <v>270</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>317</v>
+        <v>276</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>320</v>
+        <v>270</v>
+      </c>
+      <c r="J106" s="2">
+        <v>0</v>
       </c>
       <c r="S106" s="2" t="s">
-        <v>317</v>
+        <v>270</v>
       </c>
       <c r="T106" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E107" s="2">
+        <v>21</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="S107" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="T107" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E108" s="2">
         <v>0</v>
       </c>
-      <c r="I107" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="J107" s="2">
+      <c r="I108" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="J108" s="2">
         <v>777</v>
       </c>
-      <c r="L107" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="M107" s="2">
-        <v>777</v>
-      </c>
-      <c r="S107" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="T107" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20">
-      <c r="A108" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C108" s="2">
-        <v>0</v>
-      </c>
-      <c r="D108" s="2">
-        <v>30</v>
+      <c r="L108" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="M108" s="2">
+        <v>7777</v>
       </c>
       <c r="S108" s="2" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="T108" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>34</v>
@@ -4242,17 +4287,37 @@
         <v>0</v>
       </c>
       <c r="D109" s="2">
+        <v>150</v>
+      </c>
+      <c r="S109" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="T109" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C110" s="2">
+        <v>0</v>
+      </c>
+      <c r="D110" s="2">
         <v>100</v>
       </c>
-      <c r="S109" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="T109" s="2" t="s">
-        <v>327</v>
+      <c r="S110" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="T110" s="2" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T109" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T110" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4265,7 +4330,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4278,7 +4343,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/BCRPP_QC_R_Excel_Program/Core QC Rules/BCRPP Warning Rules.xlsx
+++ b/BCRPP_QC_R_Excel_Program/Core QC Rules/BCRPP Warning Rules.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09DD897-605D-574B-8DF5-58A5EECA76D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24B4DBE-9B55-504E-AFE0-D755A47BE9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-51200" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$111</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="341">
   <si>
     <t>Variable</t>
   </si>
@@ -959,9 +959,6 @@
     <t>!smoking_status %in% c(4, 888)</t>
   </si>
   <si>
-    <t>!smoking_status %in% c(4,888)</t>
-  </si>
-  <si>
     <t>!parity %in% c(0, 888)</t>
   </si>
   <si>
@@ -1053,6 +1050,15 @@
   </si>
   <si>
     <t>Verify: pa_mets is not within range 0-150 METS</t>
+  </si>
+  <si>
+    <t>smoking_amt %in% c(0,777)</t>
+  </si>
+  <si>
+    <t>2, 3, 4</t>
+  </si>
+  <si>
+    <t>smoking_amt should be 0 or 777 if smoking_status is 2, 3, or 4</t>
   </si>
 </sst>
 </file>
@@ -1425,10 +1431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T110"/>
+  <dimension ref="A1:T111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L82" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="T108" sqref="T108"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="P96" sqref="P96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2432,7 +2438,7 @@
         <v>137</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>139</v>
@@ -2470,7 +2476,7 @@
         <v>137</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>139</v>
@@ -2508,7 +2514,7 @@
         <v>146</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>139</v>
@@ -2546,7 +2552,7 @@
         <v>149</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>139</v>
@@ -2584,7 +2590,7 @@
         <v>152</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>139</v>
@@ -2622,7 +2628,7 @@
         <v>155</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>139</v>
@@ -2660,7 +2666,7 @@
         <v>158</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>139</v>
@@ -2698,7 +2704,7 @@
         <v>161</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>139</v>
@@ -2736,7 +2742,7 @@
         <v>164</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>139</v>
@@ -2774,7 +2780,7 @@
         <v>167</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>139</v>
@@ -3065,8 +3071,8 @@
       <c r="I64" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>307</v>
+      <c r="J64" s="2">
+        <v>1</v>
       </c>
       <c r="S64" s="2" t="s">
         <v>198</v>
@@ -3077,42 +3083,42 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>202</v>
+        <v>338</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>195</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>203</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>195</v>
@@ -3120,17 +3126,11 @@
       <c r="J66" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="L66" s="2" t="s">
+      <c r="S66" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="M66" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="S66" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="T66" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
@@ -3141,63 +3141,60 @@
         <v>138</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>210</v>
+        <v>306</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>201</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="S67" s="2" t="s">
         <v>204</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E68" s="2">
-        <v>4</v>
+        <v>138</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="J68" s="2">
-        <v>777</v>
+        <v>193</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="M68" s="2">
-        <v>777</v>
-      </c>
-      <c r="O68" s="2" t="s">
+      <c r="M68" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="S68" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="P68" s="2">
-        <v>777</v>
-      </c>
-      <c r="S68" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="T68" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
@@ -3205,80 +3202,89 @@
         <v>195</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="E69" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I69" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J69" s="2">
+        <v>777</v>
+      </c>
+      <c r="L69" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="J69" s="2">
-        <v>666</v>
+      <c r="M69" s="2">
+        <v>777</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="P69" s="2">
+        <v>777</v>
       </c>
       <c r="S69" s="2" t="s">
         <v>195</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>217</v>
+        <v>37</v>
+      </c>
+      <c r="E70" s="2">
+        <v>1</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="L70" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J70" s="2">
+        <v>666</v>
+      </c>
+      <c r="S70" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="M70" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="S70" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="T70" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="J71" s="2">
-        <v>1</v>
+        <v>218</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
@@ -3292,19 +3298,19 @@
         <v>222</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>221</v>
       </c>
       <c r="J72" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S72" s="2" t="s">
         <v>222</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
@@ -3318,45 +3324,45 @@
         <v>222</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>221</v>
       </c>
       <c r="J73" s="2">
-        <v>888</v>
+        <v>0</v>
       </c>
       <c r="S73" s="2" t="s">
         <v>222</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="J74" s="2">
-        <v>1</v>
+        <v>888</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
@@ -3364,22 +3370,25 @@
         <v>229</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E75" s="2">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J75" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S75" s="2" t="s">
         <v>230</v>
       </c>
       <c r="T75" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
@@ -3390,54 +3399,42 @@
         <v>37</v>
       </c>
       <c r="E76" s="2">
-        <v>888</v>
+        <v>0</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>230</v>
       </c>
       <c r="J76" s="2">
-        <v>888</v>
+        <v>0</v>
       </c>
       <c r="S76" s="2" t="s">
         <v>230</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="E77" s="2">
-        <v>0</v>
+        <v>888</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="J77" s="2">
-        <v>777</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M77" s="2">
-        <v>0</v>
-      </c>
-      <c r="O77" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="P77" s="2">
-        <v>777</v>
+        <v>888</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>139</v>
+        <v>230</v>
       </c>
       <c r="T77" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
@@ -3448,31 +3445,31 @@
         <v>173</v>
       </c>
       <c r="E78" s="2">
-        <v>888</v>
+        <v>0</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>79</v>
       </c>
       <c r="J78" s="2">
-        <v>888</v>
+        <v>777</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>99</v>
       </c>
       <c r="M78" s="2">
-        <v>888</v>
+        <v>0</v>
       </c>
       <c r="O78" s="2" t="s">
         <v>235</v>
       </c>
       <c r="P78" s="2">
-        <v>888</v>
+        <v>777</v>
       </c>
       <c r="S78" s="2" t="s">
         <v>139</v>
       </c>
       <c r="T78" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
@@ -3480,31 +3477,34 @@
         <v>139</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>140</v>
+        <v>173</v>
+      </c>
+      <c r="E79" s="2">
+        <v>888</v>
       </c>
       <c r="I79" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J79" s="2">
+        <v>888</v>
+      </c>
+      <c r="L79" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="L79" s="2" t="s">
+      <c r="M79" s="2">
+        <v>888</v>
+      </c>
+      <c r="O79" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="M79" s="2" t="s">
-        <v>238</v>
+      <c r="P79" s="2">
+        <v>888</v>
       </c>
       <c r="S79" s="2" t="s">
         <v>139</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
@@ -3512,27 +3512,36 @@
         <v>139</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E80" s="2">
-        <v>0</v>
+        <v>138</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="J80" s="2">
-        <v>777</v>
+        <v>99</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>139</v>
       </c>
       <c r="T80" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>235</v>
+        <v>139</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>37</v>
@@ -3544,33 +3553,36 @@
         <v>240</v>
       </c>
       <c r="J81" s="2">
-        <v>666</v>
+        <v>777</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>235</v>
+        <v>139</v>
       </c>
       <c r="T81" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E82" s="2">
+        <v>0</v>
+      </c>
+      <c r="I82" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C82" s="2">
-        <v>0</v>
-      </c>
-      <c r="D82" s="2">
-        <v>84</v>
+      <c r="J82" s="2">
+        <v>666</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
@@ -3578,236 +3590,233 @@
         <v>240</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E83" s="2">
-        <v>666</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="J83" s="2">
+        <v>34</v>
+      </c>
+      <c r="C83" s="2">
         <v>0</v>
       </c>
+      <c r="D83" s="2">
+        <v>84</v>
+      </c>
       <c r="S83" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="T83" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>319</v>
+        <v>37</v>
+      </c>
+      <c r="E84" s="2">
+        <v>666</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>320</v>
+        <v>244</v>
+      </c>
+      <c r="J84" s="2">
+        <v>0</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="T84" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>247</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="S85" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T85" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>322</v>
+        <v>249</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>247</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="S86" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="T86" s="2" t="s">
-        <v>331</v>
+        <v>250</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="L87" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="S87" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="M87" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="S87" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="T87" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E88" s="2">
-        <v>0</v>
+        <v>138</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="I88" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="S88" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="J88" s="2">
-        <v>777</v>
-      </c>
-      <c r="L88" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="M88" s="2">
-        <v>777</v>
-      </c>
-      <c r="O88" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="P88" s="2">
-        <v>777</v>
-      </c>
-      <c r="S88" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="T88" s="2" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="E89" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J89" s="2">
+        <v>777</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M89" s="2">
+        <v>777</v>
+      </c>
+      <c r="O89" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="J89" s="2">
-        <v>666</v>
+      <c r="P89" s="2">
+        <v>777</v>
       </c>
       <c r="S89" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="T89" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E90" s="2">
+        <v>1</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="J90" s="2">
         <v>666</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="J90" s="2">
-        <v>1</v>
       </c>
       <c r="S90" s="2" t="s">
         <v>253</v>
       </c>
       <c r="T90" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E91" s="2">
-        <v>1</v>
+        <v>666</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="J91" s="2">
         <v>1</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="T91" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
@@ -3815,54 +3824,48 @@
         <v>256</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E92" s="2">
+        <v>1</v>
+      </c>
+      <c r="I92" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="H92" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="J92" s="2">
-        <v>888</v>
+        <v>1</v>
       </c>
       <c r="S92" s="2" t="s">
         <v>257</v>
       </c>
       <c r="T92" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E93" s="2">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="J93" s="2">
-        <v>777</v>
-      </c>
-      <c r="L93" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="M93" s="2">
-        <v>777</v>
+        <v>888</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="T93" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
@@ -3870,74 +3873,77 @@
         <v>261</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>173</v>
+        <v>262</v>
       </c>
       <c r="E94" s="2">
         <v>2</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J94" s="2">
-        <v>666</v>
+        <v>777</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M94" s="2">
-        <v>666</v>
-      </c>
-      <c r="O94" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="P94" s="2">
-        <v>666</v>
+        <v>777</v>
       </c>
       <c r="S94" s="2" t="s">
         <v>261</v>
       </c>
       <c r="T94" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E95" s="2">
+        <v>2</v>
+      </c>
+      <c r="I95" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="J95" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="O95" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="P95" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="T95" s="2" t="s">
-        <v>330</v>
+        <v>269</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>270</v>
@@ -3946,21 +3952,21 @@
         <v>271</v>
       </c>
       <c r="S96" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="T96" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>334</v>
@@ -3972,169 +3978,163 @@
         <v>271</v>
       </c>
       <c r="S97" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="T97" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="I98" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E98" s="2">
-        <v>0</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="J98" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="L98" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="M98" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="O98" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="S98" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="P98" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="S98" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="T98" s="2" t="s">
-        <v>273</v>
+        <v>332</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="E99" s="2">
         <v>0</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>272</v>
       </c>
+      <c r="L99" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="O99" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="P99" s="2" t="s">
+        <v>272</v>
+      </c>
       <c r="S99" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="T99" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E100" s="2">
-        <v>777</v>
+        <v>0</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="J100" s="2">
-        <v>0</v>
+        <v>267</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="S100" s="2" t="s">
         <v>267</v>
       </c>
       <c r="T100" s="2" t="s">
-        <v>336</v>
+        <v>275</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E101" s="2">
+        <v>777</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="J101" s="2">
         <v>0</v>
       </c>
-      <c r="I101" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="J101" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="S101" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="T101" s="2" t="s">
-        <v>277</v>
+        <v>335</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E102" s="2">
-        <v>777</v>
+        <v>0</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="J102" s="2">
-        <v>0</v>
+        <v>268</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="S102" s="2" t="s">
         <v>268</v>
       </c>
       <c r="T102" s="2" t="s">
-        <v>337</v>
+        <v>277</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>278</v>
+        <v>37</v>
+      </c>
+      <c r="E103" s="2">
+        <v>777</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="J103" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L103" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="M103" s="2" t="s">
-        <v>280</v>
+      <c r="J103" s="2">
+        <v>0</v>
       </c>
       <c r="S103" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="T103" s="2" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
@@ -4148,25 +4148,25 @@
         <v>270</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="I104" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="J104" s="3" t="s">
-        <v>283</v>
+      <c r="J104" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="L104" s="2" t="s">
         <v>276</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="S104" s="2" t="s">
         <v>270</v>
       </c>
       <c r="T104" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
@@ -4174,25 +4174,31 @@
         <v>270</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="G105" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="I105" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="H105" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J105" s="2">
-        <v>0</v>
+      <c r="J105" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="S105" s="2" t="s">
         <v>270</v>
       </c>
       <c r="T105" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
@@ -4203,10 +4209,10 @@
         <v>21</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I106" s="2" t="s">
         <v>270</v>
@@ -4218,87 +4224,93 @@
         <v>270</v>
       </c>
       <c r="T106" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>293</v>
+        <v>270</v>
+      </c>
+      <c r="J107" s="2">
+        <v>0</v>
       </c>
       <c r="S107" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="T107" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I108" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E108" s="2">
-        <v>0</v>
-      </c>
-      <c r="I108" s="2" t="s">
+      <c r="J108" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="S108" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="J108" s="2">
-        <v>777</v>
-      </c>
-      <c r="L108" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="M108" s="2">
-        <v>7777</v>
-      </c>
-      <c r="S108" s="2" t="s">
-        <v>292</v>
-      </c>
       <c r="T108" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C109" s="2">
+        <v>262</v>
+      </c>
+      <c r="E109" s="2">
         <v>0</v>
       </c>
-      <c r="D109" s="2">
-        <v>150</v>
+      <c r="I109" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="J109" s="2">
+        <v>777</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="M109" s="2">
+        <v>7777</v>
       </c>
       <c r="S109" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="T109" s="2" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>34</v>
@@ -4307,17 +4319,37 @@
         <v>0</v>
       </c>
       <c r="D110" s="2">
+        <v>150</v>
+      </c>
+      <c r="S110" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="T110" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C111" s="2">
+        <v>0</v>
+      </c>
+      <c r="D111" s="2">
         <v>100</v>
       </c>
-      <c r="S110" s="2" t="s">
+      <c r="S111" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="T110" s="2" t="s">
+      <c r="T111" s="2" t="s">
         <v>299</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T110" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T111" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/BCRPP_QC_R_Excel_Program/Core QC Rules/BCRPP Warning Rules.xlsx
+++ b/BCRPP_QC_R_Excel_Program/Core QC Rules/BCRPP Warning Rules.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24B4DBE-9B55-504E-AFE0-D755A47BE9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800E39F4-F86F-3F48-9534-790D372CEE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-1460" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="340">
   <si>
     <t>Variable</t>
   </si>
@@ -942,9 +942,6 @@
   </si>
   <si>
     <t>Verify: age at alcohol inititation (alcohol_init) is larger than the age at record date (age)</t>
-  </si>
-  <si>
-    <t>as</t>
   </si>
   <si>
     <t>!alcohol_status %in% c(1, 4, 888)</t>
@@ -1433,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="P96" sqref="P96"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1600,8 +1597,8 @@
       <c r="B5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>302</v>
+      <c r="C5" s="2">
+        <v>0</v>
       </c>
       <c r="D5" s="2">
         <v>10</v>
@@ -2438,7 +2435,7 @@
         <v>137</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>139</v>
@@ -2476,7 +2473,7 @@
         <v>137</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>139</v>
@@ -2514,7 +2511,7 @@
         <v>146</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>139</v>
@@ -2552,7 +2549,7 @@
         <v>149</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>139</v>
@@ -2590,7 +2587,7 @@
         <v>152</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>139</v>
@@ -2628,7 +2625,7 @@
         <v>155</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>139</v>
@@ -2666,7 +2663,7 @@
         <v>158</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>139</v>
@@ -2704,7 +2701,7 @@
         <v>161</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>139</v>
@@ -2742,7 +2739,7 @@
         <v>164</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>139</v>
@@ -2780,7 +2777,7 @@
         <v>167</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>139</v>
@@ -2988,13 +2985,13 @@
         <v>175</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>170</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S61" s="2" t="s">
         <v>189</v>
@@ -3020,7 +3017,7 @@
         <v>170</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="S62" s="2" t="s">
         <v>176</v>
@@ -3046,7 +3043,7 @@
         <v>195</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S63" s="2" t="s">
         <v>193</v>
@@ -3092,19 +3089,19 @@
         <v>198</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>195</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="S65" s="2" t="s">
         <v>198</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
@@ -3124,7 +3121,7 @@
         <v>195</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S66" s="2" t="s">
         <v>201</v>
@@ -3150,7 +3147,7 @@
         <v>195</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>201</v>
@@ -3524,7 +3521,7 @@
         <v>99</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>235</v>
@@ -3639,13 +3636,13 @@
         <v>246</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>247</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="S85" s="2" t="s">
         <v>246</v>
@@ -3665,13 +3662,13 @@
         <v>249</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>247</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="S86" s="2" t="s">
         <v>249</v>
@@ -3688,22 +3685,22 @@
         <v>21</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>247</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="S87" s="2" t="s">
         <v>251</v>
       </c>
       <c r="T87" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
@@ -3714,28 +3711,28 @@
         <v>138</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>249</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>251</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="S88" s="2" t="s">
         <v>246</v>
       </c>
       <c r="T88" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
@@ -3943,7 +3940,7 @@
         <v>266</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>270</v>
@@ -3955,7 +3952,7 @@
         <v>266</v>
       </c>
       <c r="T96" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
@@ -3969,7 +3966,7 @@
         <v>267</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I97" s="2" t="s">
         <v>270</v>
@@ -3981,7 +3978,7 @@
         <v>267</v>
       </c>
       <c r="T97" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
@@ -3995,7 +3992,7 @@
         <v>268</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I98" s="2" t="s">
         <v>270</v>
@@ -4007,7 +4004,7 @@
         <v>268</v>
       </c>
       <c r="T98" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
@@ -4088,7 +4085,7 @@
         <v>267</v>
       </c>
       <c r="T101" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
@@ -4134,7 +4131,7 @@
         <v>268</v>
       </c>
       <c r="T103" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
@@ -4325,7 +4322,7 @@
         <v>297</v>
       </c>
       <c r="T110" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">

--- a/BCRPP_QC_R_Excel_Program/Core QC Rules/BCRPP Warning Rules.xlsx
+++ b/BCRPP_QC_R_Excel_Program/Core QC Rules/BCRPP Warning Rules.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800E39F4-F86F-3F48-9534-790D372CEE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01DFE61-93D8-FB46-A49E-063A2D8E004C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1460" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -782,9 +782,6 @@
     <t>ocuse_ever</t>
   </si>
   <si>
-    <t>Verify: ocuse_dur is outside range 0-84 months</t>
-  </si>
-  <si>
     <t>ocuse_start</t>
   </si>
   <si>
@@ -1056,6 +1053,9 @@
   </si>
   <si>
     <t>smoking_amt should be 0 or 777 if smoking_status is 2, 3, or 4</t>
+  </si>
+  <si>
+    <t>Verify: ocuse_dur is outside range 0-500 months</t>
   </si>
 </sst>
 </file>
@@ -1430,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="O76" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="T86" sqref="T86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2435,7 +2435,7 @@
         <v>137</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>139</v>
@@ -2473,7 +2473,7 @@
         <v>137</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>139</v>
@@ -2511,7 +2511,7 @@
         <v>146</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>139</v>
@@ -2549,7 +2549,7 @@
         <v>149</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>139</v>
@@ -2587,7 +2587,7 @@
         <v>152</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>139</v>
@@ -2625,7 +2625,7 @@
         <v>155</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>139</v>
@@ -2663,7 +2663,7 @@
         <v>158</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>139</v>
@@ -2701,7 +2701,7 @@
         <v>161</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>139</v>
@@ -2739,7 +2739,7 @@
         <v>164</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>139</v>
@@ -2777,7 +2777,7 @@
         <v>167</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>139</v>
@@ -2910,7 +2910,7 @@
         <v>182</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>174</v>
@@ -2922,7 +2922,7 @@
         <v>174</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
@@ -2985,13 +2985,13 @@
         <v>175</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>170</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="S61" s="2" t="s">
         <v>189</v>
@@ -3017,7 +3017,7 @@
         <v>170</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S62" s="2" t="s">
         <v>176</v>
@@ -3043,7 +3043,7 @@
         <v>195</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="S63" s="2" t="s">
         <v>193</v>
@@ -3089,19 +3089,19 @@
         <v>198</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>195</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="S65" s="2" t="s">
         <v>198</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
@@ -3121,7 +3121,7 @@
         <v>195</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="S66" s="2" t="s">
         <v>201</v>
@@ -3147,7 +3147,7 @@
         <v>195</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>201</v>
@@ -3521,7 +3521,7 @@
         <v>99</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>235</v>
@@ -3636,71 +3636,71 @@
         <v>246</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>247</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S85" s="2" t="s">
         <v>246</v>
       </c>
       <c r="T85" s="2" t="s">
-        <v>248</v>
+        <v>339</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>247</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S86" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="T86" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="T86" s="2" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>247</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S87" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T87" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
@@ -3711,28 +3711,28 @@
         <v>138</v>
       </c>
       <c r="G88" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="J88" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="H88" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="J88" s="2" t="s">
+      <c r="L88" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="M88" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="L88" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="M88" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="S88" s="2" t="s">
         <v>246</v>
       </c>
       <c r="T88" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
@@ -3752,13 +3752,13 @@
         <v>777</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M89" s="2">
         <v>777</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P89" s="2">
         <v>777</v>
@@ -3767,12 +3767,12 @@
         <v>247</v>
       </c>
       <c r="T89" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>37</v>
@@ -3781,21 +3781,21 @@
         <v>1</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J90" s="2">
         <v>666</v>
       </c>
       <c r="S90" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="T90" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="T90" s="2" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>37</v>
@@ -3804,21 +3804,21 @@
         <v>666</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J91" s="2">
         <v>1</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="T91" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>37</v>
@@ -3827,76 +3827,76 @@
         <v>1</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J92" s="2">
         <v>1</v>
       </c>
       <c r="S92" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="T92" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="T92" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J93" s="2">
         <v>888</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="T93" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="E94" s="2">
         <v>2</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J94" s="2">
         <v>777</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M94" s="2">
         <v>777</v>
       </c>
       <c r="S94" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="T94" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>173</v>
@@ -3905,111 +3905,111 @@
         <v>2</v>
       </c>
       <c r="I95" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="L95" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="J95" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="L95" s="2" t="s">
+      <c r="M95" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="O95" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="M95" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="O95" s="2" t="s">
+      <c r="P95" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="S95" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="T95" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="P95" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="S95" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="T95" s="2" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H96" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="S96" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="T96" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J96" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="S96" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="T96" s="2" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I97" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="J97" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="J97" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="S97" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="T97" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I98" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="J98" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="S98" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="T98" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>173</v>
@@ -4018,33 +4018,33 @@
         <v>0</v>
       </c>
       <c r="I99" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="L99" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="J99" s="2" t="s">
+      <c r="M99" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="O99" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="P99" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="S99" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="T99" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="L99" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="M99" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="O99" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="P99" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="S99" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="T99" s="2" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>37</v>
@@ -4053,21 +4053,21 @@
         <v>0</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S100" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="T100" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>37</v>
@@ -4076,21 +4076,21 @@
         <v>777</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J101" s="2">
         <v>0</v>
       </c>
       <c r="S101" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="T101" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>37</v>
@@ -4099,21 +4099,21 @@
         <v>0</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S102" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="T102" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>37</v>
@@ -4122,192 +4122,192 @@
         <v>777</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J103" s="2">
         <v>0</v>
       </c>
       <c r="S103" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="T103" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>138</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H104" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J104" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="I104" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="J104" s="2" t="s">
+      <c r="L104" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="M104" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="L104" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="M104" s="2" t="s">
+      <c r="S104" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="T104" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="S104" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="T104" s="2" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>138</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H105" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J105" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I105" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="J105" s="3" t="s">
+      <c r="L105" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="M105" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="L105" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="M105" s="2" t="s">
+      <c r="S105" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="T105" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="S105" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="T105" s="2" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J106" s="2">
         <v>0</v>
       </c>
       <c r="S106" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="T106" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J107" s="2">
         <v>0</v>
       </c>
       <c r="S107" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="T107" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G108" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H108" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="H108" s="2" t="s">
+      <c r="I108" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="I108" s="2" t="s">
+      <c r="J108" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="J108" s="2" t="s">
+      <c r="S108" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="T108" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="S108" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="T108" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E109" s="2">
         <v>0</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J109" s="2">
         <v>777</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M109" s="2">
         <v>7777</v>
       </c>
       <c r="S109" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="T109" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>34</v>
@@ -4319,15 +4319,15 @@
         <v>150</v>
       </c>
       <c r="S110" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="T110" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>34</v>
@@ -4339,10 +4339,10 @@
         <v>100</v>
       </c>
       <c r="S111" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="T111" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="T111" s="2" t="s">
-        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/BCRPP_QC_R_Excel_Program/Core QC Rules/BCRPP Warning Rules.xlsx
+++ b/BCRPP_QC_R_Excel_Program/Core QC Rules/BCRPP Warning Rules.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01DFE61-93D8-FB46-A49E-063A2D8E004C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7F6EE2-45C3-1549-831C-875F863C8E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1460" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="342">
   <si>
     <t>Variable</t>
   </si>
@@ -1056,6 +1056,12 @@
   </si>
   <si>
     <t>Verify: ocuse_dur is outside range 0-500 months</t>
+  </si>
+  <si>
+    <t>!hrtuse_ep %in% c(0,888)</t>
+  </si>
+  <si>
+    <t>!hrtuse_eonly %in% c(0,888)</t>
   </si>
 </sst>
 </file>
@@ -1430,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O76" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="T86" sqref="T86"/>
+    <sheetView tabSelected="1" topLeftCell="F86" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J98" sqref="J98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -3972,7 +3978,7 @@
         <v>269</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="S97" s="2" t="s">
         <v>266</v>
@@ -3998,7 +4004,7 @@
         <v>269</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>270</v>
+        <v>341</v>
       </c>
       <c r="S98" s="2" t="s">
         <v>267</v>

--- a/BCRPP_QC_R_Excel_Program/Core QC Rules/BCRPP Warning Rules.xlsx
+++ b/BCRPP_QC_R_Excel_Program/Core QC Rules/BCRPP Warning Rules.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7F6EE2-45C3-1549-831C-875F863C8E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AF73AA-04F8-5D46-AE2D-F8160668CA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51200" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$110</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="349">
   <si>
     <t>Variable</t>
   </si>
@@ -230,9 +230,6 @@
     <t>agemenarche</t>
   </si>
   <si>
-    <t>Verify: agemenarche is outside of range 8-16</t>
-  </si>
-  <si>
     <t>height</t>
   </si>
   <si>
@@ -344,724 +341,748 @@
     <t>age_preg2 != 666 &amp; age_preg1 != 666 &amp;  age_preg2 &gt; age_preg1 |age_preg1 == 888 | age_preg2 == 888</t>
   </si>
   <si>
-    <t>parity &gt;= 2 &amp; parity != 888 &amp; parity != 777</t>
-  </si>
-  <si>
-    <t>parity ≥ 2, ages of pregnancy variables not consistent</t>
-  </si>
-  <si>
     <t>age_preg3,age_preg2,age_preg1</t>
   </si>
   <si>
-    <t>!age_preg3 %in% c(666) &amp; !age_preg2 %in% c(666) &amp; !age_preg1 %in% c(666) &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1| age_preg3 == 888 | age_preg2 == 888 | age_preg1 == 888</t>
-  </si>
-  <si>
-    <t>parity &gt;=3 &amp; parity != 888 &amp; parity != 777</t>
-  </si>
-  <si>
-    <t>parity ≥ 3, ages of pregnancy variables not consistent</t>
-  </si>
-  <si>
     <t>age_preg4,age_preg3,age_preg2,age_preg1</t>
   </si>
   <si>
-    <t>!age_preg4 %in% c(666) &amp; age_preg4 &gt; age_preg3 &amp; !age_preg3 %in% c(666) &amp; !age_preg2 %in% c(666) &amp; !age_preg1 %in% c(666) &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1 | age_preg4 == 888 | age_preg3 == 888 | age_preg2 == 888 | age_preg1 == 888</t>
-  </si>
-  <si>
-    <t>parity &gt;=4 &amp; parity != 888 &amp; parity != 777</t>
-  </si>
-  <si>
-    <t>parity ≥ 4, ages of pregnancy variables not consistent</t>
-  </si>
-  <si>
     <t>age_preg5,age_preg4,age_preg3,age_preg2,age_preg1</t>
   </si>
   <si>
-    <t>!age_preg5 %in% c(666) &amp; age_preg5 &gt; age_preg4 &amp; !age_preg4 %in% c(666) &amp; age_preg4 &gt; age_preg3 &amp; !age_preg3 %in% c(666) &amp; !age_preg2 %in% c(666) &amp; !age_preg1 %in% c(666) &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1 | age_preg5 == 888| age_preg4 == 888 | age_preg3 == 888 | age_preg2 == 888 | age_preg1 == 888</t>
-  </si>
-  <si>
-    <t>parity &gt;=5 &amp; parity != 888 &amp; parity != 777</t>
-  </si>
-  <si>
-    <t>parity ≥ 5, ages of pregnancy variables not consistent</t>
-  </si>
-  <si>
     <t>age_preg6,age_preg5,age_preg4,age_preg3,age_preg2,age_preg1</t>
   </si>
   <si>
-    <t>!age_preg6 %in% c(666) &amp; age_preg6 &gt; age_preg5 &amp; !age_preg5 %in% c(666)&amp; age_preg5 &gt; age_preg4 &amp; !age_preg4 %in% c(666) &amp; age_preg4 &gt; age_preg3 &amp; !age_preg3 %in% c(666)&amp; !age_preg2 %in% c(666) &amp; !age_preg1 %in% c(666) &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1 | age_preg6 == 888 | age_preg5 == 888 | age_preg4 == 888 | age_preg3 == 888 | age_preg2 == 888 | age_preg1 == 888</t>
-  </si>
-  <si>
-    <t>parity &gt;=6 &amp; parity != 888 &amp; parity != 777</t>
-  </si>
-  <si>
-    <t>parity ≥ 6, ages of pregnancy variables not consistent</t>
-  </si>
-  <si>
     <t>age_preg7,age_preg6,age_preg5,age_preg4,age_preg3,age_preg2,age_preg1</t>
   </si>
   <si>
-    <t>!age_preg7 %in% c(666) &amp; age_preg7 &gt; age_preg6 &amp; !age_preg6 %in% c(666) &amp; age_preg6 &gt; age_preg5 &amp; !age_preg5 %in% c(666) &amp; age_preg5 &gt; age_preg4 &amp; !age_preg4  %in% c(666) &amp; age_preg4 &gt; age_preg3 &amp; !age_preg3 %in% c(666) &amp; !age_preg2 %in% c(666) &amp; !age_preg1 %in% c(666) &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1| age_preg7 == 888 | age_preg6 == 888 | age_preg5 == 888 | age_preg4 == 888 | age_preg3 == 888 | age_preg2 == 888 |age_preg1 == 888</t>
-  </si>
-  <si>
-    <t>parity &gt;=7 &amp; parity != 888 &amp; parity != 777</t>
-  </si>
-  <si>
-    <t>parity ≥ 7, ages of pregnancy variables not consistent</t>
-  </si>
-  <si>
     <t>age_preg8,age_preg7,age_preg6,age_preg5,age_preg4,age_preg3,age_preg2,age_preg1</t>
   </si>
   <si>
-    <t>!age_preg8 %in% c(666) &amp; age_preg8 &gt; age_preg7 &amp; !age_preg7 %in% c(666) &amp; age_preg7 &gt; age_preg6 &amp; !age_preg6 %in% c(666) &amp; age_preg6 &gt; age_preg5 &amp; !age_preg5 %in% c(666)  &amp; age_preg5 &gt; age_preg4 &amp; !age_preg4 %in% c(666) &amp; age_preg4 &gt; age_preg3 &amp; !age_preg3 %in% c(666) &amp; !age_preg2 %in% c(666) &amp; !age_preg1 %in% c(666) &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1 | age_preg8 == 888 | age_preg7 == 888 | age_preg6 == 888 | age_preg5 == 888 | age_preg4 == 888 | age_preg3 == 888 | age_preg2 == 888 |age_preg1 == 888</t>
-  </si>
-  <si>
-    <t>parity &gt;=8 &amp; parity != 888 &amp; parity != 777</t>
-  </si>
-  <si>
-    <t>parity ≥ 8, ages of pregnancy variables not consistent</t>
-  </si>
-  <si>
     <t>age_preg9,age_preg8,age_preg7,age_preg6,age_preg5,age_preg4,age_preg3,age_preg2,age_preg1</t>
   </si>
   <si>
-    <t>!age_preg9 %in% c(666) &amp; age_preg9 &gt; age_preg8 &amp; !age_preg8 %in% c(666) &amp; age_preg8 &gt; age_preg7 &amp; !age_preg7 %in% c(666) &amp; age_preg7 &gt; age_preg6 &amp; !age_preg6 %in% c(666) &amp; age_preg6 &gt; age_preg5 &amp; !age_preg5 %in% c(666) &amp; age_preg5 &gt; age_preg4 &amp; !age_preg4 %in% c(666) &amp; age_preg4 &gt; age_preg3 &amp; !age_preg3 %in% c(666) &amp; !age_preg2 %in% c(666) &amp; !age_preg1 %in% c(666) &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1 | age_preg9 == 888 | age_preg8 == 888 | age_preg7 == 888 | age_preg6 == 888 | age_preg5 == 888 | age_preg4 == 888 | age_preg3 == 888 | age_preg2 == 888 | age_preg1 == 888</t>
-  </si>
-  <si>
     <t xml:space="preserve">parity </t>
   </si>
   <si>
-    <t>parity &gt;=9 &amp; parity != 888 &amp; parity != 777</t>
-  </si>
-  <si>
-    <t>parity ≥ 9, ages of pregnancy variables not consistent</t>
-  </si>
-  <si>
     <t>age_preg10,age_preg9,age_preg8,age_preg7,age_preg6,age_preg5,age_preg4,age_preg3,age_preg2,age_preg1</t>
   </si>
   <si>
-    <t>!age_preg10 %in% c(666) &amp; age_preg10 &gt; age_preg9 &amp; !age_preg9 %in% c(666) &amp; age_preg9 &gt; age_preg8 &amp; !age_preg8 %in% c(666)&amp; age_preg8 &gt; age_preg7 &amp; !age_preg7 %in% c(666)&amp; age_preg7 &gt; age_preg6 &amp; !age_preg6 %in% c(666) &amp; age_preg6 &gt; age_preg5 &amp; !age_preg5 %in% c(666) &amp; age_preg5 &gt; age_preg4 &amp; !age_preg4 %in% c(666) &amp; age_preg4 &gt; age_preg3 &amp; !age_preg3 %in% c(666) &amp; !age_preg2 %in% c(666) &amp; !age_preg1 %in% c(666) &amp; age_preg3 &gt; age_preg2  &amp; age_preg2 &gt; age_preg1 | age_preg10 == 888 | age_preg9 == 888 | age_preg8 == 888 | age_preg7 == 888 | age_preg7 == 888 | age_preg6 == 888 | age_preg5 == 888 | age_preg4 == 888 | age_preg3 == 888 | age_preg2 == 888 | age_preg1 == 888</t>
+    <t>breastfeed_dur_b1</t>
+  </si>
+  <si>
+    <t>crossrange2.warnings</t>
+  </si>
+  <si>
+    <t>parous</t>
+  </si>
+  <si>
+    <t>parous == 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parity &gt;= 1 &amp; parity != 888  </t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b1 is outside range 0-24 months</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parity &gt;= 2   &amp; parity != 888  </t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b2 is outside range 0-24 months</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parity &gt;= 3  &amp; parity != 888  </t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b3 is outside range 0-24 months</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parity &gt;= 4  &amp; parity != 888  </t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b4 is outside range 0-24 months</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parity &gt;= 5  &amp; parity != 888  </t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b5 is outside range 0-24 months</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parity &gt;= 6  &amp; parity != 888  </t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b6 is outside range 0-12 months</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parity &gt;= 7  &amp; parity != 888  </t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b7 is outside range 0-12 months</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parity &gt;= 8  &amp; parity != 888  </t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b8 is outside range 0-12 months</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parity &gt;=9  &amp; parity != 888  </t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b9 is outside range 0-12 months</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parity &gt;= 10  &amp; parity != 888  </t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur_b10 is outside range 0-12 months</t>
+  </si>
+  <si>
+    <t>alcohol_status</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 888</t>
+  </si>
+  <si>
+    <t>alcohol_status does not have recognized values</t>
+  </si>
+  <si>
+    <t>crossvalid3.warnings</t>
+  </si>
+  <si>
+    <t>alcohol_init</t>
+  </si>
+  <si>
+    <t>alcohol_stop</t>
+  </si>
+  <si>
+    <t>alcohol_dur</t>
+  </si>
+  <si>
+    <t>alcohol_status is 4 (never drinker); not consistent with alcohol_init, alochol_stop or alcohol_dur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alcohol_status is 1 (current drinker), alcohol_stop expected to be 666 </t>
+  </si>
+  <si>
+    <t>alcohol_init &gt; 10 &amp; alcohol_init &lt;= 70 | alcohol_init ==888</t>
+  </si>
+  <si>
+    <t>!alcohol_status %in% c(4, 777,888)</t>
+  </si>
+  <si>
+    <t>Verify: alcohol_init is not within range 10-70 years</t>
+  </si>
+  <si>
+    <t>alcohol_init,age</t>
+  </si>
+  <si>
+    <t>!alcohol_init %in% c(777,888)</t>
+  </si>
+  <si>
+    <t>2, 4</t>
+  </si>
+  <si>
+    <t>Verify: values of alcohol_init and alcohol_status are not consistent</t>
+  </si>
+  <si>
+    <t>alcohol_amt</t>
+  </si>
+  <si>
+    <t>alcohol_amt &gt; 0 &amp; alcohol_amt &lt;= 25 | alcohol_amt == 888</t>
+  </si>
+  <si>
+    <t>Verify: alcohol_amt is outside range 0-25 gms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alcohol_stop </t>
+  </si>
+  <si>
+    <t>Verify: alcohol_stop is outside range 0-100 years</t>
+  </si>
+  <si>
+    <t>alcohol_dur &gt; 0 &amp; alcohol_dur &lt;= 50 | alcohol_dur == 888</t>
+  </si>
+  <si>
+    <t>Verify: alcohol_dur is outside range 0-50 years</t>
+  </si>
+  <si>
+    <t>smoking_init</t>
+  </si>
+  <si>
+    <t>smoking_init &gt; 0 &amp; smoking_init &lt;= 70 | smoking_init == 888</t>
+  </si>
+  <si>
+    <t>smoking_status</t>
+  </si>
+  <si>
+    <t>!smoking_status %in% c(4,777,888)</t>
+  </si>
+  <si>
+    <t>Verify: smoking_init outside  range 0-70 years</t>
+  </si>
+  <si>
+    <t>smoking_amt</t>
+  </si>
+  <si>
+    <t>smoking_amt &gt; 0 &amp; smoking_amt &lt;= 60 | smoking_amt == 888</t>
+  </si>
+  <si>
+    <t>Verify: smoking_amt is outside  range 0-60 cigarrettes</t>
+  </si>
+  <si>
+    <t>smoking_stop</t>
+  </si>
+  <si>
+    <t>smoking_stop &gt; 0 &amp; smoking_stop &lt;= 100 | smoking_stop == 888 | smoking_stop == 666</t>
+  </si>
+  <si>
+    <t>Verify: smoking_stop is outside range 0-100 years</t>
+  </si>
+  <si>
+    <t>smoking_dur</t>
+  </si>
+  <si>
+    <t>smoking_stop != 666</t>
+  </si>
+  <si>
+    <t>Verify: smoking_dur is not within range 0-50 years</t>
+  </si>
+  <si>
+    <t>smoking_init,smoking_dur,smoking_stop</t>
+  </si>
+  <si>
+    <t>!smoking_init %in% c(777,888)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !smoking_stop %in% c(666,777,888)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smoking_init </t>
+  </si>
+  <si>
+    <t>smoking_status is 4 (never smoker) ; not consistent with smoking_init, smoking_stop or smoking_dur</t>
+  </si>
+  <si>
+    <t>Verify: values of smoking_status and smoking_stop are not consistent</t>
+  </si>
+  <si>
+    <t>smoking_dur,age</t>
+  </si>
+  <si>
+    <t>smoking_dur &lt; age - 7 | smoking_dur == 888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age </t>
+  </si>
+  <si>
+    <t>!is.na(age)</t>
+  </si>
+  <si>
+    <t>Verify: smoking_dur ≥ age - 7 years</t>
+  </si>
+  <si>
+    <t>Biopsies_yesno</t>
+  </si>
+  <si>
+    <t>Biopsies_number</t>
+  </si>
+  <si>
+    <t>Verify: value of Biopsies_yesno = 1 not consistent with Biopsies_number</t>
+  </si>
+  <si>
+    <t>Verify: values of Biopsies_yesno = 0, not consistent with Biopsies_number</t>
+  </si>
+  <si>
+    <t>Biopsies_number == 888</t>
+  </si>
+  <si>
+    <t>Verify: values of Biopsies_yesno = 888,  not consistent with Biopsies_number</t>
+  </si>
+  <si>
+    <t>BBD_history</t>
+  </si>
+  <si>
+    <t>BBD_number</t>
+  </si>
+  <si>
+    <t>Verify: BBD_history = 1, not consistent with BBD_number</t>
+  </si>
+  <si>
+    <t>Verify: BBD_history = 0, not consistent with BBD_number</t>
+  </si>
+  <si>
+    <t>Verify: BBD_history = 888, not consistent with BBD_number</t>
+  </si>
+  <si>
+    <t>breastfeed</t>
+  </si>
+  <si>
+    <t>Verify: parous is 0, not consistent with age_preg1, parity, or breastfeed</t>
+  </si>
+  <si>
+    <t>Verify: parous is 888, not consistent with age_preg1, parity, or breastfeed</t>
+  </si>
+  <si>
+    <t>!breastfeed %in% c(777,888) &amp; !age_preg1 %in% c(777,888)</t>
+  </si>
+  <si>
+    <t>Verify: parous is not consistent with age_preg1, parity, or breastfeed</t>
+  </si>
+  <si>
+    <t>breastfeed_dur</t>
+  </si>
+  <si>
+    <t>Verify: parous is 0, not consistent with breastfeed_dur</t>
+  </si>
+  <si>
+    <t>breastfeed is 0 but breastfeed_dur is not 666</t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur is outside range 0-84 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">breastfeed </t>
+  </si>
+  <si>
+    <t>Verify: breastfeed_dur is 666, not consistent with breastfeed</t>
+  </si>
+  <si>
+    <t>ocuse_dur</t>
+  </si>
+  <si>
+    <t>ocuse_ever</t>
+  </si>
+  <si>
+    <t>ocuse_start</t>
+  </si>
+  <si>
+    <t>Verify: ocuse_start is outside range 16-58 years</t>
+  </si>
+  <si>
+    <t>ocuse_stop</t>
+  </si>
+  <si>
+    <t>ocuse_ever is 0 (never user): not consistent with ocuse_start, or ocuse_stop, or ocuse_dur</t>
+  </si>
+  <si>
+    <t>ocuse_current</t>
+  </si>
+  <si>
+    <t>Verify: ocuse_current is 1, not consistent with ocuse_stop</t>
+  </si>
+  <si>
+    <t>Verify: ocuse_stop is 666, not consistent with ocuse_current</t>
+  </si>
+  <si>
+    <t>othcontracep_current</t>
+  </si>
+  <si>
+    <t>othcontracep_ever</t>
+  </si>
+  <si>
+    <t>Verify: othcontracep_current is 1, not consistent with othcontracep_ever</t>
+  </si>
+  <si>
+    <t>othcontracep_ever != 0</t>
+  </si>
+  <si>
+    <t>Verify: othcontracep_current is 888, not consistent with othcontracep_ever</t>
+  </si>
+  <si>
+    <t>meno_status</t>
+  </si>
+  <si>
+    <t>crossvalid2.warnings</t>
+  </si>
+  <si>
+    <t>meno_age</t>
+  </si>
+  <si>
+    <t>meno_reason</t>
+  </si>
+  <si>
+    <t>Verify: meno_status is 2 (pre-menopausal), not consistent with meno_age and meno_reason</t>
+  </si>
+  <si>
+    <t>hrt_dur</t>
+  </si>
+  <si>
+    <t>hrtep_dur</t>
+  </si>
+  <si>
+    <t>hrteonly_dur</t>
+  </si>
+  <si>
+    <t>Verify:  verify values of hrt_dur, hrtep_dur, hrteonly_dur with meno_status = 2 (pre-menopausal)</t>
+  </si>
+  <si>
+    <t>hrtuse</t>
+  </si>
+  <si>
+    <t>!hrtuse %in% c(0,888)</t>
+  </si>
+  <si>
+    <t>666, 777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hrtuse is 0 (never user):  not consistent with hrt_dur, hrtep_dur, or hrteonly_dur </t>
+  </si>
+  <si>
+    <t>hrtuse_ep</t>
+  </si>
+  <si>
+    <t>Verify:  hrtuse_ep is 0 (never user), not consistent with hrtep_dur</t>
+  </si>
+  <si>
+    <t>hrtuse_eonly</t>
+  </si>
+  <si>
+    <t>hrtuse_eonly is 0 ( never user) but hrteonly_dur is not 666 or777</t>
+  </si>
+  <si>
+    <t>hrtuse == 1</t>
+  </si>
+  <si>
+    <t>hrtuse_ep == 1</t>
+  </si>
+  <si>
+    <t>hrtuse_eonly == 1</t>
+  </si>
+  <si>
+    <t>hrtuse is not 1 but hrtuse_eonly and hrtuse_ep are 1 (current user)</t>
+  </si>
+  <si>
+    <t>hrtuse is 0 (never user), not consistent with hrtuse_eponly</t>
+  </si>
+  <si>
+    <t>hrtuse is 0 (never user), not consistent with hrtuse_eonly</t>
+  </si>
+  <si>
+    <t>screen_start</t>
+  </si>
+  <si>
+    <t>screen_start &gt;= 16 &amp; screen_start &lt;= 90 | screen_start == 888</t>
+  </si>
+  <si>
+    <t>screen_ever</t>
+  </si>
+  <si>
+    <t>!screen_ever %in% c(0,888)</t>
+  </si>
+  <si>
+    <t>Verify: screen_start is outside range 16-90 years</t>
+  </si>
+  <si>
+    <t>lastscreen_year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">screen_ever is 0, not consistent with lastscreen_year or screen_start </t>
+  </si>
+  <si>
+    <t>pa_mets</t>
+  </si>
+  <si>
+    <t>pa_pct</t>
+  </si>
+  <si>
+    <t>pa_pct is not within range 0-100 %</t>
+  </si>
+  <si>
+    <t>alcohol_init &lt;= age</t>
+  </si>
+  <si>
+    <t>Verify: age at alcohol inititation (alcohol_init) is larger than the age at record date (age)</t>
+  </si>
+  <si>
+    <t>!alcohol_status %in% c(1, 4, 888)</t>
+  </si>
+  <si>
+    <t>!alcohol_status %in% c(4 ,888)</t>
+  </si>
+  <si>
+    <t>alcohol_stop &gt; 0 &amp; alcohol_stop &lt;= 100 | alcohol_stop ==888 | alcohol_stop == 666</t>
+  </si>
+  <si>
+    <t>!smoking_status %in% c(4, 888)</t>
+  </si>
+  <si>
+    <t>!parity %in% c(0, 888)</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b1 &gt;= 0 &amp; breastfeed_dur_b1 &lt;= 24 | breastfeed_dur_b1 == 888 | breastfeed_dur_b1 == 666</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b2 &gt;= 0 &amp; breastfeed_dur_b2 &lt;= 24 | breastfeed_dur_b2 == 888 | breastfeed_dur_b2 == 666</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b3 &gt;=0 &amp; breastfeed_dur_b3 &lt;= 24 | breastfeed_dur_b3 == 888 | breastfeed_dur_b3 == 666</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b4 &gt;= 0 &amp; breastfeed_dur_b4 &lt;= 24| breastfeed_dur_b4 == 888 | breastfeed_dur_b4 == 666</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b5 &gt;= 0 &amp; breastfeed_dur_b5 &lt;= 24 | breastfeed_dur_b5 == 888 | breastfeed_dur_b5 == 666</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b6 &gt;= 0 &amp; breastfeed_dur_b6 &lt;= 24 | breastfeed_dur_b6 == 888 | breastfeed_dur_b6 == 666</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b7 &gt;= 0 &amp; breastfeed_dur_b7 &lt;= 24 |  breastfeed_dur_b7 == 888 | breastfeed_dur_b7 == 666</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b8 &gt;= 0 &amp; breastfeed_dur_b8 &lt;= 24 | breastfeed_dur_b8 == 888 | breastfeed_dur_b8 == 666</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b9 &gt;= 0 &amp; breastfeed_dur_b9 &lt;= 24 | breastfeed_dur_b9 == 888 | breastfeed_dur_b9 == 666</t>
+  </si>
+  <si>
+    <t>breastfeed_dur_b10 &gt;= 0 &amp; breastfeed_dur_b10 &lt;= 24 | breastfeed_dur_b10 == 888 | breastfeed_dur_b10 == 666</t>
+  </si>
+  <si>
+    <t>ocuse_dur &gt; 0 &amp; ocuse_dur &lt;= 500 | ocuse_dur == 888</t>
+  </si>
+  <si>
+    <t>!ocuse_ever %in% c(0,888)</t>
+  </si>
+  <si>
+    <t>ocuse_start &gt;= 10 &amp; ocuse_start &lt;= 58 | ocuse_start == 888</t>
+  </si>
+  <si>
+    <t>ocuse_stop,ocuse_start</t>
+  </si>
+  <si>
+    <t>ocuse_dur,ocuse_start,ocuse_stop</t>
+  </si>
+  <si>
+    <t>!ocuse_start  %in% c(777,888)</t>
+  </si>
+  <si>
+    <t>!ocuse_stop %in% c(666, 777,888)</t>
+  </si>
+  <si>
+    <t>Verify: hrt_dur is outside range 0-300 months</t>
+  </si>
+  <si>
+    <t>Verify: hrtep_dur is outside range 0-300 months</t>
+  </si>
+  <si>
+    <t>Verify: hrteonly_dur is outside range 0-300 months</t>
+  </si>
+  <si>
+    <t>Verify: hrtep_dur is 777, not consistent with hrtuse_ep</t>
+  </si>
+  <si>
+    <t>hrteonly_dur is  777  hrtuse_eonly should be 0</t>
+  </si>
+  <si>
+    <t>Verify: pa_mets is not within range 0-150 METS</t>
+  </si>
+  <si>
+    <t>2, 3, 4</t>
+  </si>
+  <si>
+    <t>Verify: ocuse_dur is outside range 0-500 months</t>
+  </si>
+  <si>
+    <t>!hrtuse_ep %in% c(0,888)</t>
+  </si>
+  <si>
+    <t>!hrtuse_eonly %in% c(0,888)</t>
+  </si>
+  <si>
+    <t>smoking_amt %in% c(0,777, 888)</t>
+  </si>
+  <si>
+    <t>777, 888</t>
+  </si>
+  <si>
+    <t>0, 888</t>
+  </si>
+  <si>
+    <t>0, 777, 888</t>
+  </si>
+  <si>
+    <t>666, 777, 888</t>
+  </si>
+  <si>
+    <t>hrtuse_ep == 0 | hrtuse_ep == 888</t>
+  </si>
+  <si>
+    <t>hrtuse_eonly == 0 | hrtuse_eonly == 888</t>
+  </si>
+  <si>
+    <t>Biopsies_number == 0 | Biopsies_number == 888</t>
+  </si>
+  <si>
+    <t>BBD_number != 0</t>
+  </si>
+  <si>
+    <t>Biopsies_number != 0</t>
+  </si>
+  <si>
+    <t>smoking_amt reflects current amount smoked, smoking_amt expected to be 0 or 777 if smoking_status is 2, 3, or 4</t>
+  </si>
+  <si>
+    <t>smoking_dur is more than the difference between smoking_init and smoking_stop ± 4 year window</t>
+  </si>
+  <si>
+    <t>between(smoking_stop - smoking_init - smoking_dur, left = -2, right = 2)   | smoking_dur == 888</t>
+  </si>
+  <si>
+    <t>between(  (ocuse_stop * 12) - (ocuse_start * 12) - ocuse_dur, left = -24, right = 24)</t>
+  </si>
+  <si>
+    <t>Verify: ocuse_dur is expected to be within the difference between ocuse_stop and ocuse_start ± 4 year window</t>
+  </si>
+  <si>
+    <t>Verify: ocuse_stop is either smaller than ocuse_start or greater than 58</t>
+  </si>
+  <si>
+    <t>ocuse_stop &gt;= ocuse_start &amp; ocuse_stop &lt;= 58 | ocuse_stop == 888 | ocuse_stop == 666</t>
+  </si>
+  <si>
+    <t>Verify: agemenarche is outside of range 8-21 yrs</t>
+  </si>
+  <si>
+    <t>parity == 2 &amp; parity != 888 &amp; parity != 777</t>
+  </si>
+  <si>
+    <t>parity ==3 &amp; parity != 888 &amp; parity != 777</t>
+  </si>
+  <si>
+    <t>parity ==4 &amp; parity != 888 &amp; parity != 777</t>
+  </si>
+  <si>
+    <t>parity ==5 &amp; parity != 888 &amp; parity != 777</t>
+  </si>
+  <si>
+    <t>parity ==6 &amp; parity != 888 &amp; parity != 777</t>
+  </si>
+  <si>
+    <t>parity ==7 &amp; parity != 888 &amp; parity != 777</t>
+  </si>
+  <si>
+    <t>parity ==8 &amp; parity != 888 &amp; parity != 777</t>
+  </si>
+  <si>
+    <t>parity ==9 &amp; parity != 888 &amp; parity != 777</t>
+  </si>
+  <si>
+    <t>parity is 2, please check if 666 was accidentally entered as a value for age at pregancy; or if later age at pregnancy should be greater than the previous age at pregnancy.</t>
+  </si>
+  <si>
+    <t>parity is 3, please check if 666 was accidentally entered as a value for age at pregancy; or if later age at pregnancy should be greater than the previous age at pregnancy.</t>
+  </si>
+  <si>
+    <t>parity is 5, please check if 666 was accidentally entered as a value for age at pregancy; or if later age at pregnancy should be greater than the previous age at pregnancy.</t>
+  </si>
+  <si>
+    <t>parity is 6, please check if 666 was accidentally entered as a value for age at pregancy; or if later age at pregnancy should be greater than the previous age at pregnancy.</t>
+  </si>
+  <si>
+    <t>parity is 8, please check if 666 was accidentally entered as a value for age at pregancy; or if later age at pregnancy should be greater than the previous age at pregnancy.</t>
+  </si>
+  <si>
+    <t>parity is 10, please check if 666 was accidentally entered as a value for age at pregancy; or if later age at pregnancy should be greater than the previous age at pregnancy.</t>
+  </si>
+  <si>
+    <t>parity is 9, please check if 666 was accidentally entered as a value for age at pregancy; or if later age at pregnancy should be greater than the previous age at pregnancy.</t>
+  </si>
+  <si>
+    <t>parity is 7, please check if 666 was accidentally entered as a value for age at pregancy; or if later age at pregnancy should be greater than the previous age at pregnancy.</t>
+  </si>
+  <si>
+    <t>parity is 4, please check if 666 was accidentally entered as a value for age at pregancy; or if later age at pregnancy should be greater than the previous age at pregnancy.</t>
+  </si>
+  <si>
+    <t>!age_preg3 %in% c(666) &amp; !age_preg2 %in% c(666) &amp; !age_preg1 %in% c(666) &amp; age_preg3 &gt; age_preg2  | age_preg3 == 888 | age_preg2 == 888 | age_preg1 == 888</t>
+  </si>
+  <si>
+    <t>!age_preg4 %in% c(666) &amp; age_preg4 &gt; age_preg3 &amp; !age_preg3 %in% c(666) &amp; !age_preg2 %in% c(666) &amp; !age_preg1 %in% c(666)   | age_preg4 == 888 | age_preg3 == 888 | age_preg2 == 888 | age_preg1 == 888</t>
+  </si>
+  <si>
+    <t>!age_preg6 %in% c(666) &amp; age_preg6 &gt; age_preg5 &amp; !age_preg5 %in% c(666) &amp; !age_preg4 %in% c(666) &amp; !age_preg3 %in% c(666)&amp; !age_preg2 %in% c(666) &amp; !age_preg1 %in% c(666) | age_preg6 == 888 | age_preg5 == 888 | age_preg4 == 888 | age_preg3 == 888 | age_preg2 == 888 | age_preg1 == 888</t>
+  </si>
+  <si>
+    <t>!age_preg7 %in% c(666) &amp; age_preg7 &gt; age_preg6 &amp; !age_preg6 %in% c(666)  &amp; !age_preg5 %in% c(666) &amp; !age_preg4  %in% c(666)  &amp; !age_preg3 %in% c(666) &amp; !age_preg2 %in% c(666) &amp; !age_preg1 %in% c(666) | age_preg7 == 888 | age_preg6 == 888 | age_preg5 == 888 | age_preg4 == 888 | age_preg3 == 888 | age_preg2 == 888 |age_preg1 == 888</t>
+  </si>
+  <si>
+    <t>!age_preg8 %in% c(666) &amp; age_preg8 &gt; age_preg7 &amp; !age_preg7 %in% c(666)  &amp; !age_preg6 %in% c(666) &amp; !age_preg5 %in% c(666)  &amp; !age_preg4 %in% c(666)  &amp; !age_preg3 %in% c(666) &amp; !age_preg2 %in% c(666) &amp; !age_preg1 %in% c(666)  | age_preg8 == 888 | age_preg7 == 888 | age_preg6 == 888 | age_preg5 == 888 | age_preg4 == 888 | age_preg3 == 888 | age_preg2 == 888 |age_preg1 == 888</t>
+  </si>
+  <si>
+    <t>!age_preg9 %in% c(666) &amp; age_preg9 &gt; age_preg8 &amp; !age_preg8 %in% c(666) &amp; !age_preg7 %in% c(666)  &amp; !age_preg6 %in% c(666) &amp; !age_preg5 %in% c(666) &amp; !age_preg4 %in% c(666) &amp; !age_preg3 %in% c(666) &amp; !age_preg2 %in% c(666) &amp; !age_preg1 %in% c(666) | age_preg9 == 888 | age_preg8 == 888 | age_preg7 == 888 | age_preg6 == 888 | age_preg5 == 888 | age_preg4 == 888 | age_preg3 == 888 | age_preg2 == 888 | age_preg1 == 888</t>
+  </si>
+  <si>
+    <t>!age_preg10 %in% c(666) &amp; age_preg10 &gt; age_preg9 &amp; !age_preg9 %in% c(666) &amp; !age_preg8 %in% c(666) &amp; !age_preg7 %in% c(666) &amp;  !age_preg6 %in% c(666)  &amp; !age_preg5 %in% c(666)  &amp; !age_preg4 %in% c(666) &amp; !age_preg3 %in% c(666) &amp; !age_preg2 %in% c(666) &amp; !age_preg1 %in% c(666)  | age_preg10 == 888 | age_preg9 == 888 | age_preg8 == 888 | age_preg7 == 888 | age_preg7 == 888 | age_preg6 == 888 | age_preg5 == 888 | age_preg4 == 888 | age_preg3 == 888 | age_preg2 == 888 | age_preg1 == 888</t>
   </si>
   <si>
     <t>parity &gt;=10 &amp; parity != 888 &amp; parity != 777</t>
   </si>
   <si>
-    <t>parity ≥ 10, ages of pregnancy variables not consistent</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b1</t>
-  </si>
-  <si>
-    <t>crossrange2.warnings</t>
-  </si>
-  <si>
-    <t>parous</t>
-  </si>
-  <si>
-    <t>parous == 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parity &gt;= 1 &amp; parity != 888  </t>
-  </si>
-  <si>
-    <t>Verify: breastfeed_dur_b1 is outside range 0-24 months</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parity &gt;= 2   &amp; parity != 888  </t>
-  </si>
-  <si>
-    <t>Verify: breastfeed_dur_b2 is outside range 0-24 months</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parity &gt;= 3  &amp; parity != 888  </t>
-  </si>
-  <si>
-    <t>Verify: breastfeed_dur_b3 is outside range 0-24 months</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parity &gt;= 4  &amp; parity != 888  </t>
-  </si>
-  <si>
-    <t>Verify: breastfeed_dur_b4 is outside range 0-24 months</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parity &gt;= 5  &amp; parity != 888  </t>
-  </si>
-  <si>
-    <t>Verify: breastfeed_dur_b5 is outside range 0-24 months</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parity &gt;= 6  &amp; parity != 888  </t>
-  </si>
-  <si>
-    <t>Verify: breastfeed_dur_b6 is outside range 0-12 months</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parity &gt;= 7  &amp; parity != 888  </t>
-  </si>
-  <si>
-    <t>Verify: breastfeed_dur_b7 is outside range 0-12 months</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parity &gt;= 8  &amp; parity != 888  </t>
-  </si>
-  <si>
-    <t>Verify: breastfeed_dur_b8 is outside range 0-12 months</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parity &gt;=9  &amp; parity != 888  </t>
-  </si>
-  <si>
-    <t>Verify: breastfeed_dur_b9 is outside range 0-12 months</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parity &gt;= 10  &amp; parity != 888  </t>
-  </si>
-  <si>
-    <t>Verify: breastfeed_dur_b10 is outside range 0-12 months</t>
-  </si>
-  <si>
-    <t>alcohol_status</t>
-  </si>
-  <si>
-    <t>1, 2, 3, 4, 888</t>
-  </si>
-  <si>
-    <t>alcohol_status does not have recognized values</t>
-  </si>
-  <si>
-    <t>crossvalid3.warnings</t>
-  </si>
-  <si>
-    <t>alcohol_init</t>
-  </si>
-  <si>
-    <t>alcohol_stop</t>
-  </si>
-  <si>
-    <t>alcohol_dur</t>
-  </si>
-  <si>
-    <t>alcohol_status is 4 (never drinker); not consistent with alcohol_init, alochol_stop or alcohol_dur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alcohol_status is 1 (current drinker), alcohol_stop expected to be 666 </t>
-  </si>
-  <si>
-    <t>alcohol_init &gt; 10 &amp; alcohol_init &lt;= 70 | alcohol_init ==888</t>
-  </si>
-  <si>
-    <t>!alcohol_status %in% c(4, 777,888)</t>
-  </si>
-  <si>
-    <t>Verify: alcohol_init is not within range 10-70 years</t>
-  </si>
-  <si>
-    <t>alcohol_init,age</t>
-  </si>
-  <si>
-    <t>!alcohol_init %in% c(777,888)</t>
-  </si>
-  <si>
-    <t>2, 4</t>
-  </si>
-  <si>
-    <t>Verify: values of alcohol_init and alcohol_status are not consistent</t>
-  </si>
-  <si>
-    <t>alcohol_amt</t>
-  </si>
-  <si>
-    <t>alcohol_amt &gt; 0 &amp; alcohol_amt &lt;= 25 | alcohol_amt == 888</t>
-  </si>
-  <si>
-    <t>Verify: alcohol_amt is outside range 0-25 gms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alcohol_stop </t>
-  </si>
-  <si>
-    <t>Verify: alcohol_stop is outside range 0-100 years</t>
-  </si>
-  <si>
-    <t>alcohol_dur &gt; 0 &amp; alcohol_dur &lt;= 50 | alcohol_dur == 888</t>
-  </si>
-  <si>
-    <t>Verify: alcohol_dur is outside range 0-50 years</t>
-  </si>
-  <si>
-    <t>smoking_init</t>
-  </si>
-  <si>
-    <t>smoking_init &gt; 0 &amp; smoking_init &lt;= 70 | smoking_init == 888</t>
-  </si>
-  <si>
-    <t>smoking_status</t>
-  </si>
-  <si>
-    <t>!smoking_status %in% c(4,777,888)</t>
-  </si>
-  <si>
-    <t>Verify: smoking_init outside  range 0-70 years</t>
-  </si>
-  <si>
-    <t>smoking_amt</t>
-  </si>
-  <si>
-    <t>smoking_amt &gt; 0 &amp; smoking_amt &lt;= 60 | smoking_amt == 888</t>
-  </si>
-  <si>
-    <t>Verify: smoking_amt is outside  range 0-60 cigarrettes</t>
-  </si>
-  <si>
-    <t>smoking_stop</t>
-  </si>
-  <si>
-    <t>smoking_stop &gt; 0 &amp; smoking_stop &lt;= 100 | smoking_stop == 888 | smoking_stop == 666</t>
-  </si>
-  <si>
-    <t>Verify: smoking_stop is outside range 0-100 years</t>
-  </si>
-  <si>
-    <t>smoking_dur</t>
-  </si>
-  <si>
-    <t>smoking_dur &gt;0 &amp; smoking_dur &lt;= 50 | smoking_dur ==888</t>
-  </si>
-  <si>
-    <t>smoking_stop != 666</t>
-  </si>
-  <si>
-    <t>Verify: smoking_dur is not within range 0-50 years</t>
-  </si>
-  <si>
-    <t>smoking_init,smoking_dur,smoking_stop</t>
-  </si>
-  <si>
-    <t>smoking_dur &lt; (1 + smoking_stop - smoking_init)  | smoking_dur == 888</t>
-  </si>
-  <si>
-    <t>!smoking_init %in% c(777,888)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> !smoking_stop %in% c(666,777,888)</t>
-  </si>
-  <si>
-    <t>smoking_dur is more than the difference between smoking_init and smoking_stop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smoking_init </t>
-  </si>
-  <si>
-    <t>smoking_status is 4 (never smoker) ; not consistent with smoking_init, smoking_stop or smoking_dur</t>
-  </si>
-  <si>
-    <t>Verify: values of smoking_status and smoking_stop are not consistent</t>
-  </si>
-  <si>
-    <t>smoking_dur,age</t>
-  </si>
-  <si>
-    <t>smoking_dur &lt; age - 7 | smoking_dur == 888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age </t>
-  </si>
-  <si>
-    <t>!is.na(age)</t>
-  </si>
-  <si>
-    <t>Verify: smoking_dur ≥ age - 7 years</t>
-  </si>
-  <si>
-    <t>Biopsies_yesno</t>
-  </si>
-  <si>
-    <t>Biopsies_number</t>
-  </si>
-  <si>
-    <t>!Biopsies_number %in% c(0, 888)</t>
-  </si>
-  <si>
-    <t>Verify: value of Biopsies_yesno = 1 not consistent with Biopsies_number</t>
-  </si>
-  <si>
-    <t>Biopsies_number == 0</t>
-  </si>
-  <si>
-    <t>Verify: values of Biopsies_yesno = 0, not consistent with Biopsies_number</t>
-  </si>
-  <si>
-    <t>Biopsies_number == 888</t>
-  </si>
-  <si>
-    <t>Verify: values of Biopsies_yesno = 888,  not consistent with Biopsies_number</t>
-  </si>
-  <si>
-    <t>BBD_history</t>
-  </si>
-  <si>
-    <t>BBD_number</t>
-  </si>
-  <si>
-    <t>!BBD_number %in% c(0, 888)</t>
-  </si>
-  <si>
-    <t>Verify: BBD_history = 1, not consistent with BBD_number</t>
-  </si>
-  <si>
-    <t>Verify: BBD_history = 0, not consistent with BBD_number</t>
-  </si>
-  <si>
-    <t>Verify: BBD_history = 888, not consistent with BBD_number</t>
-  </si>
-  <si>
-    <t>breastfeed</t>
-  </si>
-  <si>
-    <t>Verify: parous is 0, not consistent with age_preg1, parity, or breastfeed</t>
-  </si>
-  <si>
-    <t>Verify: parous is 888, not consistent with age_preg1, parity, or breastfeed</t>
-  </si>
-  <si>
-    <t>!breastfeed %in% c(777,888) &amp; !age_preg1 %in% c(777,888)</t>
-  </si>
-  <si>
-    <t>Verify: parous is not consistent with age_preg1, parity, or breastfeed</t>
-  </si>
-  <si>
-    <t>breastfeed_dur</t>
-  </si>
-  <si>
-    <t>Verify: parous is 0, not consistent with breastfeed_dur</t>
-  </si>
-  <si>
-    <t>breastfeed is 0 but breastfeed_dur is not 666</t>
-  </si>
-  <si>
-    <t>Verify: breastfeed_dur is outside range 0-84 months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">breastfeed </t>
-  </si>
-  <si>
-    <t>Verify: breastfeed_dur is 666, not consistent with breastfeed</t>
-  </si>
-  <si>
-    <t>ocuse_dur</t>
-  </si>
-  <si>
-    <t>ocuse_ever</t>
-  </si>
-  <si>
-    <t>ocuse_start</t>
-  </si>
-  <si>
-    <t>Verify: ocuse_start is outside range 16-58 years</t>
-  </si>
-  <si>
-    <t>ocuse_stop</t>
-  </si>
-  <si>
-    <t>ocuse_ever is 0 (never user): not consistent with ocuse_start, or ocuse_stop, or ocuse_dur</t>
-  </si>
-  <si>
-    <t>ocuse_current</t>
-  </si>
-  <si>
-    <t>Verify: ocuse_current is 1, not consistent with ocuse_stop</t>
-  </si>
-  <si>
-    <t>Verify: ocuse_stop is 666, not consistent with ocuse_current</t>
-  </si>
-  <si>
-    <t>othcontracep_current</t>
-  </si>
-  <si>
-    <t>othcontracep_ever</t>
-  </si>
-  <si>
-    <t>Verify: othcontracep_current is 1, not consistent with othcontracep_ever</t>
-  </si>
-  <si>
-    <t>othcontracep_ever != 0</t>
-  </si>
-  <si>
-    <t>Verify: othcontracep_current is 888, not consistent with othcontracep_ever</t>
-  </si>
-  <si>
-    <t>meno_status</t>
-  </si>
-  <si>
-    <t>crossvalid2.warnings</t>
-  </si>
-  <si>
-    <t>meno_age</t>
-  </si>
-  <si>
-    <t>meno_reason</t>
-  </si>
-  <si>
-    <t>Verify: meno_status is 2 (pre-menopausal), not consistent with meno_age and meno_reason</t>
-  </si>
-  <si>
-    <t>hrt_dur</t>
-  </si>
-  <si>
-    <t>hrtep_dur</t>
-  </si>
-  <si>
-    <t>hrteonly_dur</t>
-  </si>
-  <si>
-    <t>Verify:  verify values of hrt_dur, hrtep_dur, hrteonly_dur with meno_status = 2 (pre-menopausal)</t>
-  </si>
-  <si>
-    <t>hrtuse</t>
-  </si>
-  <si>
-    <t>!hrtuse %in% c(0,888)</t>
-  </si>
-  <si>
-    <t>666, 777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hrtuse is 0 (never user):  not consistent with hrt_dur, hrtep_dur, or hrteonly_dur </t>
-  </si>
-  <si>
-    <t>hrtuse_ep</t>
-  </si>
-  <si>
-    <t>Verify:  hrtuse_ep is 0 (never user), not consistent with hrtep_dur</t>
-  </si>
-  <si>
-    <t>hrtuse_eonly</t>
-  </si>
-  <si>
-    <t>hrtuse_eonly is 0 ( never user) but hrteonly_dur is not 666 or777</t>
-  </si>
-  <si>
-    <t>hrtuse == 1</t>
-  </si>
-  <si>
-    <t>hrtuse_ep == 1</t>
-  </si>
-  <si>
-    <t>hrtuse_eonly == 1</t>
-  </si>
-  <si>
-    <t>hrtuse is not 1 but hrtuse_eonly and hrtuse_ep are 1 (current user)</t>
-  </si>
-  <si>
-    <t>hrtuse == 2</t>
-  </si>
-  <si>
-    <t>hrtuse_ep == 2</t>
-  </si>
-  <si>
-    <t>hrtuse_eonly == 2</t>
-  </si>
-  <si>
-    <t>hrtuse is not 2 but hrtuse_eonly and hrtuse_ep are both 2 (former user)</t>
-  </si>
-  <si>
-    <t>hrtuse_ep == 0</t>
-  </si>
-  <si>
-    <t>hrtuse is 0 (never user), not consistent with hrtuse_eponly</t>
-  </si>
-  <si>
-    <t>hrtuse_eonly == 0</t>
-  </si>
-  <si>
-    <t>hrtuse is 0 (never user), not consistent with hrtuse_eonly</t>
-  </si>
-  <si>
-    <t>screen_start</t>
-  </si>
-  <si>
-    <t>screen_start &gt;= 16 &amp; screen_start &lt;= 90 | screen_start == 888</t>
-  </si>
-  <si>
-    <t>screen_ever</t>
-  </si>
-  <si>
-    <t>!screen_ever %in% c(0,888)</t>
-  </si>
-  <si>
-    <t>Verify: screen_start is outside range 16-90 years</t>
-  </si>
-  <si>
-    <t>lastscreen_year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">screen_ever is 0, not consistent with lastscreen_year or screen_start </t>
-  </si>
-  <si>
-    <t>pa_mets</t>
-  </si>
-  <si>
-    <t>pa_pct</t>
-  </si>
-  <si>
-    <t>pa_pct is not within range 0-100 %</t>
-  </si>
-  <si>
-    <t>alcohol_init &lt;= age</t>
-  </si>
-  <si>
-    <t>Verify: age at alcohol inititation (alcohol_init) is larger than the age at record date (age)</t>
-  </si>
-  <si>
-    <t>!alcohol_status %in% c(1, 4, 888)</t>
-  </si>
-  <si>
-    <t>!alcohol_status %in% c(4 ,888)</t>
-  </si>
-  <si>
-    <t>alcohol_stop &gt; 0 &amp; alcohol_stop &lt;= 100 | alcohol_stop ==888 | alcohol_stop == 666</t>
-  </si>
-  <si>
-    <t>!smoking_status %in% c(4, 888)</t>
-  </si>
-  <si>
-    <t>!parity %in% c(0, 888)</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b1 &gt;= 0 &amp; breastfeed_dur_b1 &lt;= 24 | breastfeed_dur_b1 == 888 | breastfeed_dur_b1 == 666</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b2 &gt;= 0 &amp; breastfeed_dur_b2 &lt;= 24 | breastfeed_dur_b2 == 888 | breastfeed_dur_b2 == 666</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b3 &gt;=0 &amp; breastfeed_dur_b3 &lt;= 24 | breastfeed_dur_b3 == 888 | breastfeed_dur_b3 == 666</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b4 &gt;= 0 &amp; breastfeed_dur_b4 &lt;= 24| breastfeed_dur_b4 == 888 | breastfeed_dur_b4 == 666</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b5 &gt;= 0 &amp; breastfeed_dur_b5 &lt;= 24 | breastfeed_dur_b5 == 888 | breastfeed_dur_b5 == 666</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b6 &gt;= 0 &amp; breastfeed_dur_b6 &lt;= 24 | breastfeed_dur_b6 == 888 | breastfeed_dur_b6 == 666</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b7 &gt;= 0 &amp; breastfeed_dur_b7 &lt;= 24 |  breastfeed_dur_b7 == 888 | breastfeed_dur_b7 == 666</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b8 &gt;= 0 &amp; breastfeed_dur_b8 &lt;= 24 | breastfeed_dur_b8 == 888 | breastfeed_dur_b8 == 666</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b9 &gt;= 0 &amp; breastfeed_dur_b9 &lt;= 24 | breastfeed_dur_b9 == 888 | breastfeed_dur_b9 == 666</t>
-  </si>
-  <si>
-    <t>breastfeed_dur_b10 &gt;= 0 &amp; breastfeed_dur_b10 &lt;= 24 | breastfeed_dur_b10 == 888 | breastfeed_dur_b10 == 666</t>
-  </si>
-  <si>
-    <t>ocuse_dur &gt; 0 &amp; ocuse_dur &lt;= 500 | ocuse_dur == 888</t>
-  </si>
-  <si>
-    <t>!ocuse_ever %in% c(0,888)</t>
-  </si>
-  <si>
-    <t>ocuse_start &gt;= 10 &amp; ocuse_start &lt;= 58 | ocuse_start == 888</t>
-  </si>
-  <si>
-    <t>ocuse_stop,ocuse_start</t>
-  </si>
-  <si>
-    <t>ocuse_dur,ocuse_start,ocuse_stop</t>
-  </si>
-  <si>
-    <t>!ocuse_start  %in% c(777,888)</t>
-  </si>
-  <si>
-    <t>!ocuse_stop %in% c(666, 777,888)</t>
-  </si>
-  <si>
-    <t>between(  (ocuse_stop * 12) - (ocuse_start * 12) - ocuse_dur, left = -6, right = 6)</t>
-  </si>
-  <si>
-    <t>Please verify that ocuse_start, ocuse_stop, and ocuse_dur are consistent</t>
-  </si>
-  <si>
-    <t>ocuse_stop &gt; ocuse_start &amp; ocuse_stop &lt;= 58 | ocuse_stop == 888 | ocuse_stop == 666</t>
-  </si>
-  <si>
-    <t>hrt_dur &gt; 0 &amp; hrt_dur &lt;= 300 | hrt_dur == 888</t>
-  </si>
-  <si>
-    <t>Verify: hrt_dur is outside range 0-300 months</t>
-  </si>
-  <si>
-    <t>Verify: ocuse_stop is either smaller than ocuse_stop or greater than 58</t>
-  </si>
-  <si>
-    <t>Verify: hrtep_dur is outside range 0-300 months</t>
-  </si>
-  <si>
-    <t>Verify: hrteonly_dur is outside range 0-300 months</t>
-  </si>
-  <si>
-    <t>hrteonly_dur &gt; 0 &amp; hrteonly_dur &lt;= 300 | hrteonly_dur == 888</t>
-  </si>
-  <si>
-    <t>hrtep_dur &gt; 0 &amp; hrtep_dur &lt;= 300 | hrtep_dur == 888</t>
-  </si>
-  <si>
-    <t>Verify: hrtep_dur is 777, not consistent with hrtuse_ep</t>
-  </si>
-  <si>
-    <t>hrteonly_dur is  777  hrtuse_eonly should be 0</t>
-  </si>
-  <si>
-    <t>Verify: pa_mets is not within range 0-150 METS</t>
-  </si>
-  <si>
-    <t>smoking_amt %in% c(0,777)</t>
-  </si>
-  <si>
-    <t>2, 3, 4</t>
-  </si>
-  <si>
-    <t>smoking_amt should be 0 or 777 if smoking_status is 2, 3, or 4</t>
-  </si>
-  <si>
-    <t>Verify: ocuse_dur is outside range 0-500 months</t>
-  </si>
-  <si>
-    <t>!hrtuse_ep %in% c(0,888)</t>
-  </si>
-  <si>
-    <t>!hrtuse_eonly %in% c(0,888)</t>
+    <t>!age_preg5 %in% c(666) &amp; age_preg5 &gt; age_preg4 &amp; !age_preg4 %in% c(666) &amp; !age_preg3 %in% c(666) &amp; !age_preg2 %in% c(666) &amp; !age_preg1 %in% c(666)  | age_preg5 == 888| age_preg4 == 888 | age_preg3 == 888 | age_preg2 == 888 | age_preg1 == 888</t>
+  </si>
+  <si>
+    <t>smoking_dur &gt;= 0 &amp; smoking_dur &lt;= 50 | smoking_dur ==888</t>
+  </si>
+  <si>
+    <t>hrtep_dur &gt; 0 &amp; hrtep_dur &lt;= 300 | hrtep_dur == 888 | hrtep_dur == 666</t>
+  </si>
+  <si>
+    <t>hrteonly_dur &gt; 0 &amp; hrteonly_dur &lt;= 300 | hrteonly_dur == 888 | hrteonly_dur == 666</t>
+  </si>
+  <si>
+    <t>hrt_dur &gt; 0 &amp; hrt_dur &lt;= 300 | hrt_dur == 888 | hrt_dur == 666</t>
+  </si>
+  <si>
+    <t>lastfup</t>
+  </si>
+  <si>
+    <t>!is.na(lastfup)</t>
+  </si>
+  <si>
+    <t>lastfup expected to be filled out for everyone</t>
+  </si>
+  <si>
+    <t>lastfup != 7777</t>
+  </si>
+  <si>
+    <t>Please provide an explanation for why lastfup is reported as 7777.</t>
+  </si>
+  <si>
+    <t>lastfup != 8888</t>
+  </si>
+  <si>
+    <t>Please provide an explanation for why lastfup is missing/unknown.</t>
   </si>
 </sst>
 </file>
@@ -1434,10 +1455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T111"/>
+  <dimension ref="A1:T113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F86" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J98" sqref="J98"/>
+    <sheetView tabSelected="1" topLeftCell="B87" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="T113" sqref="T113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1449,7 +1470,7 @@
     <col min="5" max="5" width="17.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="74.6640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -1841,18 +1862,18 @@
         <v>8</v>
       </c>
       <c r="D17" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="S17" s="2" t="s">
         <v>63</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>64</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>34</v>
@@ -1864,15 +1885,15 @@
         <v>200</v>
       </c>
       <c r="S18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T18" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>34</v>
@@ -1884,15 +1905,15 @@
         <v>50</v>
       </c>
       <c r="S19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="T19" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>34</v>
@@ -1904,15 +1925,15 @@
         <v>150</v>
       </c>
       <c r="S20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T20" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>34</v>
@@ -1924,15 +1945,15 @@
         <v>50</v>
       </c>
       <c r="S21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="T21" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>34</v>
@@ -1944,15 +1965,15 @@
         <v>160</v>
       </c>
       <c r="S22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T22" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>34</v>
@@ -1964,15 +1985,15 @@
         <v>160</v>
       </c>
       <c r="S23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="T23" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="T23" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>34</v>
@@ -1984,15 +2005,15 @@
         <v>1.2</v>
       </c>
       <c r="S24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T24" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>34</v>
@@ -2004,15 +2025,15 @@
         <v>58</v>
       </c>
       <c r="S25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="T25" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>34</v>
@@ -2024,15 +2045,15 @@
         <v>58</v>
       </c>
       <c r="S26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T26" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>34</v>
@@ -2044,15 +2065,15 @@
         <v>58</v>
       </c>
       <c r="S27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="T27" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>34</v>
@@ -2064,15 +2085,15 @@
         <v>58</v>
       </c>
       <c r="S28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="T28" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>34</v>
@@ -2084,15 +2105,15 @@
         <v>58</v>
       </c>
       <c r="S29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="T29" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>34</v>
@@ -2104,15 +2125,15 @@
         <v>58</v>
       </c>
       <c r="S30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="T30" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="T30" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>34</v>
@@ -2124,15 +2145,15 @@
         <v>58</v>
       </c>
       <c r="S31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="T31" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>34</v>
@@ -2144,15 +2165,15 @@
         <v>58</v>
       </c>
       <c r="S32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="T32" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="T32" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>34</v>
@@ -2164,15 +2185,15 @@
         <v>58</v>
       </c>
       <c r="S33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T33" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="T33" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>34</v>
@@ -2184,252 +2205,252 @@
         <v>58</v>
       </c>
       <c r="S34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="T34" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="T34" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="I35" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>102</v>
+        <v>312</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>103</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>105</v>
+        <v>329</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>106</v>
+        <v>313</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>107</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>109</v>
+        <v>330</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>110</v>
+        <v>314</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>111</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>113</v>
+        <v>337</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>114</v>
+        <v>315</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>115</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>117</v>
+        <v>331</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>118</v>
+        <v>316</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>119</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>121</v>
+        <v>332</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>122</v>
+        <v>317</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>123</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>125</v>
+        <v>333</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>126</v>
+        <v>318</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>127</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>129</v>
+        <v>334</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>131</v>
+        <v>319</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>132</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>134</v>
+        <v>335</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>135</v>
+        <v>336</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>136</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="C44" s="2">
         <v>0</v>
@@ -2438,36 +2459,36 @@
         <v>24</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
@@ -2476,36 +2497,36 @@
         <v>24</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
@@ -2514,36 +2535,36 @@
         <v>24</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -2552,36 +2573,36 @@
         <v>24</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
@@ -2590,36 +2611,36 @@
         <v>24</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
@@ -2628,36 +2649,36 @@
         <v>24</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
@@ -2666,36 +2687,36 @@
         <v>24</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
@@ -2704,36 +2725,36 @@
         <v>24</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
@@ -2742,36 +2763,36 @@
         <v>24</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="I52" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="T52" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
@@ -2780,85 +2801,85 @@
         <v>24</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="J53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="S53" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="L53" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="S53" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="T53" s="3" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="E55" s="2">
         <v>4</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="J55" s="2">
         <v>777</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="M55" s="2">
         <v>777</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="P55" s="2">
         <v>777</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>37</v>
@@ -2867,73 +2888,73 @@
         <v>1</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="J56" s="2">
         <v>666</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>37</v>
@@ -2942,302 +2963,302 @@
         <v>777</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="J60" s="2">
         <v>1</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="J64" s="2">
         <v>1</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>337</v>
+        <v>290</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>205</v>
+        <v>338</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>209</v>
+        <v>306</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>212</v>
+        <v>305</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="E69" s="2">
         <v>4</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="J69" s="2">
-        <v>777</v>
+        <v>183</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="M69" s="2">
-        <v>777</v>
+        <v>174</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="P69" s="2">
-        <v>777</v>
+        <v>177</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>37</v>
@@ -3246,157 +3267,157 @@
         <v>1</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="J70" s="2">
         <v>666</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="J72" s="2">
         <v>1</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>225</v>
+        <v>301</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="J73" s="2">
         <v>0</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="J74" s="2">
         <v>888</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>231</v>
+        <v>302</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="J75" s="2">
         <v>1</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="T75" s="2" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>37</v>
@@ -3405,21 +3426,21 @@
         <v>0</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="J76" s="2">
-        <v>0</v>
+        <v>198</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>37</v>
@@ -3428,123 +3449,123 @@
         <v>888</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="J77" s="2">
         <v>888</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="T77" s="2" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="E78" s="2">
         <v>0</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J78" s="2">
         <v>777</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M78" s="2">
         <v>0</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="P78" s="2">
         <v>777</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="T78" s="2" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="E79" s="2">
         <v>888</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J79" s="2">
         <v>888</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M79" s="2">
         <v>888</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="P79" s="2">
         <v>888</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="T80" s="2" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>37</v>
@@ -3553,21 +3574,21 @@
         <v>0</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="J81" s="2">
         <v>777</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="T81" s="2" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>37</v>
@@ -3576,21 +3597,21 @@
         <v>0</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="J82" s="2">
         <v>666</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>34</v>
@@ -3602,15 +3623,15 @@
         <v>84</v>
       </c>
       <c r="S83" s="2" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="T83" s="2" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>37</v>
@@ -3619,166 +3640,166 @@
         <v>666</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="J84" s="2">
         <v>0</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="T84" s="2" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="S85" s="2" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="T85" s="2" t="s">
-        <v>339</v>
+        <v>291</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="S86" s="2" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="T86" s="2" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="S87" s="2" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="T87" s="2" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="S88" s="2" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="T88" s="2" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="E89" s="2">
         <v>0</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="J89" s="2">
-        <v>777</v>
+        <v>213</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="M89" s="2">
-        <v>777</v>
+        <v>215</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="P89" s="2">
-        <v>777</v>
+        <v>217</v>
+      </c>
+      <c r="P89" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="S89" s="2" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="T89" s="2" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>37</v>
@@ -3787,21 +3808,21 @@
         <v>1</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="J90" s="2">
         <v>666</v>
       </c>
       <c r="S90" s="2" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="T90" s="2" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>37</v>
@@ -3810,21 +3831,21 @@
         <v>666</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="J91" s="2">
         <v>1</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="T91" s="2" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>37</v>
@@ -3833,224 +3854,224 @@
         <v>1</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="J92" s="2">
         <v>1</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="T92" s="2" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="J93" s="2">
         <v>888</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="T93" s="2" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="E94" s="2">
         <v>2</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="J94" s="2">
         <v>777</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="M94" s="2">
         <v>777</v>
       </c>
       <c r="S94" s="2" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="T94" s="2" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="E95" s="2">
         <v>2</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="P95" s="2" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="T95" s="2" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="S96" s="2" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="T96" s="2" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="S97" s="2" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="T97" s="2" t="s">
-        <v>329</v>
+        <v>285</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="S98" s="2" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="T98" s="2" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="E99" s="2">
         <v>0</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="S99" s="2" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="T99" s="2" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>37</v>
@@ -4059,21 +4080,21 @@
         <v>0</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="S100" s="2" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="T100" s="2" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>37</v>
@@ -4082,21 +4103,21 @@
         <v>777</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="J101" s="2">
         <v>0</v>
       </c>
       <c r="S101" s="2" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="T101" s="2" t="s">
-        <v>333</v>
+        <v>287</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>37</v>
@@ -4105,21 +4126,21 @@
         <v>0</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="S102" s="2" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="T102" s="2" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>37</v>
@@ -4128,192 +4149,180 @@
         <v>777</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="J103" s="2">
         <v>0</v>
       </c>
       <c r="S103" s="2" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="T103" s="2" t="s">
-        <v>334</v>
+        <v>288</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="S104" s="2" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="T104" s="2" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="J105" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="L105" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="M105" s="2" t="s">
-        <v>283</v>
+        <v>236</v>
+      </c>
+      <c r="J105" s="2">
+        <v>0</v>
       </c>
       <c r="S105" s="2" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="T105" s="2" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="J106" s="2">
         <v>0</v>
       </c>
       <c r="S106" s="2" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="T106" s="2" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="J107" s="2">
-        <v>0</v>
+        <v>252</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="S107" s="2" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="T107" s="2" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>290</v>
+        <v>228</v>
+      </c>
+      <c r="E108" s="2">
+        <v>0</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>292</v>
+        <v>250</v>
+      </c>
+      <c r="J108" s="2">
+        <v>777</v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="M108" s="2">
+        <v>7777</v>
       </c>
       <c r="S108" s="2" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="T108" s="2" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E109" s="2">
+        <v>34</v>
+      </c>
+      <c r="C109" s="2">
         <v>0</v>
       </c>
-      <c r="I109" s="2" t="s">
+      <c r="D109" s="2">
+        <v>150</v>
+      </c>
+      <c r="S109" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="T109" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="J109" s="2">
-        <v>777</v>
-      </c>
-      <c r="L109" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="M109" s="2">
-        <v>7777</v>
-      </c>
-      <c r="S109" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="T109" s="2" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>34</v>
@@ -4322,37 +4331,95 @@
         <v>0</v>
       </c>
       <c r="D110" s="2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="S110" s="2" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="T110" s="2" t="s">
-        <v>335</v>
+        <v>259</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C111" s="2">
-        <v>0</v>
-      </c>
-      <c r="D111" s="2">
-        <v>100</v>
+        <v>21</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="S111" s="2" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="T111" s="2" t="s">
-        <v>298</v>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S112" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="T112" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S113" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="T113" s="2" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T111" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T110" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
